--- a/data/BASE DATOS  JULIO - 2013 - ESCLEROSIS MULTIPLE V3.xlsx
+++ b/data/BASE DATOS  JULIO - 2013 - ESCLEROSIS MULTIPLE V3.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10265" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10267" uniqueCount="749">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -2198,12 +2198,6 @@
     <t>VALERA</t>
   </si>
   <si>
-    <t>AGOS 2010</t>
-  </si>
-  <si>
-    <t>Ago-10</t>
-  </si>
-  <si>
     <t xml:space="preserve">SAN JUAN </t>
   </si>
   <si>
@@ -2219,9 +2213,6 @@
     <t>YAGUA</t>
   </si>
   <si>
-    <t>ABRIL/11</t>
-  </si>
-  <si>
     <t>PTO- FIJO</t>
   </si>
   <si>
@@ -2237,9 +2228,6 @@
     <t>GUANARE</t>
   </si>
   <si>
-    <t>ENERO/11</t>
-  </si>
-  <si>
     <t>PTO FIJO</t>
   </si>
   <si>
@@ -2258,9 +2246,6 @@
     <t>CALABOZO</t>
   </si>
   <si>
-    <t>AGOS 10</t>
-  </si>
-  <si>
     <t>STA. TERESA DEL TUY</t>
   </si>
   <si>
@@ -2273,9 +2258,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>AGO 10</t>
-  </si>
-  <si>
     <t>GUATIRE</t>
   </si>
   <si>
@@ -2291,7 +2273,7 @@
     <t>NO EM</t>
   </si>
   <si>
-    <t>CIACARA DEL ORINOCO</t>
+    <t>CAICARA DEL ORINOCO</t>
   </si>
   <si>
     <t>TINACO</t>
@@ -2310,8 +2292,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy"/>
+    <numFmt numFmtId="165" formatCode="mmm-d"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -2386,7 +2369,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2469,6 +2452,12 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2482,7 +2471,10 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -2493,8 +2485,8 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -28887,8 +28879,8 @@
       <c r="G252" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H252" s="18" t="s">
-        <v>719</v>
+      <c r="H252" s="28">
+        <v>40400.0</v>
       </c>
     </row>
     <row r="253" ht="12.75" customHeight="1">
@@ -29760,8 +29752,8 @@
       <c r="G295" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H295" s="18" t="s">
-        <v>720</v>
+      <c r="H295" s="28">
+        <v>40392.0</v>
       </c>
     </row>
     <row r="296" ht="12.75" customHeight="1">
@@ -30592,8 +30584,8 @@
       <c r="G338" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H338" s="4" t="s">
-        <v>720</v>
+      <c r="H338" s="29">
+        <v>45148.0</v>
       </c>
     </row>
     <row r="339" ht="12.75" customHeight="1">
@@ -31501,7 +31493,7 @@
       </c>
     </row>
     <row r="386" ht="12.75" customHeight="1">
-      <c r="A386" s="28"/>
+      <c r="A386" s="30"/>
       <c r="B386" s="15">
         <v>46.0</v>
       </c>
@@ -31612,7 +31604,7 @@
       </c>
       <c r="F391" s="17"/>
       <c r="G391" s="6" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H391" s="18">
         <v>38749.0</v>
@@ -31789,7 +31781,7 @@
       </c>
       <c r="F400" s="17"/>
       <c r="G400" s="6" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H400" s="18">
         <v>36342.0</v>
@@ -32063,7 +32055,7 @@
       </c>
       <c r="F414" s="17"/>
       <c r="G414" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H414" s="18">
         <v>40756.0</v>
@@ -32531,7 +32523,7 @@
       </c>
       <c r="D438" s="16"/>
       <c r="E438" s="17" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F438" s="17"/>
       <c r="G438" s="6" t="s">
@@ -32924,7 +32916,7 @@
       </c>
       <c r="F458" s="17"/>
       <c r="G458" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H458" s="18">
         <v>41426.0</v>
@@ -33096,7 +33088,7 @@
       </c>
       <c r="F467" s="17"/>
       <c r="G467" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H467" s="18">
         <v>41306.0</v>
@@ -33573,8 +33565,8 @@
       <c r="G492" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H492" s="18" t="s">
-        <v>726</v>
+      <c r="H492" s="28">
+        <v>40278.0</v>
       </c>
     </row>
     <row r="493" ht="12.75" customHeight="1">
@@ -33763,7 +33755,7 @@
       </c>
       <c r="F502" s="17"/>
       <c r="G502" s="6" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H502" s="18">
         <v>36251.0</v>
@@ -33888,7 +33880,7 @@
       </c>
     </row>
     <row r="509" ht="12.75" customHeight="1">
-      <c r="A509" s="29"/>
+      <c r="A509" s="31"/>
       <c r="B509" s="15">
         <v>64.0</v>
       </c>
@@ -34633,7 +34625,7 @@
       </c>
       <c r="F547" s="23"/>
       <c r="G547" s="13" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="H547" s="18">
         <v>40299.0</v>
@@ -34769,7 +34761,7 @@
       </c>
       <c r="F554" s="23"/>
       <c r="G554" s="13" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H554" s="18">
         <v>39539.0</v>
@@ -35816,7 +35808,7 @@
       </c>
       <c r="F608" s="17"/>
       <c r="G608" s="6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="H608" s="18">
         <v>41153.0</v>
@@ -39471,7 +39463,7 @@
       </c>
       <c r="F796" s="17"/>
       <c r="G796" s="6" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="H796" s="18">
         <v>40483.0</v>
@@ -41024,14 +41016,14 @@
       </c>
       <c r="F876" s="17"/>
       <c r="G876" s="6" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="H876" s="18">
         <v>39114.0</v>
       </c>
     </row>
     <row r="877" ht="12.75" customHeight="1">
-      <c r="A877" s="29"/>
+      <c r="A877" s="31"/>
       <c r="B877" s="15">
         <v>18.0</v>
       </c>
@@ -41051,7 +41043,7 @@
       </c>
     </row>
     <row r="878" ht="12.75" customHeight="1">
-      <c r="A878" s="29"/>
+      <c r="A878" s="31"/>
       <c r="B878" s="15">
         <v>38.0</v>
       </c>
@@ -42311,9 +42303,6 @@
       <c r="G942" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H942" s="1" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="943" ht="12.75" customHeight="1">
       <c r="B943" s="15">
@@ -42562,7 +42551,7 @@
       </c>
       <c r="F955" s="17"/>
       <c r="G955" s="6" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="H955" s="18">
         <v>40238.0</v>
@@ -42794,7 +42783,7 @@
       </c>
       <c r="F967" s="17"/>
       <c r="G967" s="6" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="H967" s="18">
         <v>41214.0</v>
@@ -43510,8 +43499,8 @@
       <c r="G1004" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H1004" s="18" t="s">
-        <v>732</v>
+      <c r="H1004" s="28">
+        <v>40554.0</v>
       </c>
     </row>
     <row r="1005" ht="12.75" customHeight="1">
@@ -43720,7 +43709,7 @@
       </c>
       <c r="F1015" s="17"/>
       <c r="G1015" s="6" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H1015" s="18">
         <v>39539.0</v>
@@ -44304,7 +44293,7 @@
       </c>
       <c r="F1045" s="17"/>
       <c r="G1045" s="6" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H1045" s="18">
         <v>41153.0</v>
@@ -44375,7 +44364,7 @@
       </c>
       <c r="D1049" s="16"/>
       <c r="E1049" s="17" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F1049" s="17"/>
       <c r="G1049" s="6" t="s">
@@ -44554,7 +44543,7 @@
       </c>
       <c r="F1058" s="17"/>
       <c r="G1058" s="6" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="H1058" s="18">
         <v>39083.0</v>
@@ -44923,7 +44912,7 @@
       </c>
       <c r="F1077" s="17"/>
       <c r="G1077" s="6" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="H1077" s="18">
         <v>40238.0</v>
@@ -46148,7 +46137,7 @@
       </c>
       <c r="F1140" s="17"/>
       <c r="G1140" s="6" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="H1140" s="18">
         <v>40360.0</v>
@@ -46533,7 +46522,7 @@
       </c>
       <c r="F1160" s="17"/>
       <c r="G1160" s="6" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="H1160" s="18">
         <v>40585.0</v>
@@ -48929,7 +48918,7 @@
       </c>
       <c r="F1284" s="17"/>
       <c r="G1284" s="6" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H1284" s="18">
         <v>41365.0</v>
@@ -48987,7 +48976,7 @@
       </c>
       <c r="F1287" s="17"/>
       <c r="G1287" s="6" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="H1287" s="18">
         <v>39783.0</v>
@@ -49429,8 +49418,8 @@
       <c r="G1310" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H1310" s="18" t="s">
-        <v>739</v>
+      <c r="H1310" s="28">
+        <v>40391.0</v>
       </c>
     </row>
     <row r="1311" ht="12.75" customHeight="1">
@@ -49644,8 +49633,8 @@
       <c r="G1321" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H1321" s="18" t="s">
-        <v>732</v>
+      <c r="H1321" s="28">
+        <v>40544.0</v>
       </c>
     </row>
     <row r="1322" ht="12.75" customHeight="1">
@@ -49758,7 +49747,7 @@
       </c>
       <c r="F1327" s="17"/>
       <c r="G1327" s="6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="H1327" s="18">
         <v>38384.0</v>
@@ -49990,7 +49979,7 @@
       </c>
       <c r="F1339" s="17"/>
       <c r="G1339" s="6" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="H1339" s="18">
         <v>41365.0</v>
@@ -50003,7 +49992,7 @@
       <c r="C1340" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="D1340" s="30"/>
+      <c r="D1340" s="32"/>
       <c r="E1340" s="17" t="s">
         <v>706</v>
       </c>
@@ -50244,7 +50233,7 @@
       </c>
       <c r="F1352" s="17"/>
       <c r="G1352" s="6" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="H1352" s="18">
         <v>40330.0</v>
@@ -50617,7 +50606,7 @@
       </c>
       <c r="F1371" s="17"/>
       <c r="G1371" s="6" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="H1371" s="18">
         <v>39326.0</v>
@@ -53317,7 +53306,7 @@
       </c>
       <c r="F1510" s="17"/>
       <c r="G1510" s="6" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="H1510" s="18">
         <v>41091.0</v>
@@ -53542,7 +53531,7 @@
       </c>
     </row>
     <row r="1522" ht="12.75" customHeight="1">
-      <c r="A1522" s="31"/>
+      <c r="A1522" s="33"/>
       <c r="B1522" s="15">
         <v>29.0</v>
       </c>
@@ -53636,8 +53625,8 @@
       <c r="G1526" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H1526" s="18" t="s">
-        <v>726</v>
+      <c r="H1526" s="28">
+        <v>40634.0</v>
       </c>
     </row>
     <row r="1527" ht="12.75" customHeight="1">
@@ -54416,7 +54405,7 @@
     <row r="1567" ht="12.75" customHeight="1">
       <c r="A1567" s="19"/>
       <c r="B1567" s="15" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C1567" s="15" t="s">
         <v>368</v>
@@ -54509,8 +54498,8 @@
       <c r="G1571" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H1571" s="18" t="s">
-        <v>744</v>
+      <c r="H1571" s="28">
+        <v>40391.0</v>
       </c>
     </row>
     <row r="1572" ht="12.75" customHeight="1">
@@ -55699,7 +55688,7 @@
       </c>
       <c r="F1631" s="17"/>
       <c r="G1631" s="6" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="H1631" s="18">
         <v>41275.0</v>
@@ -56839,7 +56828,7 @@
       </c>
       <c r="F1690" s="17"/>
       <c r="G1690" s="6" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="H1690" s="18">
         <v>39569.0</v>
@@ -56896,7 +56885,7 @@
       </c>
       <c r="F1693" s="17"/>
       <c r="G1693" s="6" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="H1693" s="18">
         <v>39630.0</v>
@@ -57303,7 +57292,7 @@
       </c>
       <c r="F1714" s="17"/>
       <c r="G1714" s="6" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="H1714" s="18">
         <v>41153.0</v>
@@ -58901,9 +58890,6 @@
       <c r="G1797" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H1797" s="1" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="1798" ht="12.75" customHeight="1">
       <c r="A1798" s="19"/>
@@ -59256,7 +59242,7 @@
       </c>
       <c r="F1815" s="17"/>
       <c r="G1815" s="6" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="H1815" s="18">
         <v>40787.0</v>
@@ -59334,9 +59320,6 @@
       <c r="F1819" s="17"/>
       <c r="G1819" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="H1819" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="1820" ht="12.75" customHeight="1">
@@ -60336,7 +60319,7 @@
       </c>
       <c r="D1871" s="16"/>
       <c r="E1871" s="17" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F1871" s="17"/>
       <c r="G1871" s="6" t="s">
@@ -60515,7 +60498,7 @@
       </c>
     </row>
     <row r="1881" ht="12.75" customHeight="1">
-      <c r="A1881" s="31"/>
+      <c r="A1881" s="33"/>
       <c r="B1881" s="15">
         <v>51.0</v>
       </c>
@@ -60744,8 +60727,8 @@
       <c r="G1892" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H1892" s="32" t="s">
-        <v>720</v>
+      <c r="H1892" s="34">
+        <v>40391.0</v>
       </c>
     </row>
     <row r="1893" ht="12.75" customHeight="1">
@@ -60955,7 +60938,7 @@
       </c>
       <c r="F1903" s="17"/>
       <c r="G1903" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H1903" s="18">
         <v>40026.0</v>
@@ -61050,7 +61033,7 @@
       </c>
       <c r="F1908" s="17"/>
       <c r="G1908" s="6" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="H1908" s="18">
         <v>36739.0</v>
@@ -61069,8 +61052,8 @@
         <v>216</v>
       </c>
       <c r="F1909" s="17"/>
-      <c r="G1909" s="6" t="s">
-        <v>750</v>
+      <c r="G1909" s="35" t="s">
+        <v>744</v>
       </c>
       <c r="H1909" s="18">
         <v>41153.0</v>
@@ -61244,7 +61227,7 @@
       </c>
       <c r="F1918" s="17"/>
       <c r="G1918" s="6" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="H1918" s="18">
         <v>36861.0</v>
@@ -61568,8 +61551,8 @@
       <c r="G1935" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H1935" s="18" t="s">
-        <v>720</v>
+      <c r="H1935" s="28">
+        <v>40391.0</v>
       </c>
     </row>
     <row r="1936" ht="12.75" customHeight="1">
@@ -61642,7 +61625,7 @@
       </c>
       <c r="F1939" s="17"/>
       <c r="G1939" s="6" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="H1939" s="18">
         <v>41091.0</v>
@@ -62314,7 +62297,7 @@
       </c>
       <c r="F1974" s="17"/>
       <c r="G1974" s="6" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="H1974" s="18">
         <v>40210.0</v>
@@ -63087,7 +63070,7 @@
       </c>
       <c r="F2012" s="17"/>
       <c r="G2012" s="6" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="H2012" s="18">
         <v>41091.0</v>
@@ -63583,7 +63566,7 @@
       <c r="C2038" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="D2038" s="33"/>
+      <c r="D2038" s="36"/>
       <c r="E2038" s="17" t="s">
         <v>213</v>
       </c>
@@ -64439,7 +64422,7 @@
       </c>
       <c r="F2082" s="17"/>
       <c r="G2082" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H2082" s="18">
         <v>41306.0</v>
@@ -64601,4046 +64584,4108 @@
       </c>
     </row>
     <row r="2091" ht="12.75" customHeight="1">
-      <c r="B2091" s="34">
+      <c r="B2091" s="37">
         <v>31.0</v>
       </c>
-      <c r="C2091" s="34" t="s">
+      <c r="C2091" s="37" t="s">
         <v>368</v>
       </c>
       <c r="D2091" s="16"/>
-      <c r="E2091" s="35" t="s">
-        <v>753</v>
+      <c r="E2091" s="38" t="s">
+        <v>747</v>
       </c>
       <c r="F2091" s="17"/>
-      <c r="G2091" s="36" t="s">
+      <c r="G2091" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2091" s="39">
+        <v>43330.0</v>
+      </c>
+    </row>
+    <row r="2092" ht="12.75" customHeight="1">
+      <c r="C2092" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2092" s="40" t="s">
+        <v>747</v>
+      </c>
+      <c r="G2092" s="35" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2092" ht="12.75" customHeight="1">
-      <c r="E2092" s="37" t="s">
-        <v>753</v>
-      </c>
-      <c r="G2092" s="36" t="s">
-        <v>101</v>
+      <c r="H2092" s="39">
+        <v>42842.0</v>
       </c>
     </row>
     <row r="2093" ht="12.75" customHeight="1">
-      <c r="E2093" s="37" t="s">
-        <v>753</v>
-      </c>
-      <c r="G2093" s="37" t="s">
+      <c r="C2093" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="E2093" s="40" t="s">
+        <v>747</v>
+      </c>
+      <c r="G2093" s="40" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2094" ht="12.75" customHeight="1">
-      <c r="E2094" s="37" t="s">
-        <v>753</v>
-      </c>
-      <c r="G2094" s="37"/>
+      <c r="C2094" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="E2094" s="40" t="s">
+        <v>747</v>
+      </c>
+      <c r="G2094" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="2095" ht="12.75" customHeight="1">
-      <c r="E2095" s="37" t="s">
-        <v>753</v>
-      </c>
-      <c r="G2095" s="37"/>
+      <c r="C2095" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2095" s="40" t="s">
+        <v>747</v>
+      </c>
+      <c r="G2095" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="2096" ht="12.75" customHeight="1">
-      <c r="E2096" s="37" t="s">
-        <v>754</v>
-      </c>
-      <c r="G2096" s="37"/>
+      <c r="C2096" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2096" s="40" t="s">
+        <v>748</v>
+      </c>
+      <c r="G2096" s="40" t="s">
+        <v>586</v>
+      </c>
+      <c r="H2096" s="39">
+        <v>43604.0</v>
+      </c>
     </row>
     <row r="2097" ht="12.75" customHeight="1">
-      <c r="E2097" s="37" t="s">
-        <v>754</v>
-      </c>
-      <c r="G2097" s="37"/>
+      <c r="C2097" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="E2097" s="40" t="s">
+        <v>748</v>
+      </c>
+      <c r="G2097" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2097" s="39">
+        <v>43497.0</v>
+      </c>
     </row>
     <row r="2098" ht="12.75" customHeight="1">
-      <c r="E2098" s="37" t="s">
-        <v>754</v>
-      </c>
-      <c r="G2098" s="37"/>
+      <c r="C2098" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="E2098" s="40" t="s">
+        <v>748</v>
+      </c>
+      <c r="G2098" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2098" s="39">
+        <v>43910.0</v>
+      </c>
     </row>
     <row r="2099" ht="12.75" customHeight="1">
-      <c r="E2099" s="37" t="s">
-        <v>754</v>
-      </c>
-      <c r="G2099" s="37"/>
+      <c r="C2099" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2099" s="40" t="s">
+        <v>748</v>
+      </c>
+      <c r="G2099" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2099" s="39">
+        <v>44368.0</v>
+      </c>
     </row>
     <row r="2100" ht="12.75" customHeight="1">
-      <c r="E2100" s="37" t="s">
-        <v>754</v>
-      </c>
-      <c r="G2100" s="37"/>
+      <c r="C2100" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2100" s="40" t="s">
+        <v>748</v>
+      </c>
+      <c r="G2100" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2100" s="39">
+        <v>44795.0</v>
+      </c>
     </row>
     <row r="2101" ht="12.75" customHeight="1">
-      <c r="E2101" s="37"/>
-      <c r="G2101" s="37"/>
+      <c r="E2101" s="40"/>
+      <c r="G2101" s="40"/>
     </row>
     <row r="2102" ht="12.75" customHeight="1">
-      <c r="E2102" s="37"/>
-      <c r="G2102" s="37"/>
+      <c r="E2102" s="40"/>
+      <c r="G2102" s="40"/>
     </row>
     <row r="2103" ht="12.75" customHeight="1">
-      <c r="E2103" s="37"/>
-      <c r="G2103" s="37"/>
+      <c r="E2103" s="40"/>
+      <c r="G2103" s="40"/>
     </row>
     <row r="2104" ht="12.75" customHeight="1">
-      <c r="E2104" s="37"/>
-      <c r="G2104" s="37"/>
+      <c r="E2104" s="40"/>
+      <c r="G2104" s="40"/>
     </row>
     <row r="2105" ht="12.75" customHeight="1">
-      <c r="E2105" s="37"/>
-      <c r="G2105" s="37"/>
+      <c r="E2105" s="40"/>
+      <c r="G2105" s="40"/>
     </row>
     <row r="2106" ht="12.75" customHeight="1">
-      <c r="E2106" s="37"/>
-      <c r="G2106" s="37"/>
+      <c r="E2106" s="40"/>
+      <c r="G2106" s="40"/>
     </row>
     <row r="2107" ht="12.75" customHeight="1">
-      <c r="E2107" s="37"/>
-      <c r="G2107" s="37"/>
+      <c r="E2107" s="40"/>
+      <c r="G2107" s="40"/>
     </row>
     <row r="2108" ht="12.75" customHeight="1">
-      <c r="E2108" s="37"/>
-      <c r="G2108" s="37"/>
+      <c r="E2108" s="40"/>
+      <c r="G2108" s="40"/>
     </row>
     <row r="2109" ht="12.75" customHeight="1">
-      <c r="E2109" s="37"/>
-      <c r="G2109" s="37"/>
+      <c r="E2109" s="40"/>
+      <c r="G2109" s="40"/>
     </row>
     <row r="2110" ht="12.75" customHeight="1">
-      <c r="E2110" s="37"/>
-      <c r="G2110" s="37"/>
+      <c r="E2110" s="40"/>
+      <c r="G2110" s="40"/>
     </row>
     <row r="2111" ht="12.75" customHeight="1">
-      <c r="E2111" s="37"/>
-      <c r="G2111" s="37"/>
+      <c r="E2111" s="40"/>
+      <c r="G2111" s="40"/>
     </row>
     <row r="2112" ht="12.75" customHeight="1">
-      <c r="E2112" s="37"/>
-      <c r="G2112" s="37"/>
+      <c r="E2112" s="40"/>
+      <c r="G2112" s="40"/>
     </row>
     <row r="2113" ht="12.75" customHeight="1">
-      <c r="E2113" s="37"/>
-      <c r="G2113" s="37"/>
+      <c r="E2113" s="40"/>
+      <c r="G2113" s="40"/>
     </row>
     <row r="2114" ht="12.75" customHeight="1">
-      <c r="E2114" s="37"/>
-      <c r="G2114" s="37"/>
+      <c r="E2114" s="40"/>
+      <c r="G2114" s="40"/>
     </row>
     <row r="2115" ht="12.75" customHeight="1">
-      <c r="E2115" s="37"/>
-      <c r="G2115" s="37"/>
+      <c r="E2115" s="40"/>
+      <c r="G2115" s="40"/>
     </row>
     <row r="2116" ht="12.75" customHeight="1">
-      <c r="E2116" s="37"/>
-      <c r="G2116" s="37"/>
+      <c r="E2116" s="40"/>
+      <c r="G2116" s="40"/>
     </row>
     <row r="2117" ht="12.75" customHeight="1">
-      <c r="E2117" s="37"/>
-      <c r="G2117" s="37"/>
+      <c r="E2117" s="40"/>
+      <c r="G2117" s="40"/>
     </row>
     <row r="2118" ht="12.75" customHeight="1">
-      <c r="E2118" s="37"/>
-      <c r="G2118" s="37"/>
+      <c r="E2118" s="40"/>
+      <c r="G2118" s="40"/>
     </row>
     <row r="2119" ht="12.75" customHeight="1">
-      <c r="E2119" s="37"/>
-      <c r="G2119" s="37"/>
+      <c r="E2119" s="40"/>
+      <c r="G2119" s="40"/>
     </row>
     <row r="2120" ht="12.75" customHeight="1">
-      <c r="E2120" s="37"/>
-      <c r="G2120" s="37"/>
+      <c r="E2120" s="40"/>
+      <c r="G2120" s="40"/>
     </row>
     <row r="2121" ht="12.75" customHeight="1">
-      <c r="E2121" s="37"/>
-      <c r="G2121" s="37"/>
+      <c r="E2121" s="40"/>
+      <c r="G2121" s="40"/>
     </row>
     <row r="2122" ht="12.75" customHeight="1">
-      <c r="E2122" s="37"/>
-      <c r="G2122" s="37"/>
+      <c r="E2122" s="40"/>
+      <c r="G2122" s="40"/>
     </row>
     <row r="2123" ht="12.75" customHeight="1">
-      <c r="E2123" s="37"/>
-      <c r="G2123" s="37"/>
+      <c r="E2123" s="40"/>
+      <c r="G2123" s="40"/>
     </row>
     <row r="2124" ht="12.75" customHeight="1">
-      <c r="E2124" s="37"/>
-      <c r="G2124" s="37"/>
+      <c r="E2124" s="40"/>
+      <c r="G2124" s="40"/>
     </row>
     <row r="2125" ht="12.75" customHeight="1">
-      <c r="E2125" s="37"/>
-      <c r="G2125" s="37"/>
+      <c r="E2125" s="40"/>
+      <c r="G2125" s="40"/>
     </row>
     <row r="2126" ht="12.75" customHeight="1">
-      <c r="E2126" s="37"/>
-      <c r="G2126" s="37"/>
+      <c r="E2126" s="40"/>
+      <c r="G2126" s="40"/>
     </row>
     <row r="2127" ht="12.75" customHeight="1">
-      <c r="E2127" s="37"/>
-      <c r="G2127" s="37"/>
+      <c r="E2127" s="40"/>
+      <c r="G2127" s="40"/>
     </row>
     <row r="2128" ht="12.75" customHeight="1">
-      <c r="E2128" s="37"/>
-      <c r="G2128" s="37"/>
+      <c r="E2128" s="40"/>
+      <c r="G2128" s="40"/>
     </row>
     <row r="2129" ht="12.75" customHeight="1">
-      <c r="E2129" s="37"/>
-      <c r="G2129" s="37"/>
+      <c r="E2129" s="40"/>
+      <c r="G2129" s="40"/>
     </row>
     <row r="2130" ht="12.75" customHeight="1">
-      <c r="E2130" s="37"/>
-      <c r="G2130" s="37"/>
+      <c r="E2130" s="40"/>
+      <c r="G2130" s="40"/>
     </row>
     <row r="2131" ht="12.75" customHeight="1">
-      <c r="E2131" s="37"/>
-      <c r="G2131" s="37"/>
+      <c r="E2131" s="40"/>
+      <c r="G2131" s="40"/>
     </row>
     <row r="2132" ht="12.75" customHeight="1">
-      <c r="E2132" s="37"/>
-      <c r="G2132" s="37"/>
+      <c r="E2132" s="40"/>
+      <c r="G2132" s="40"/>
     </row>
     <row r="2133" ht="12.75" customHeight="1">
-      <c r="E2133" s="37"/>
-      <c r="G2133" s="37"/>
+      <c r="E2133" s="40"/>
+      <c r="G2133" s="40"/>
     </row>
     <row r="2134" ht="12.75" customHeight="1">
-      <c r="E2134" s="37"/>
-      <c r="G2134" s="37"/>
+      <c r="E2134" s="40"/>
+      <c r="G2134" s="40"/>
     </row>
     <row r="2135" ht="12.75" customHeight="1">
-      <c r="E2135" s="37"/>
-      <c r="G2135" s="37"/>
+      <c r="E2135" s="40"/>
+      <c r="G2135" s="40"/>
     </row>
     <row r="2136" ht="12.75" customHeight="1">
-      <c r="E2136" s="37"/>
-      <c r="G2136" s="37"/>
+      <c r="E2136" s="40"/>
+      <c r="G2136" s="40"/>
     </row>
     <row r="2137" ht="12.75" customHeight="1">
-      <c r="E2137" s="37"/>
-      <c r="G2137" s="37"/>
+      <c r="E2137" s="40"/>
+      <c r="G2137" s="40"/>
     </row>
     <row r="2138" ht="12.75" customHeight="1">
-      <c r="E2138" s="37"/>
-      <c r="G2138" s="37"/>
+      <c r="E2138" s="40"/>
+      <c r="G2138" s="40"/>
     </row>
     <row r="2139" ht="12.75" customHeight="1">
-      <c r="E2139" s="37"/>
-      <c r="G2139" s="37"/>
+      <c r="E2139" s="40"/>
+      <c r="G2139" s="40"/>
     </row>
     <row r="2140" ht="12.75" customHeight="1">
-      <c r="E2140" s="37"/>
-      <c r="G2140" s="37"/>
+      <c r="E2140" s="40"/>
+      <c r="G2140" s="40"/>
     </row>
     <row r="2141" ht="12.75" customHeight="1">
-      <c r="E2141" s="37"/>
-      <c r="G2141" s="37"/>
+      <c r="E2141" s="40"/>
+      <c r="G2141" s="40"/>
     </row>
     <row r="2142" ht="12.75" customHeight="1">
-      <c r="E2142" s="37"/>
-      <c r="G2142" s="37"/>
+      <c r="E2142" s="40"/>
+      <c r="G2142" s="40"/>
     </row>
     <row r="2143" ht="12.75" customHeight="1">
-      <c r="E2143" s="37"/>
-      <c r="G2143" s="37"/>
+      <c r="E2143" s="40"/>
+      <c r="G2143" s="40"/>
     </row>
     <row r="2144" ht="12.75" customHeight="1">
-      <c r="E2144" s="37"/>
-      <c r="G2144" s="37"/>
+      <c r="E2144" s="40"/>
+      <c r="G2144" s="40"/>
     </row>
     <row r="2145" ht="12.75" customHeight="1">
-      <c r="E2145" s="37"/>
-      <c r="G2145" s="37"/>
+      <c r="E2145" s="40"/>
+      <c r="G2145" s="40"/>
     </row>
     <row r="2146" ht="12.75" customHeight="1">
-      <c r="E2146" s="37"/>
-      <c r="G2146" s="37"/>
+      <c r="E2146" s="40"/>
+      <c r="G2146" s="40"/>
     </row>
     <row r="2147" ht="12.75" customHeight="1">
-      <c r="E2147" s="37"/>
-      <c r="G2147" s="37"/>
+      <c r="E2147" s="40"/>
+      <c r="G2147" s="40"/>
     </row>
     <row r="2148" ht="12.75" customHeight="1">
-      <c r="E2148" s="37"/>
-      <c r="G2148" s="37"/>
+      <c r="E2148" s="40"/>
+      <c r="G2148" s="40"/>
     </row>
     <row r="2149" ht="12.75" customHeight="1">
-      <c r="E2149" s="37"/>
-      <c r="G2149" s="37"/>
+      <c r="E2149" s="40"/>
+      <c r="G2149" s="40"/>
     </row>
     <row r="2150" ht="12.75" customHeight="1">
-      <c r="E2150" s="37"/>
-      <c r="G2150" s="37"/>
+      <c r="E2150" s="40"/>
+      <c r="G2150" s="40"/>
     </row>
     <row r="2151" ht="12.75" customHeight="1">
-      <c r="E2151" s="37"/>
-      <c r="G2151" s="37"/>
+      <c r="E2151" s="40"/>
+      <c r="G2151" s="40"/>
     </row>
     <row r="2152" ht="12.75" customHeight="1">
-      <c r="E2152" s="37"/>
-      <c r="G2152" s="37"/>
+      <c r="E2152" s="40"/>
+      <c r="G2152" s="40"/>
     </row>
     <row r="2153" ht="12.75" customHeight="1">
-      <c r="E2153" s="37"/>
-      <c r="G2153" s="37"/>
+      <c r="E2153" s="40"/>
+      <c r="G2153" s="40"/>
     </row>
     <row r="2154" ht="12.75" customHeight="1">
-      <c r="E2154" s="37"/>
-      <c r="G2154" s="37"/>
+      <c r="E2154" s="40"/>
+      <c r="G2154" s="40"/>
     </row>
     <row r="2155" ht="12.75" customHeight="1">
-      <c r="E2155" s="37"/>
-      <c r="G2155" s="37"/>
+      <c r="E2155" s="40"/>
+      <c r="G2155" s="40"/>
     </row>
     <row r="2156" ht="12.75" customHeight="1">
-      <c r="E2156" s="37"/>
-      <c r="G2156" s="37"/>
+      <c r="E2156" s="40"/>
+      <c r="G2156" s="40"/>
     </row>
     <row r="2157" ht="12.75" customHeight="1">
-      <c r="E2157" s="37"/>
-      <c r="G2157" s="37"/>
+      <c r="E2157" s="40"/>
+      <c r="G2157" s="40"/>
     </row>
     <row r="2158" ht="12.75" customHeight="1">
-      <c r="E2158" s="37"/>
-      <c r="G2158" s="37"/>
+      <c r="E2158" s="40"/>
+      <c r="G2158" s="40"/>
     </row>
     <row r="2159" ht="12.75" customHeight="1">
-      <c r="E2159" s="37"/>
-      <c r="G2159" s="37"/>
+      <c r="E2159" s="40"/>
+      <c r="G2159" s="40"/>
     </row>
     <row r="2160" ht="12.75" customHeight="1">
-      <c r="E2160" s="37"/>
-      <c r="G2160" s="37"/>
+      <c r="E2160" s="40"/>
+      <c r="G2160" s="40"/>
     </row>
     <row r="2161" ht="12.75" customHeight="1">
-      <c r="E2161" s="37"/>
-      <c r="G2161" s="37"/>
+      <c r="E2161" s="40"/>
+      <c r="G2161" s="40"/>
     </row>
     <row r="2162" ht="12.75" customHeight="1">
-      <c r="E2162" s="37"/>
-      <c r="G2162" s="37"/>
+      <c r="E2162" s="40"/>
+      <c r="G2162" s="40"/>
     </row>
     <row r="2163" ht="12.75" customHeight="1">
-      <c r="E2163" s="37"/>
-      <c r="G2163" s="37"/>
+      <c r="E2163" s="40"/>
+      <c r="G2163" s="40"/>
     </row>
     <row r="2164" ht="12.75" customHeight="1">
-      <c r="E2164" s="37"/>
-      <c r="G2164" s="37"/>
+      <c r="E2164" s="40"/>
+      <c r="G2164" s="40"/>
     </row>
     <row r="2165" ht="12.75" customHeight="1">
-      <c r="E2165" s="37"/>
-      <c r="G2165" s="37"/>
+      <c r="E2165" s="40"/>
+      <c r="G2165" s="40"/>
     </row>
     <row r="2166" ht="12.75" customHeight="1">
-      <c r="E2166" s="37"/>
-      <c r="G2166" s="37"/>
+      <c r="E2166" s="40"/>
+      <c r="G2166" s="40"/>
     </row>
     <row r="2167" ht="12.75" customHeight="1">
-      <c r="E2167" s="37"/>
-      <c r="G2167" s="37"/>
+      <c r="E2167" s="40"/>
+      <c r="G2167" s="40"/>
     </row>
     <row r="2168" ht="12.75" customHeight="1">
-      <c r="E2168" s="37"/>
-      <c r="G2168" s="37"/>
+      <c r="E2168" s="40"/>
+      <c r="G2168" s="40"/>
     </row>
     <row r="2169" ht="12.75" customHeight="1">
-      <c r="E2169" s="37"/>
-      <c r="G2169" s="37"/>
+      <c r="E2169" s="40"/>
+      <c r="G2169" s="40"/>
     </row>
     <row r="2170" ht="12.75" customHeight="1">
-      <c r="E2170" s="37"/>
-      <c r="G2170" s="37"/>
+      <c r="E2170" s="40"/>
+      <c r="G2170" s="40"/>
     </row>
     <row r="2171" ht="12.75" customHeight="1">
-      <c r="E2171" s="37"/>
-      <c r="G2171" s="37"/>
+      <c r="E2171" s="40"/>
+      <c r="G2171" s="40"/>
     </row>
     <row r="2172" ht="12.75" customHeight="1">
-      <c r="E2172" s="37"/>
-      <c r="G2172" s="37"/>
+      <c r="E2172" s="40"/>
+      <c r="G2172" s="40"/>
     </row>
     <row r="2173" ht="12.75" customHeight="1">
-      <c r="E2173" s="37"/>
-      <c r="G2173" s="37"/>
+      <c r="E2173" s="40"/>
+      <c r="G2173" s="40"/>
     </row>
     <row r="2174" ht="12.75" customHeight="1">
-      <c r="E2174" s="37"/>
-      <c r="G2174" s="37"/>
+      <c r="E2174" s="40"/>
+      <c r="G2174" s="40"/>
     </row>
     <row r="2175" ht="12.75" customHeight="1">
-      <c r="E2175" s="37"/>
-      <c r="G2175" s="37"/>
+      <c r="E2175" s="40"/>
+      <c r="G2175" s="40"/>
     </row>
     <row r="2176" ht="12.75" customHeight="1">
-      <c r="E2176" s="37"/>
-      <c r="G2176" s="37"/>
+      <c r="E2176" s="40"/>
+      <c r="G2176" s="40"/>
     </row>
     <row r="2177" ht="12.75" customHeight="1">
-      <c r="E2177" s="37"/>
-      <c r="G2177" s="37"/>
+      <c r="E2177" s="40"/>
+      <c r="G2177" s="40"/>
     </row>
     <row r="2178" ht="12.75" customHeight="1">
-      <c r="E2178" s="37"/>
-      <c r="G2178" s="37"/>
+      <c r="E2178" s="40"/>
+      <c r="G2178" s="40"/>
     </row>
     <row r="2179" ht="12.75" customHeight="1">
-      <c r="E2179" s="37"/>
-      <c r="G2179" s="37"/>
+      <c r="E2179" s="40"/>
+      <c r="G2179" s="40"/>
     </row>
     <row r="2180" ht="12.75" customHeight="1">
-      <c r="E2180" s="37"/>
-      <c r="G2180" s="37"/>
+      <c r="E2180" s="40"/>
+      <c r="G2180" s="40"/>
     </row>
     <row r="2181" ht="12.75" customHeight="1">
-      <c r="E2181" s="37"/>
-      <c r="G2181" s="37"/>
+      <c r="E2181" s="40"/>
+      <c r="G2181" s="40"/>
     </row>
     <row r="2182" ht="12.75" customHeight="1">
-      <c r="E2182" s="37"/>
-      <c r="G2182" s="37"/>
+      <c r="E2182" s="40"/>
+      <c r="G2182" s="40"/>
     </row>
     <row r="2183" ht="12.75" customHeight="1">
-      <c r="E2183" s="37"/>
-      <c r="G2183" s="37"/>
+      <c r="E2183" s="40"/>
+      <c r="G2183" s="40"/>
     </row>
     <row r="2184" ht="12.75" customHeight="1">
-      <c r="E2184" s="37"/>
-      <c r="G2184" s="37"/>
+      <c r="E2184" s="40"/>
+      <c r="G2184" s="40"/>
     </row>
     <row r="2185" ht="12.75" customHeight="1">
-      <c r="E2185" s="37"/>
-      <c r="G2185" s="37"/>
+      <c r="E2185" s="40"/>
+      <c r="G2185" s="40"/>
     </row>
     <row r="2186" ht="12.75" customHeight="1">
-      <c r="E2186" s="37"/>
-      <c r="G2186" s="37"/>
+      <c r="E2186" s="40"/>
+      <c r="G2186" s="40"/>
     </row>
     <row r="2187" ht="12.75" customHeight="1">
-      <c r="E2187" s="37"/>
-      <c r="G2187" s="37"/>
+      <c r="E2187" s="40"/>
+      <c r="G2187" s="40"/>
     </row>
     <row r="2188" ht="12.75" customHeight="1">
-      <c r="E2188" s="37"/>
-      <c r="G2188" s="37"/>
+      <c r="E2188" s="40"/>
+      <c r="G2188" s="40"/>
     </row>
     <row r="2189" ht="12.75" customHeight="1">
-      <c r="E2189" s="37"/>
-      <c r="G2189" s="37"/>
+      <c r="E2189" s="40"/>
+      <c r="G2189" s="40"/>
     </row>
     <row r="2190" ht="12.75" customHeight="1">
-      <c r="E2190" s="37"/>
-      <c r="G2190" s="37"/>
+      <c r="E2190" s="40"/>
+      <c r="G2190" s="40"/>
     </row>
     <row r="2191" ht="12.75" customHeight="1">
-      <c r="E2191" s="37"/>
-      <c r="G2191" s="37"/>
+      <c r="E2191" s="40"/>
+      <c r="G2191" s="40"/>
     </row>
     <row r="2192" ht="12.75" customHeight="1">
-      <c r="E2192" s="37"/>
-      <c r="G2192" s="37"/>
+      <c r="E2192" s="40"/>
+      <c r="G2192" s="40"/>
     </row>
     <row r="2193" ht="12.75" customHeight="1">
-      <c r="E2193" s="37"/>
-      <c r="G2193" s="37"/>
+      <c r="E2193" s="40"/>
+      <c r="G2193" s="40"/>
     </row>
     <row r="2194" ht="12.75" customHeight="1">
-      <c r="E2194" s="37"/>
-      <c r="G2194" s="37"/>
+      <c r="E2194" s="40"/>
+      <c r="G2194" s="40"/>
     </row>
     <row r="2195" ht="12.75" customHeight="1">
-      <c r="E2195" s="37"/>
-      <c r="G2195" s="37"/>
+      <c r="E2195" s="40"/>
+      <c r="G2195" s="40"/>
     </row>
     <row r="2196" ht="12.75" customHeight="1">
-      <c r="E2196" s="37"/>
-      <c r="G2196" s="37"/>
+      <c r="E2196" s="40"/>
+      <c r="G2196" s="40"/>
     </row>
     <row r="2197" ht="12.75" customHeight="1">
-      <c r="E2197" s="37"/>
-      <c r="G2197" s="37"/>
+      <c r="E2197" s="40"/>
+      <c r="G2197" s="40"/>
     </row>
     <row r="2198" ht="12.75" customHeight="1">
-      <c r="E2198" s="37"/>
-      <c r="G2198" s="37"/>
+      <c r="E2198" s="40"/>
+      <c r="G2198" s="40"/>
     </row>
     <row r="2199" ht="12.75" customHeight="1">
-      <c r="E2199" s="37"/>
-      <c r="G2199" s="37"/>
+      <c r="E2199" s="40"/>
+      <c r="G2199" s="40"/>
     </row>
     <row r="2200" ht="12.75" customHeight="1">
-      <c r="E2200" s="37"/>
-      <c r="G2200" s="37"/>
+      <c r="E2200" s="40"/>
+      <c r="G2200" s="40"/>
     </row>
     <row r="2201" ht="12.75" customHeight="1">
-      <c r="E2201" s="37"/>
-      <c r="G2201" s="37"/>
+      <c r="E2201" s="40"/>
+      <c r="G2201" s="40"/>
     </row>
     <row r="2202" ht="12.75" customHeight="1">
-      <c r="E2202" s="37"/>
-      <c r="G2202" s="37"/>
+      <c r="E2202" s="40"/>
+      <c r="G2202" s="40"/>
     </row>
     <row r="2203" ht="12.75" customHeight="1">
-      <c r="E2203" s="37"/>
-      <c r="G2203" s="37"/>
+      <c r="E2203" s="40"/>
+      <c r="G2203" s="40"/>
     </row>
     <row r="2204" ht="12.75" customHeight="1">
-      <c r="E2204" s="37"/>
-      <c r="G2204" s="37"/>
+      <c r="E2204" s="40"/>
+      <c r="G2204" s="40"/>
     </row>
     <row r="2205" ht="12.75" customHeight="1">
-      <c r="E2205" s="37"/>
-      <c r="G2205" s="37"/>
+      <c r="E2205" s="40"/>
+      <c r="G2205" s="40"/>
     </row>
     <row r="2206" ht="12.75" customHeight="1">
-      <c r="E2206" s="37"/>
-      <c r="G2206" s="37"/>
+      <c r="E2206" s="40"/>
+      <c r="G2206" s="40"/>
     </row>
     <row r="2207" ht="12.75" customHeight="1">
-      <c r="E2207" s="37"/>
-      <c r="G2207" s="37"/>
+      <c r="E2207" s="40"/>
+      <c r="G2207" s="40"/>
     </row>
     <row r="2208" ht="12.75" customHeight="1">
-      <c r="E2208" s="37"/>
-      <c r="G2208" s="37"/>
+      <c r="E2208" s="40"/>
+      <c r="G2208" s="40"/>
     </row>
     <row r="2209" ht="12.75" customHeight="1">
-      <c r="E2209" s="37"/>
-      <c r="G2209" s="37"/>
+      <c r="E2209" s="40"/>
+      <c r="G2209" s="40"/>
     </row>
     <row r="2210" ht="12.75" customHeight="1">
-      <c r="E2210" s="37"/>
-      <c r="G2210" s="37"/>
+      <c r="E2210" s="40"/>
+      <c r="G2210" s="40"/>
     </row>
     <row r="2211" ht="12.75" customHeight="1">
-      <c r="E2211" s="37"/>
-      <c r="G2211" s="37"/>
+      <c r="E2211" s="40"/>
+      <c r="G2211" s="40"/>
     </row>
     <row r="2212" ht="12.75" customHeight="1">
-      <c r="E2212" s="37"/>
-      <c r="G2212" s="37"/>
+      <c r="E2212" s="40"/>
+      <c r="G2212" s="40"/>
     </row>
     <row r="2213" ht="12.75" customHeight="1">
-      <c r="E2213" s="37"/>
-      <c r="G2213" s="37"/>
+      <c r="E2213" s="40"/>
+      <c r="G2213" s="40"/>
     </row>
     <row r="2214" ht="12.75" customHeight="1">
-      <c r="E2214" s="37"/>
-      <c r="G2214" s="37"/>
+      <c r="E2214" s="40"/>
+      <c r="G2214" s="40"/>
     </row>
     <row r="2215" ht="12.75" customHeight="1">
-      <c r="E2215" s="37"/>
-      <c r="G2215" s="37"/>
+      <c r="E2215" s="40"/>
+      <c r="G2215" s="40"/>
     </row>
     <row r="2216" ht="12.75" customHeight="1">
-      <c r="E2216" s="37"/>
-      <c r="G2216" s="37"/>
+      <c r="E2216" s="40"/>
+      <c r="G2216" s="40"/>
     </row>
     <row r="2217" ht="12.75" customHeight="1">
-      <c r="E2217" s="37"/>
-      <c r="G2217" s="37"/>
+      <c r="E2217" s="40"/>
+      <c r="G2217" s="40"/>
     </row>
     <row r="2218" ht="12.75" customHeight="1">
-      <c r="E2218" s="37"/>
-      <c r="G2218" s="37"/>
+      <c r="E2218" s="40"/>
+      <c r="G2218" s="40"/>
     </row>
     <row r="2219" ht="12.75" customHeight="1">
-      <c r="E2219" s="37"/>
-      <c r="G2219" s="37"/>
+      <c r="E2219" s="40"/>
+      <c r="G2219" s="40"/>
     </row>
     <row r="2220" ht="12.75" customHeight="1">
-      <c r="E2220" s="37"/>
-      <c r="G2220" s="37"/>
+      <c r="E2220" s="40"/>
+      <c r="G2220" s="40"/>
     </row>
     <row r="2221" ht="12.75" customHeight="1">
-      <c r="E2221" s="37"/>
-      <c r="G2221" s="37"/>
+      <c r="E2221" s="40"/>
+      <c r="G2221" s="40"/>
     </row>
     <row r="2222" ht="12.75" customHeight="1">
-      <c r="E2222" s="37"/>
-      <c r="G2222" s="37"/>
+      <c r="E2222" s="40"/>
+      <c r="G2222" s="40"/>
     </row>
     <row r="2223" ht="12.75" customHeight="1">
-      <c r="E2223" s="37"/>
-      <c r="G2223" s="37"/>
+      <c r="E2223" s="40"/>
+      <c r="G2223" s="40"/>
     </row>
     <row r="2224" ht="12.75" customHeight="1">
-      <c r="E2224" s="37"/>
-      <c r="G2224" s="37"/>
+      <c r="E2224" s="40"/>
+      <c r="G2224" s="40"/>
     </row>
     <row r="2225" ht="12.75" customHeight="1">
-      <c r="E2225" s="37"/>
-      <c r="G2225" s="37"/>
+      <c r="E2225" s="40"/>
+      <c r="G2225" s="40"/>
     </row>
     <row r="2226" ht="12.75" customHeight="1">
-      <c r="E2226" s="37"/>
-      <c r="G2226" s="37"/>
+      <c r="E2226" s="40"/>
+      <c r="G2226" s="40"/>
     </row>
     <row r="2227" ht="12.75" customHeight="1">
-      <c r="E2227" s="37"/>
-      <c r="G2227" s="37"/>
+      <c r="E2227" s="40"/>
+      <c r="G2227" s="40"/>
     </row>
     <row r="2228" ht="12.75" customHeight="1">
-      <c r="E2228" s="37"/>
-      <c r="G2228" s="37"/>
+      <c r="E2228" s="40"/>
+      <c r="G2228" s="40"/>
     </row>
     <row r="2229" ht="12.75" customHeight="1">
-      <c r="E2229" s="37"/>
-      <c r="G2229" s="37"/>
+      <c r="E2229" s="40"/>
+      <c r="G2229" s="40"/>
     </row>
     <row r="2230" ht="12.75" customHeight="1">
-      <c r="E2230" s="37"/>
-      <c r="G2230" s="37"/>
+      <c r="E2230" s="40"/>
+      <c r="G2230" s="40"/>
     </row>
     <row r="2231" ht="12.75" customHeight="1">
-      <c r="E2231" s="37"/>
-      <c r="G2231" s="37"/>
+      <c r="E2231" s="40"/>
+      <c r="G2231" s="40"/>
     </row>
     <row r="2232" ht="12.75" customHeight="1">
-      <c r="E2232" s="37"/>
-      <c r="G2232" s="37"/>
+      <c r="E2232" s="40"/>
+      <c r="G2232" s="40"/>
     </row>
     <row r="2233" ht="12.75" customHeight="1">
-      <c r="E2233" s="37"/>
-      <c r="G2233" s="37"/>
+      <c r="E2233" s="40"/>
+      <c r="G2233" s="40"/>
     </row>
     <row r="2234" ht="12.75" customHeight="1">
-      <c r="E2234" s="37"/>
-      <c r="G2234" s="37"/>
+      <c r="E2234" s="40"/>
+      <c r="G2234" s="40"/>
     </row>
     <row r="2235" ht="12.75" customHeight="1">
-      <c r="E2235" s="37"/>
-      <c r="G2235" s="37"/>
+      <c r="E2235" s="40"/>
+      <c r="G2235" s="40"/>
     </row>
     <row r="2236" ht="12.75" customHeight="1">
-      <c r="E2236" s="37"/>
-      <c r="G2236" s="37"/>
+      <c r="E2236" s="40"/>
+      <c r="G2236" s="40"/>
     </row>
     <row r="2237" ht="12.75" customHeight="1">
-      <c r="E2237" s="37"/>
-      <c r="G2237" s="37"/>
+      <c r="E2237" s="40"/>
+      <c r="G2237" s="40"/>
     </row>
     <row r="2238" ht="12.75" customHeight="1">
-      <c r="E2238" s="37"/>
-      <c r="G2238" s="37"/>
+      <c r="E2238" s="40"/>
+      <c r="G2238" s="40"/>
     </row>
     <row r="2239" ht="12.75" customHeight="1">
-      <c r="E2239" s="37"/>
-      <c r="G2239" s="37"/>
+      <c r="E2239" s="40"/>
+      <c r="G2239" s="40"/>
     </row>
     <row r="2240" ht="12.75" customHeight="1">
-      <c r="E2240" s="37"/>
-      <c r="G2240" s="37"/>
+      <c r="E2240" s="40"/>
+      <c r="G2240" s="40"/>
     </row>
     <row r="2241" ht="12.75" customHeight="1">
-      <c r="E2241" s="37"/>
-      <c r="G2241" s="37"/>
+      <c r="E2241" s="40"/>
+      <c r="G2241" s="40"/>
     </row>
     <row r="2242" ht="12.75" customHeight="1">
-      <c r="E2242" s="37"/>
-      <c r="G2242" s="37"/>
+      <c r="E2242" s="40"/>
+      <c r="G2242" s="40"/>
     </row>
     <row r="2243" ht="12.75" customHeight="1">
-      <c r="E2243" s="37"/>
-      <c r="G2243" s="37"/>
+      <c r="E2243" s="40"/>
+      <c r="G2243" s="40"/>
     </row>
     <row r="2244" ht="12.75" customHeight="1">
-      <c r="E2244" s="37"/>
-      <c r="G2244" s="37"/>
+      <c r="E2244" s="40"/>
+      <c r="G2244" s="40"/>
     </row>
     <row r="2245" ht="12.75" customHeight="1">
-      <c r="E2245" s="37"/>
-      <c r="G2245" s="37"/>
+      <c r="E2245" s="40"/>
+      <c r="G2245" s="40"/>
     </row>
     <row r="2246" ht="12.75" customHeight="1">
-      <c r="E2246" s="37"/>
-      <c r="G2246" s="37"/>
+      <c r="E2246" s="40"/>
+      <c r="G2246" s="40"/>
     </row>
     <row r="2247" ht="12.75" customHeight="1">
-      <c r="E2247" s="37"/>
-      <c r="G2247" s="37"/>
+      <c r="E2247" s="40"/>
+      <c r="G2247" s="40"/>
     </row>
     <row r="2248" ht="12.75" customHeight="1">
-      <c r="E2248" s="37"/>
-      <c r="G2248" s="37"/>
+      <c r="E2248" s="40"/>
+      <c r="G2248" s="40"/>
     </row>
     <row r="2249" ht="12.75" customHeight="1">
-      <c r="E2249" s="37"/>
-      <c r="G2249" s="37"/>
+      <c r="E2249" s="40"/>
+      <c r="G2249" s="40"/>
     </row>
     <row r="2250" ht="12.75" customHeight="1">
-      <c r="E2250" s="37"/>
-      <c r="G2250" s="37"/>
+      <c r="E2250" s="40"/>
+      <c r="G2250" s="40"/>
     </row>
     <row r="2251" ht="12.75" customHeight="1">
-      <c r="E2251" s="37"/>
-      <c r="G2251" s="37"/>
+      <c r="E2251" s="40"/>
+      <c r="G2251" s="40"/>
     </row>
     <row r="2252" ht="12.75" customHeight="1">
-      <c r="E2252" s="37"/>
-      <c r="G2252" s="37"/>
+      <c r="E2252" s="40"/>
+      <c r="G2252" s="40"/>
     </row>
     <row r="2253" ht="12.75" customHeight="1">
-      <c r="E2253" s="37"/>
-      <c r="G2253" s="37"/>
+      <c r="E2253" s="40"/>
+      <c r="G2253" s="40"/>
     </row>
     <row r="2254" ht="12.75" customHeight="1">
-      <c r="E2254" s="37"/>
-      <c r="G2254" s="37"/>
+      <c r="E2254" s="40"/>
+      <c r="G2254" s="40"/>
     </row>
     <row r="2255" ht="12.75" customHeight="1">
-      <c r="E2255" s="37"/>
-      <c r="G2255" s="37"/>
+      <c r="E2255" s="40"/>
+      <c r="G2255" s="40"/>
     </row>
     <row r="2256" ht="12.75" customHeight="1">
-      <c r="E2256" s="37"/>
-      <c r="G2256" s="37"/>
+      <c r="E2256" s="40"/>
+      <c r="G2256" s="40"/>
     </row>
     <row r="2257" ht="12.75" customHeight="1">
-      <c r="E2257" s="37"/>
-      <c r="G2257" s="37"/>
+      <c r="E2257" s="40"/>
+      <c r="G2257" s="40"/>
     </row>
     <row r="2258" ht="12.75" customHeight="1">
-      <c r="E2258" s="37"/>
-      <c r="G2258" s="37"/>
+      <c r="E2258" s="40"/>
+      <c r="G2258" s="40"/>
     </row>
     <row r="2259" ht="12.75" customHeight="1">
-      <c r="E2259" s="37"/>
-      <c r="G2259" s="37"/>
+      <c r="E2259" s="40"/>
+      <c r="G2259" s="40"/>
     </row>
     <row r="2260" ht="12.75" customHeight="1">
-      <c r="E2260" s="37"/>
-      <c r="G2260" s="37"/>
+      <c r="E2260" s="40"/>
+      <c r="G2260" s="40"/>
     </row>
     <row r="2261" ht="12.75" customHeight="1">
-      <c r="E2261" s="37"/>
-      <c r="G2261" s="37"/>
+      <c r="E2261" s="40"/>
+      <c r="G2261" s="40"/>
     </row>
     <row r="2262" ht="12.75" customHeight="1">
-      <c r="E2262" s="37"/>
-      <c r="G2262" s="37"/>
+      <c r="E2262" s="40"/>
+      <c r="G2262" s="40"/>
     </row>
     <row r="2263" ht="12.75" customHeight="1">
-      <c r="E2263" s="37"/>
-      <c r="G2263" s="37"/>
+      <c r="E2263" s="40"/>
+      <c r="G2263" s="40"/>
     </row>
     <row r="2264" ht="12.75" customHeight="1">
-      <c r="E2264" s="37"/>
-      <c r="G2264" s="37"/>
+      <c r="E2264" s="40"/>
+      <c r="G2264" s="40"/>
     </row>
     <row r="2265" ht="12.75" customHeight="1">
-      <c r="E2265" s="37"/>
-      <c r="G2265" s="37"/>
+      <c r="E2265" s="40"/>
+      <c r="G2265" s="40"/>
     </row>
     <row r="2266" ht="12.75" customHeight="1">
-      <c r="E2266" s="37"/>
-      <c r="G2266" s="37"/>
+      <c r="E2266" s="40"/>
+      <c r="G2266" s="40"/>
     </row>
     <row r="2267" ht="12.75" customHeight="1">
-      <c r="E2267" s="37"/>
-      <c r="G2267" s="37"/>
+      <c r="E2267" s="40"/>
+      <c r="G2267" s="40"/>
     </row>
     <row r="2268" ht="12.75" customHeight="1">
-      <c r="E2268" s="37"/>
-      <c r="G2268" s="37"/>
+      <c r="E2268" s="40"/>
+      <c r="G2268" s="40"/>
     </row>
     <row r="2269" ht="12.75" customHeight="1">
-      <c r="E2269" s="37"/>
-      <c r="G2269" s="37"/>
+      <c r="E2269" s="40"/>
+      <c r="G2269" s="40"/>
     </row>
     <row r="2270" ht="12.75" customHeight="1">
-      <c r="E2270" s="37"/>
-      <c r="G2270" s="37"/>
+      <c r="E2270" s="40"/>
+      <c r="G2270" s="40"/>
     </row>
     <row r="2271" ht="12.75" customHeight="1">
-      <c r="E2271" s="37"/>
-      <c r="G2271" s="37"/>
+      <c r="E2271" s="40"/>
+      <c r="G2271" s="40"/>
     </row>
     <row r="2272" ht="12.75" customHeight="1">
-      <c r="E2272" s="37"/>
-      <c r="G2272" s="37"/>
+      <c r="E2272" s="40"/>
+      <c r="G2272" s="40"/>
     </row>
     <row r="2273" ht="12.75" customHeight="1">
-      <c r="E2273" s="37"/>
-      <c r="G2273" s="37"/>
+      <c r="E2273" s="40"/>
+      <c r="G2273" s="40"/>
     </row>
     <row r="2274" ht="12.75" customHeight="1">
-      <c r="E2274" s="37"/>
-      <c r="G2274" s="37"/>
+      <c r="E2274" s="40"/>
+      <c r="G2274" s="40"/>
     </row>
     <row r="2275" ht="12.75" customHeight="1">
-      <c r="E2275" s="37"/>
-      <c r="G2275" s="37"/>
+      <c r="E2275" s="40"/>
+      <c r="G2275" s="40"/>
     </row>
     <row r="2276" ht="12.75" customHeight="1">
-      <c r="E2276" s="37"/>
-      <c r="G2276" s="37"/>
+      <c r="E2276" s="40"/>
+      <c r="G2276" s="40"/>
     </row>
     <row r="2277" ht="12.75" customHeight="1">
-      <c r="E2277" s="37"/>
-      <c r="G2277" s="37"/>
+      <c r="E2277" s="40"/>
+      <c r="G2277" s="40"/>
     </row>
     <row r="2278" ht="12.75" customHeight="1">
-      <c r="E2278" s="37"/>
-      <c r="G2278" s="37"/>
+      <c r="E2278" s="40"/>
+      <c r="G2278" s="40"/>
     </row>
     <row r="2279" ht="12.75" customHeight="1">
-      <c r="E2279" s="37"/>
-      <c r="G2279" s="37"/>
+      <c r="E2279" s="40"/>
+      <c r="G2279" s="40"/>
     </row>
     <row r="2280" ht="12.75" customHeight="1">
-      <c r="E2280" s="37"/>
-      <c r="G2280" s="37"/>
+      <c r="E2280" s="40"/>
+      <c r="G2280" s="40"/>
     </row>
     <row r="2281" ht="12.75" customHeight="1">
-      <c r="E2281" s="37"/>
-      <c r="G2281" s="37"/>
+      <c r="E2281" s="40"/>
+      <c r="G2281" s="40"/>
     </row>
     <row r="2282" ht="12.75" customHeight="1">
-      <c r="E2282" s="37"/>
-      <c r="G2282" s="37"/>
+      <c r="E2282" s="40"/>
+      <c r="G2282" s="40"/>
     </row>
     <row r="2283" ht="12.75" customHeight="1">
-      <c r="E2283" s="37"/>
-      <c r="G2283" s="37"/>
+      <c r="E2283" s="40"/>
+      <c r="G2283" s="40"/>
     </row>
     <row r="2284" ht="12.75" customHeight="1">
-      <c r="E2284" s="37"/>
-      <c r="G2284" s="37"/>
+      <c r="E2284" s="40"/>
+      <c r="G2284" s="40"/>
     </row>
     <row r="2285" ht="12.75" customHeight="1">
-      <c r="E2285" s="37"/>
-      <c r="G2285" s="37"/>
+      <c r="E2285" s="40"/>
+      <c r="G2285" s="40"/>
     </row>
     <row r="2286" ht="12.75" customHeight="1">
-      <c r="E2286" s="37"/>
-      <c r="G2286" s="37"/>
+      <c r="E2286" s="40"/>
+      <c r="G2286" s="40"/>
     </row>
     <row r="2287" ht="12.75" customHeight="1">
-      <c r="E2287" s="37"/>
-      <c r="G2287" s="37"/>
+      <c r="E2287" s="40"/>
+      <c r="G2287" s="40"/>
     </row>
     <row r="2288" ht="12.75" customHeight="1">
-      <c r="E2288" s="37"/>
-      <c r="G2288" s="37"/>
+      <c r="E2288" s="40"/>
+      <c r="G2288" s="40"/>
     </row>
     <row r="2289" ht="12.75" customHeight="1">
-      <c r="E2289" s="37"/>
-      <c r="G2289" s="37"/>
+      <c r="E2289" s="40"/>
+      <c r="G2289" s="40"/>
     </row>
     <row r="2290" ht="12.75" customHeight="1">
-      <c r="E2290" s="37"/>
-      <c r="G2290" s="37"/>
+      <c r="E2290" s="40"/>
+      <c r="G2290" s="40"/>
     </row>
     <row r="2291" ht="12.75" customHeight="1">
-      <c r="E2291" s="37"/>
-      <c r="G2291" s="37"/>
+      <c r="E2291" s="40"/>
+      <c r="G2291" s="40"/>
     </row>
     <row r="2292" ht="12.75" customHeight="1">
-      <c r="E2292" s="37"/>
-      <c r="G2292" s="37"/>
+      <c r="E2292" s="40"/>
+      <c r="G2292" s="40"/>
     </row>
     <row r="2293" ht="12.75" customHeight="1">
-      <c r="E2293" s="37"/>
-      <c r="G2293" s="37"/>
+      <c r="E2293" s="40"/>
+      <c r="G2293" s="40"/>
     </row>
     <row r="2294" ht="12.75" customHeight="1">
-      <c r="E2294" s="37"/>
-      <c r="G2294" s="37"/>
+      <c r="E2294" s="40"/>
+      <c r="G2294" s="40"/>
     </row>
     <row r="2295" ht="12.75" customHeight="1">
-      <c r="E2295" s="37"/>
-      <c r="G2295" s="37"/>
+      <c r="E2295" s="40"/>
+      <c r="G2295" s="40"/>
     </row>
     <row r="2296" ht="12.75" customHeight="1">
-      <c r="E2296" s="37"/>
-      <c r="G2296" s="37"/>
+      <c r="E2296" s="40"/>
+      <c r="G2296" s="40"/>
     </row>
     <row r="2297" ht="12.75" customHeight="1">
-      <c r="E2297" s="37"/>
-      <c r="G2297" s="37"/>
+      <c r="E2297" s="40"/>
+      <c r="G2297" s="40"/>
     </row>
     <row r="2298" ht="12.75" customHeight="1">
-      <c r="E2298" s="37"/>
-      <c r="G2298" s="37"/>
+      <c r="E2298" s="40"/>
+      <c r="G2298" s="40"/>
     </row>
     <row r="2299" ht="12.75" customHeight="1">
-      <c r="E2299" s="37"/>
-      <c r="G2299" s="37"/>
+      <c r="E2299" s="40"/>
+      <c r="G2299" s="40"/>
     </row>
     <row r="2300" ht="12.75" customHeight="1">
-      <c r="E2300" s="37"/>
-      <c r="G2300" s="37"/>
+      <c r="E2300" s="40"/>
+      <c r="G2300" s="40"/>
     </row>
     <row r="2301" ht="12.75" customHeight="1">
-      <c r="E2301" s="37"/>
-      <c r="G2301" s="37"/>
+      <c r="E2301" s="40"/>
+      <c r="G2301" s="40"/>
     </row>
     <row r="2302" ht="12.75" customHeight="1">
-      <c r="E2302" s="37"/>
-      <c r="G2302" s="37"/>
+      <c r="E2302" s="40"/>
+      <c r="G2302" s="40"/>
     </row>
     <row r="2303" ht="12.75" customHeight="1">
-      <c r="E2303" s="37"/>
-      <c r="G2303" s="37"/>
+      <c r="E2303" s="40"/>
+      <c r="G2303" s="40"/>
     </row>
     <row r="2304" ht="12.75" customHeight="1">
-      <c r="E2304" s="37"/>
-      <c r="G2304" s="37"/>
+      <c r="E2304" s="40"/>
+      <c r="G2304" s="40"/>
     </row>
     <row r="2305" ht="12.75" customHeight="1">
-      <c r="E2305" s="37"/>
-      <c r="G2305" s="37"/>
+      <c r="E2305" s="40"/>
+      <c r="G2305" s="40"/>
     </row>
     <row r="2306" ht="12.75" customHeight="1">
-      <c r="E2306" s="37"/>
-      <c r="G2306" s="37"/>
+      <c r="E2306" s="40"/>
+      <c r="G2306" s="40"/>
     </row>
     <row r="2307" ht="12.75" customHeight="1">
-      <c r="E2307" s="37"/>
-      <c r="G2307" s="37"/>
+      <c r="E2307" s="40"/>
+      <c r="G2307" s="40"/>
     </row>
     <row r="2308" ht="12.75" customHeight="1">
-      <c r="E2308" s="37"/>
-      <c r="G2308" s="37"/>
+      <c r="E2308" s="40"/>
+      <c r="G2308" s="40"/>
     </row>
     <row r="2309" ht="12.75" customHeight="1">
-      <c r="E2309" s="37"/>
-      <c r="G2309" s="37"/>
+      <c r="E2309" s="40"/>
+      <c r="G2309" s="40"/>
     </row>
     <row r="2310" ht="12.75" customHeight="1">
-      <c r="E2310" s="37"/>
-      <c r="G2310" s="37"/>
+      <c r="E2310" s="40"/>
+      <c r="G2310" s="40"/>
     </row>
     <row r="2311" ht="12.75" customHeight="1">
-      <c r="E2311" s="37"/>
-      <c r="G2311" s="37"/>
+      <c r="E2311" s="40"/>
+      <c r="G2311" s="40"/>
     </row>
     <row r="2312" ht="12.75" customHeight="1">
-      <c r="E2312" s="37"/>
-      <c r="G2312" s="37"/>
+      <c r="E2312" s="40"/>
+      <c r="G2312" s="40"/>
     </row>
     <row r="2313" ht="12.75" customHeight="1">
-      <c r="E2313" s="37"/>
-      <c r="G2313" s="37"/>
+      <c r="E2313" s="40"/>
+      <c r="G2313" s="40"/>
     </row>
     <row r="2314" ht="12.75" customHeight="1">
-      <c r="E2314" s="37"/>
-      <c r="G2314" s="37"/>
+      <c r="E2314" s="40"/>
+      <c r="G2314" s="40"/>
     </row>
     <row r="2315" ht="12.75" customHeight="1">
-      <c r="E2315" s="37"/>
-      <c r="G2315" s="37"/>
+      <c r="E2315" s="40"/>
+      <c r="G2315" s="40"/>
     </row>
     <row r="2316" ht="12.75" customHeight="1">
-      <c r="E2316" s="37"/>
-      <c r="G2316" s="37"/>
+      <c r="E2316" s="40"/>
+      <c r="G2316" s="40"/>
     </row>
     <row r="2317" ht="12.75" customHeight="1">
-      <c r="E2317" s="37"/>
-      <c r="G2317" s="37"/>
+      <c r="E2317" s="40"/>
+      <c r="G2317" s="40"/>
     </row>
     <row r="2318" ht="12.75" customHeight="1">
-      <c r="E2318" s="37"/>
-      <c r="G2318" s="37"/>
+      <c r="E2318" s="40"/>
+      <c r="G2318" s="40"/>
     </row>
     <row r="2319" ht="12.75" customHeight="1">
-      <c r="E2319" s="37"/>
-      <c r="G2319" s="37"/>
+      <c r="E2319" s="40"/>
+      <c r="G2319" s="40"/>
     </row>
     <row r="2320" ht="12.75" customHeight="1">
-      <c r="E2320" s="37"/>
-      <c r="G2320" s="37"/>
+      <c r="E2320" s="40"/>
+      <c r="G2320" s="40"/>
     </row>
     <row r="2321" ht="12.75" customHeight="1">
-      <c r="E2321" s="37"/>
-      <c r="G2321" s="37"/>
+      <c r="E2321" s="40"/>
+      <c r="G2321" s="40"/>
     </row>
     <row r="2322" ht="12.75" customHeight="1">
-      <c r="E2322" s="37"/>
-      <c r="G2322" s="37"/>
+      <c r="E2322" s="40"/>
+      <c r="G2322" s="40"/>
     </row>
     <row r="2323" ht="12.75" customHeight="1">
-      <c r="E2323" s="37"/>
-      <c r="G2323" s="37"/>
+      <c r="E2323" s="40"/>
+      <c r="G2323" s="40"/>
     </row>
     <row r="2324" ht="12.75" customHeight="1">
-      <c r="E2324" s="37"/>
-      <c r="G2324" s="37"/>
+      <c r="E2324" s="40"/>
+      <c r="G2324" s="40"/>
     </row>
     <row r="2325" ht="12.75" customHeight="1">
-      <c r="E2325" s="37"/>
-      <c r="G2325" s="37"/>
+      <c r="E2325" s="40"/>
+      <c r="G2325" s="40"/>
     </row>
     <row r="2326" ht="12.75" customHeight="1">
-      <c r="E2326" s="37"/>
-      <c r="G2326" s="37"/>
+      <c r="E2326" s="40"/>
+      <c r="G2326" s="40"/>
     </row>
     <row r="2327" ht="12.75" customHeight="1">
-      <c r="E2327" s="37"/>
-      <c r="G2327" s="37"/>
+      <c r="E2327" s="40"/>
+      <c r="G2327" s="40"/>
     </row>
     <row r="2328" ht="12.75" customHeight="1">
-      <c r="E2328" s="37"/>
-      <c r="G2328" s="37"/>
+      <c r="E2328" s="40"/>
+      <c r="G2328" s="40"/>
     </row>
     <row r="2329" ht="12.75" customHeight="1">
-      <c r="E2329" s="37"/>
-      <c r="G2329" s="37"/>
+      <c r="E2329" s="40"/>
+      <c r="G2329" s="40"/>
     </row>
     <row r="2330" ht="12.75" customHeight="1">
-      <c r="E2330" s="37"/>
-      <c r="G2330" s="37"/>
+      <c r="E2330" s="40"/>
+      <c r="G2330" s="40"/>
     </row>
     <row r="2331" ht="12.75" customHeight="1">
-      <c r="E2331" s="37"/>
-      <c r="G2331" s="37"/>
+      <c r="E2331" s="40"/>
+      <c r="G2331" s="40"/>
     </row>
     <row r="2332" ht="12.75" customHeight="1">
-      <c r="E2332" s="37"/>
-      <c r="G2332" s="37"/>
+      <c r="E2332" s="40"/>
+      <c r="G2332" s="40"/>
     </row>
     <row r="2333" ht="12.75" customHeight="1">
-      <c r="E2333" s="37"/>
-      <c r="G2333" s="37"/>
+      <c r="E2333" s="40"/>
+      <c r="G2333" s="40"/>
     </row>
     <row r="2334" ht="12.75" customHeight="1">
-      <c r="E2334" s="37"/>
-      <c r="G2334" s="37"/>
+      <c r="E2334" s="40"/>
+      <c r="G2334" s="40"/>
     </row>
     <row r="2335" ht="12.75" customHeight="1">
-      <c r="E2335" s="37"/>
-      <c r="G2335" s="37"/>
+      <c r="E2335" s="40"/>
+      <c r="G2335" s="40"/>
     </row>
     <row r="2336" ht="12.75" customHeight="1">
-      <c r="E2336" s="37"/>
-      <c r="G2336" s="37"/>
+      <c r="E2336" s="40"/>
+      <c r="G2336" s="40"/>
     </row>
     <row r="2337" ht="12.75" customHeight="1">
-      <c r="E2337" s="37"/>
-      <c r="G2337" s="37"/>
+      <c r="E2337" s="40"/>
+      <c r="G2337" s="40"/>
     </row>
     <row r="2338" ht="12.75" customHeight="1">
-      <c r="E2338" s="37"/>
-      <c r="G2338" s="37"/>
+      <c r="E2338" s="40"/>
+      <c r="G2338" s="40"/>
     </row>
     <row r="2339" ht="12.75" customHeight="1">
-      <c r="E2339" s="37"/>
-      <c r="G2339" s="37"/>
+      <c r="E2339" s="40"/>
+      <c r="G2339" s="40"/>
     </row>
     <row r="2340" ht="12.75" customHeight="1">
-      <c r="E2340" s="37"/>
-      <c r="G2340" s="37"/>
+      <c r="E2340" s="40"/>
+      <c r="G2340" s="40"/>
     </row>
     <row r="2341" ht="12.75" customHeight="1">
-      <c r="E2341" s="37"/>
-      <c r="G2341" s="37"/>
+      <c r="E2341" s="40"/>
+      <c r="G2341" s="40"/>
     </row>
     <row r="2342" ht="12.75" customHeight="1">
-      <c r="E2342" s="37"/>
-      <c r="G2342" s="37"/>
+      <c r="E2342" s="40"/>
+      <c r="G2342" s="40"/>
     </row>
     <row r="2343" ht="12.75" customHeight="1">
-      <c r="E2343" s="37"/>
-      <c r="G2343" s="37"/>
+      <c r="E2343" s="40"/>
+      <c r="G2343" s="40"/>
     </row>
     <row r="2344" ht="12.75" customHeight="1">
-      <c r="E2344" s="37"/>
-      <c r="G2344" s="37"/>
+      <c r="E2344" s="40"/>
+      <c r="G2344" s="40"/>
     </row>
     <row r="2345" ht="12.75" customHeight="1">
-      <c r="E2345" s="37"/>
-      <c r="G2345" s="37"/>
+      <c r="E2345" s="40"/>
+      <c r="G2345" s="40"/>
     </row>
     <row r="2346" ht="12.75" customHeight="1">
-      <c r="E2346" s="37"/>
-      <c r="G2346" s="37"/>
+      <c r="E2346" s="40"/>
+      <c r="G2346" s="40"/>
     </row>
     <row r="2347" ht="12.75" customHeight="1">
-      <c r="E2347" s="37"/>
-      <c r="G2347" s="37"/>
+      <c r="E2347" s="40"/>
+      <c r="G2347" s="40"/>
     </row>
     <row r="2348" ht="12.75" customHeight="1">
-      <c r="E2348" s="37"/>
-      <c r="G2348" s="37"/>
+      <c r="E2348" s="40"/>
+      <c r="G2348" s="40"/>
     </row>
     <row r="2349" ht="12.75" customHeight="1">
-      <c r="E2349" s="37"/>
-      <c r="G2349" s="37"/>
+      <c r="E2349" s="40"/>
+      <c r="G2349" s="40"/>
     </row>
     <row r="2350" ht="12.75" customHeight="1">
-      <c r="E2350" s="37"/>
-      <c r="G2350" s="37"/>
+      <c r="E2350" s="40"/>
+      <c r="G2350" s="40"/>
     </row>
     <row r="2351" ht="12.75" customHeight="1">
-      <c r="E2351" s="37"/>
-      <c r="G2351" s="37"/>
+      <c r="E2351" s="40"/>
+      <c r="G2351" s="40"/>
     </row>
     <row r="2352" ht="12.75" customHeight="1">
-      <c r="E2352" s="37"/>
-      <c r="G2352" s="37"/>
+      <c r="E2352" s="40"/>
+      <c r="G2352" s="40"/>
     </row>
     <row r="2353" ht="12.75" customHeight="1">
-      <c r="E2353" s="37"/>
-      <c r="G2353" s="37"/>
+      <c r="E2353" s="40"/>
+      <c r="G2353" s="40"/>
     </row>
     <row r="2354" ht="12.75" customHeight="1">
-      <c r="E2354" s="37"/>
-      <c r="G2354" s="37"/>
+      <c r="E2354" s="40"/>
+      <c r="G2354" s="40"/>
     </row>
     <row r="2355" ht="12.75" customHeight="1">
-      <c r="E2355" s="37"/>
-      <c r="G2355" s="37"/>
+      <c r="E2355" s="40"/>
+      <c r="G2355" s="40"/>
     </row>
     <row r="2356" ht="12.75" customHeight="1">
-      <c r="E2356" s="37"/>
-      <c r="G2356" s="37"/>
+      <c r="E2356" s="40"/>
+      <c r="G2356" s="40"/>
     </row>
     <row r="2357" ht="12.75" customHeight="1">
-      <c r="E2357" s="37"/>
-      <c r="G2357" s="37"/>
+      <c r="E2357" s="40"/>
+      <c r="G2357" s="40"/>
     </row>
     <row r="2358" ht="12.75" customHeight="1">
-      <c r="E2358" s="37"/>
-      <c r="G2358" s="37"/>
+      <c r="E2358" s="40"/>
+      <c r="G2358" s="40"/>
     </row>
     <row r="2359" ht="12.75" customHeight="1">
-      <c r="E2359" s="37"/>
-      <c r="G2359" s="37"/>
+      <c r="E2359" s="40"/>
+      <c r="G2359" s="40"/>
     </row>
     <row r="2360" ht="12.75" customHeight="1">
-      <c r="E2360" s="37"/>
-      <c r="G2360" s="37"/>
+      <c r="E2360" s="40"/>
+      <c r="G2360" s="40"/>
     </row>
     <row r="2361" ht="12.75" customHeight="1">
-      <c r="E2361" s="37"/>
-      <c r="G2361" s="37"/>
+      <c r="E2361" s="40"/>
+      <c r="G2361" s="40"/>
     </row>
     <row r="2362" ht="12.75" customHeight="1">
-      <c r="E2362" s="37"/>
-      <c r="G2362" s="37"/>
+      <c r="E2362" s="40"/>
+      <c r="G2362" s="40"/>
     </row>
     <row r="2363" ht="12.75" customHeight="1">
-      <c r="E2363" s="37"/>
-      <c r="G2363" s="37"/>
+      <c r="E2363" s="40"/>
+      <c r="G2363" s="40"/>
     </row>
     <row r="2364" ht="12.75" customHeight="1">
-      <c r="E2364" s="37"/>
-      <c r="G2364" s="37"/>
+      <c r="E2364" s="40"/>
+      <c r="G2364" s="40"/>
     </row>
     <row r="2365" ht="12.75" customHeight="1">
-      <c r="E2365" s="37"/>
-      <c r="G2365" s="37"/>
+      <c r="E2365" s="40"/>
+      <c r="G2365" s="40"/>
     </row>
     <row r="2366" ht="12.75" customHeight="1">
-      <c r="E2366" s="37"/>
-      <c r="G2366" s="37"/>
+      <c r="E2366" s="40"/>
+      <c r="G2366" s="40"/>
     </row>
     <row r="2367" ht="12.75" customHeight="1">
-      <c r="E2367" s="37"/>
-      <c r="G2367" s="37"/>
+      <c r="E2367" s="40"/>
+      <c r="G2367" s="40"/>
     </row>
     <row r="2368" ht="12.75" customHeight="1">
-      <c r="E2368" s="37"/>
-      <c r="G2368" s="37"/>
+      <c r="E2368" s="40"/>
+      <c r="G2368" s="40"/>
     </row>
     <row r="2369" ht="12.75" customHeight="1">
-      <c r="E2369" s="37"/>
-      <c r="G2369" s="37"/>
+      <c r="E2369" s="40"/>
+      <c r="G2369" s="40"/>
     </row>
     <row r="2370" ht="12.75" customHeight="1">
-      <c r="E2370" s="37"/>
-      <c r="G2370" s="37"/>
+      <c r="E2370" s="40"/>
+      <c r="G2370" s="40"/>
     </row>
     <row r="2371" ht="12.75" customHeight="1">
-      <c r="E2371" s="37"/>
-      <c r="G2371" s="37"/>
+      <c r="E2371" s="40"/>
+      <c r="G2371" s="40"/>
     </row>
     <row r="2372" ht="12.75" customHeight="1">
-      <c r="E2372" s="37"/>
-      <c r="G2372" s="37"/>
+      <c r="E2372" s="40"/>
+      <c r="G2372" s="40"/>
     </row>
     <row r="2373" ht="12.75" customHeight="1">
-      <c r="E2373" s="37"/>
-      <c r="G2373" s="37"/>
+      <c r="E2373" s="40"/>
+      <c r="G2373" s="40"/>
     </row>
     <row r="2374" ht="12.75" customHeight="1">
-      <c r="E2374" s="37"/>
-      <c r="G2374" s="37"/>
+      <c r="E2374" s="40"/>
+      <c r="G2374" s="40"/>
     </row>
     <row r="2375" ht="12.75" customHeight="1">
-      <c r="E2375" s="37"/>
-      <c r="G2375" s="37"/>
+      <c r="E2375" s="40"/>
+      <c r="G2375" s="40"/>
     </row>
     <row r="2376" ht="12.75" customHeight="1">
-      <c r="E2376" s="37"/>
-      <c r="G2376" s="37"/>
+      <c r="E2376" s="40"/>
+      <c r="G2376" s="40"/>
     </row>
     <row r="2377" ht="12.75" customHeight="1">
-      <c r="E2377" s="37"/>
-      <c r="G2377" s="37"/>
+      <c r="E2377" s="40"/>
+      <c r="G2377" s="40"/>
     </row>
     <row r="2378" ht="12.75" customHeight="1">
-      <c r="E2378" s="37"/>
-      <c r="G2378" s="37"/>
+      <c r="E2378" s="40"/>
+      <c r="G2378" s="40"/>
     </row>
     <row r="2379" ht="12.75" customHeight="1">
-      <c r="E2379" s="37"/>
-      <c r="G2379" s="37"/>
+      <c r="E2379" s="40"/>
+      <c r="G2379" s="40"/>
     </row>
     <row r="2380" ht="12.75" customHeight="1">
-      <c r="E2380" s="37"/>
-      <c r="G2380" s="37"/>
+      <c r="E2380" s="40"/>
+      <c r="G2380" s="40"/>
     </row>
     <row r="2381" ht="12.75" customHeight="1">
-      <c r="E2381" s="37"/>
-      <c r="G2381" s="37"/>
+      <c r="E2381" s="40"/>
+      <c r="G2381" s="40"/>
     </row>
     <row r="2382" ht="12.75" customHeight="1">
-      <c r="E2382" s="37"/>
-      <c r="G2382" s="37"/>
+      <c r="E2382" s="40"/>
+      <c r="G2382" s="40"/>
     </row>
     <row r="2383" ht="12.75" customHeight="1">
-      <c r="E2383" s="37"/>
-      <c r="G2383" s="37"/>
+      <c r="E2383" s="40"/>
+      <c r="G2383" s="40"/>
     </row>
     <row r="2384" ht="12.75" customHeight="1">
-      <c r="E2384" s="37"/>
-      <c r="G2384" s="37"/>
+      <c r="E2384" s="40"/>
+      <c r="G2384" s="40"/>
     </row>
     <row r="2385" ht="12.75" customHeight="1">
-      <c r="E2385" s="37"/>
-      <c r="G2385" s="37"/>
+      <c r="E2385" s="40"/>
+      <c r="G2385" s="40"/>
     </row>
     <row r="2386" ht="12.75" customHeight="1">
-      <c r="E2386" s="37"/>
-      <c r="G2386" s="37"/>
+      <c r="E2386" s="40"/>
+      <c r="G2386" s="40"/>
     </row>
     <row r="2387" ht="12.75" customHeight="1">
-      <c r="E2387" s="37"/>
-      <c r="G2387" s="37"/>
+      <c r="E2387" s="40"/>
+      <c r="G2387" s="40"/>
     </row>
     <row r="2388" ht="12.75" customHeight="1">
-      <c r="E2388" s="37"/>
-      <c r="G2388" s="37"/>
+      <c r="E2388" s="40"/>
+      <c r="G2388" s="40"/>
     </row>
     <row r="2389" ht="12.75" customHeight="1">
-      <c r="E2389" s="37"/>
-      <c r="G2389" s="37"/>
+      <c r="E2389" s="40"/>
+      <c r="G2389" s="40"/>
     </row>
     <row r="2390" ht="12.75" customHeight="1">
-      <c r="E2390" s="37"/>
-      <c r="G2390" s="37"/>
+      <c r="E2390" s="40"/>
+      <c r="G2390" s="40"/>
     </row>
     <row r="2391" ht="12.75" customHeight="1">
-      <c r="E2391" s="37"/>
-      <c r="G2391" s="37"/>
+      <c r="E2391" s="40"/>
+      <c r="G2391" s="40"/>
     </row>
     <row r="2392" ht="12.75" customHeight="1">
-      <c r="E2392" s="37"/>
-      <c r="G2392" s="37"/>
+      <c r="E2392" s="40"/>
+      <c r="G2392" s="40"/>
     </row>
     <row r="2393" ht="12.75" customHeight="1">
-      <c r="E2393" s="37"/>
-      <c r="G2393" s="37"/>
+      <c r="E2393" s="40"/>
+      <c r="G2393" s="40"/>
     </row>
     <row r="2394" ht="12.75" customHeight="1">
-      <c r="E2394" s="37"/>
-      <c r="G2394" s="37"/>
+      <c r="E2394" s="40"/>
+      <c r="G2394" s="40"/>
     </row>
     <row r="2395" ht="12.75" customHeight="1">
-      <c r="E2395" s="37"/>
-      <c r="G2395" s="37"/>
+      <c r="E2395" s="40"/>
+      <c r="G2395" s="40"/>
     </row>
     <row r="2396" ht="12.75" customHeight="1">
-      <c r="E2396" s="37"/>
-      <c r="G2396" s="37"/>
+      <c r="E2396" s="40"/>
+      <c r="G2396" s="40"/>
     </row>
     <row r="2397" ht="12.75" customHeight="1">
-      <c r="E2397" s="37"/>
-      <c r="G2397" s="37"/>
+      <c r="E2397" s="40"/>
+      <c r="G2397" s="40"/>
     </row>
     <row r="2398" ht="12.75" customHeight="1">
-      <c r="E2398" s="37"/>
-      <c r="G2398" s="37"/>
+      <c r="E2398" s="40"/>
+      <c r="G2398" s="40"/>
     </row>
     <row r="2399" ht="12.75" customHeight="1">
-      <c r="E2399" s="37"/>
-      <c r="G2399" s="37"/>
+      <c r="E2399" s="40"/>
+      <c r="G2399" s="40"/>
     </row>
     <row r="2400" ht="12.75" customHeight="1">
-      <c r="E2400" s="37"/>
-      <c r="G2400" s="37"/>
+      <c r="E2400" s="40"/>
+      <c r="G2400" s="40"/>
     </row>
     <row r="2401" ht="12.75" customHeight="1">
-      <c r="E2401" s="37"/>
-      <c r="G2401" s="37"/>
+      <c r="E2401" s="40"/>
+      <c r="G2401" s="40"/>
     </row>
     <row r="2402" ht="12.75" customHeight="1">
-      <c r="E2402" s="37"/>
-      <c r="G2402" s="37"/>
+      <c r="E2402" s="40"/>
+      <c r="G2402" s="40"/>
     </row>
     <row r="2403" ht="12.75" customHeight="1">
-      <c r="E2403" s="37"/>
-      <c r="G2403" s="37"/>
+      <c r="E2403" s="40"/>
+      <c r="G2403" s="40"/>
     </row>
     <row r="2404" ht="12.75" customHeight="1">
-      <c r="E2404" s="37"/>
-      <c r="G2404" s="37"/>
+      <c r="E2404" s="40"/>
+      <c r="G2404" s="40"/>
     </row>
     <row r="2405" ht="12.75" customHeight="1">
-      <c r="E2405" s="37"/>
-      <c r="G2405" s="37"/>
+      <c r="E2405" s="40"/>
+      <c r="G2405" s="40"/>
     </row>
     <row r="2406" ht="12.75" customHeight="1">
-      <c r="E2406" s="37"/>
-      <c r="G2406" s="37"/>
+      <c r="E2406" s="40"/>
+      <c r="G2406" s="40"/>
     </row>
     <row r="2407" ht="12.75" customHeight="1">
-      <c r="E2407" s="37"/>
-      <c r="G2407" s="37"/>
+      <c r="E2407" s="40"/>
+      <c r="G2407" s="40"/>
     </row>
     <row r="2408" ht="12.75" customHeight="1">
-      <c r="E2408" s="37"/>
-      <c r="G2408" s="37"/>
+      <c r="E2408" s="40"/>
+      <c r="G2408" s="40"/>
     </row>
     <row r="2409" ht="12.75" customHeight="1">
-      <c r="E2409" s="37"/>
-      <c r="G2409" s="37"/>
+      <c r="E2409" s="40"/>
+      <c r="G2409" s="40"/>
     </row>
     <row r="2410" ht="12.75" customHeight="1">
-      <c r="E2410" s="37"/>
-      <c r="G2410" s="37"/>
+      <c r="E2410" s="40"/>
+      <c r="G2410" s="40"/>
     </row>
     <row r="2411" ht="12.75" customHeight="1">
-      <c r="E2411" s="37"/>
-      <c r="G2411" s="37"/>
+      <c r="E2411" s="40"/>
+      <c r="G2411" s="40"/>
     </row>
     <row r="2412" ht="12.75" customHeight="1">
-      <c r="E2412" s="37"/>
-      <c r="G2412" s="37"/>
+      <c r="E2412" s="40"/>
+      <c r="G2412" s="40"/>
     </row>
     <row r="2413" ht="12.75" customHeight="1">
-      <c r="E2413" s="37"/>
-      <c r="G2413" s="37"/>
+      <c r="E2413" s="40"/>
+      <c r="G2413" s="40"/>
     </row>
     <row r="2414" ht="12.75" customHeight="1">
-      <c r="E2414" s="37"/>
-      <c r="G2414" s="37"/>
+      <c r="E2414" s="40"/>
+      <c r="G2414" s="40"/>
     </row>
     <row r="2415" ht="12.75" customHeight="1">
-      <c r="E2415" s="37"/>
-      <c r="G2415" s="37"/>
+      <c r="E2415" s="40"/>
+      <c r="G2415" s="40"/>
     </row>
     <row r="2416" ht="12.75" customHeight="1">
-      <c r="E2416" s="37"/>
-      <c r="G2416" s="37"/>
+      <c r="E2416" s="40"/>
+      <c r="G2416" s="40"/>
     </row>
     <row r="2417" ht="12.75" customHeight="1">
-      <c r="E2417" s="37"/>
-      <c r="G2417" s="37"/>
+      <c r="E2417" s="40"/>
+      <c r="G2417" s="40"/>
     </row>
     <row r="2418" ht="12.75" customHeight="1">
-      <c r="E2418" s="37"/>
-      <c r="G2418" s="37"/>
+      <c r="E2418" s="40"/>
+      <c r="G2418" s="40"/>
     </row>
     <row r="2419" ht="12.75" customHeight="1">
-      <c r="E2419" s="37"/>
-      <c r="G2419" s="37"/>
+      <c r="E2419" s="40"/>
+      <c r="G2419" s="40"/>
     </row>
     <row r="2420" ht="12.75" customHeight="1">
-      <c r="E2420" s="37"/>
-      <c r="G2420" s="37"/>
+      <c r="E2420" s="40"/>
+      <c r="G2420" s="40"/>
     </row>
     <row r="2421" ht="12.75" customHeight="1">
-      <c r="E2421" s="37"/>
-      <c r="G2421" s="37"/>
+      <c r="E2421" s="40"/>
+      <c r="G2421" s="40"/>
     </row>
     <row r="2422" ht="12.75" customHeight="1">
-      <c r="E2422" s="37"/>
-      <c r="G2422" s="37"/>
+      <c r="E2422" s="40"/>
+      <c r="G2422" s="40"/>
     </row>
     <row r="2423" ht="12.75" customHeight="1">
-      <c r="E2423" s="37"/>
-      <c r="G2423" s="37"/>
+      <c r="E2423" s="40"/>
+      <c r="G2423" s="40"/>
     </row>
     <row r="2424" ht="12.75" customHeight="1">
-      <c r="E2424" s="37"/>
-      <c r="G2424" s="37"/>
+      <c r="E2424" s="40"/>
+      <c r="G2424" s="40"/>
     </row>
     <row r="2425" ht="12.75" customHeight="1">
-      <c r="E2425" s="37"/>
-      <c r="G2425" s="37"/>
+      <c r="E2425" s="40"/>
+      <c r="G2425" s="40"/>
     </row>
     <row r="2426" ht="12.75" customHeight="1">
-      <c r="E2426" s="37"/>
-      <c r="G2426" s="37"/>
+      <c r="E2426" s="40"/>
+      <c r="G2426" s="40"/>
     </row>
     <row r="2427" ht="12.75" customHeight="1">
-      <c r="E2427" s="37"/>
-      <c r="G2427" s="37"/>
+      <c r="E2427" s="40"/>
+      <c r="G2427" s="40"/>
     </row>
     <row r="2428" ht="12.75" customHeight="1">
-      <c r="E2428" s="37"/>
-      <c r="G2428" s="37"/>
+      <c r="E2428" s="40"/>
+      <c r="G2428" s="40"/>
     </row>
     <row r="2429" ht="12.75" customHeight="1">
-      <c r="E2429" s="37"/>
-      <c r="G2429" s="37"/>
+      <c r="E2429" s="40"/>
+      <c r="G2429" s="40"/>
     </row>
     <row r="2430" ht="12.75" customHeight="1">
-      <c r="E2430" s="37"/>
-      <c r="G2430" s="37"/>
+      <c r="E2430" s="40"/>
+      <c r="G2430" s="40"/>
     </row>
     <row r="2431" ht="12.75" customHeight="1">
-      <c r="E2431" s="37"/>
-      <c r="G2431" s="37"/>
+      <c r="E2431" s="40"/>
+      <c r="G2431" s="40"/>
     </row>
     <row r="2432" ht="12.75" customHeight="1">
-      <c r="E2432" s="37"/>
-      <c r="G2432" s="37"/>
+      <c r="E2432" s="40"/>
+      <c r="G2432" s="40"/>
     </row>
     <row r="2433" ht="12.75" customHeight="1">
-      <c r="E2433" s="37"/>
-      <c r="G2433" s="37"/>
+      <c r="E2433" s="40"/>
+      <c r="G2433" s="40"/>
     </row>
     <row r="2434" ht="12.75" customHeight="1">
-      <c r="E2434" s="37"/>
-      <c r="G2434" s="37"/>
+      <c r="E2434" s="40"/>
+      <c r="G2434" s="40"/>
     </row>
     <row r="2435" ht="12.75" customHeight="1">
-      <c r="E2435" s="37"/>
-      <c r="G2435" s="37"/>
+      <c r="E2435" s="40"/>
+      <c r="G2435" s="40"/>
     </row>
     <row r="2436" ht="12.75" customHeight="1">
-      <c r="E2436" s="37"/>
-      <c r="G2436" s="37"/>
+      <c r="E2436" s="40"/>
+      <c r="G2436" s="40"/>
     </row>
     <row r="2437" ht="12.75" customHeight="1">
-      <c r="E2437" s="37"/>
-      <c r="G2437" s="37"/>
+      <c r="E2437" s="40"/>
+      <c r="G2437" s="40"/>
     </row>
     <row r="2438" ht="12.75" customHeight="1">
-      <c r="E2438" s="37"/>
-      <c r="G2438" s="37"/>
+      <c r="E2438" s="40"/>
+      <c r="G2438" s="40"/>
     </row>
     <row r="2439" ht="12.75" customHeight="1">
-      <c r="E2439" s="37"/>
-      <c r="G2439" s="37"/>
+      <c r="E2439" s="40"/>
+      <c r="G2439" s="40"/>
     </row>
     <row r="2440" ht="12.75" customHeight="1">
-      <c r="E2440" s="37"/>
-      <c r="G2440" s="37"/>
+      <c r="E2440" s="40"/>
+      <c r="G2440" s="40"/>
     </row>
     <row r="2441" ht="12.75" customHeight="1">
-      <c r="E2441" s="37"/>
-      <c r="G2441" s="37"/>
+      <c r="E2441" s="40"/>
+      <c r="G2441" s="40"/>
     </row>
     <row r="2442" ht="12.75" customHeight="1">
-      <c r="E2442" s="37"/>
-      <c r="G2442" s="37"/>
+      <c r="E2442" s="40"/>
+      <c r="G2442" s="40"/>
     </row>
     <row r="2443" ht="12.75" customHeight="1">
-      <c r="E2443" s="37"/>
-      <c r="G2443" s="37"/>
+      <c r="E2443" s="40"/>
+      <c r="G2443" s="40"/>
     </row>
     <row r="2444" ht="12.75" customHeight="1">
-      <c r="E2444" s="37"/>
-      <c r="G2444" s="37"/>
+      <c r="E2444" s="40"/>
+      <c r="G2444" s="40"/>
     </row>
     <row r="2445" ht="12.75" customHeight="1">
-      <c r="E2445" s="37"/>
-      <c r="G2445" s="37"/>
+      <c r="E2445" s="40"/>
+      <c r="G2445" s="40"/>
     </row>
     <row r="2446" ht="12.75" customHeight="1">
-      <c r="E2446" s="37"/>
-      <c r="G2446" s="37"/>
+      <c r="E2446" s="40"/>
+      <c r="G2446" s="40"/>
     </row>
     <row r="2447" ht="12.75" customHeight="1">
-      <c r="E2447" s="37"/>
-      <c r="G2447" s="37"/>
+      <c r="E2447" s="40"/>
+      <c r="G2447" s="40"/>
     </row>
     <row r="2448" ht="12.75" customHeight="1">
-      <c r="E2448" s="37"/>
-      <c r="G2448" s="37"/>
+      <c r="E2448" s="40"/>
+      <c r="G2448" s="40"/>
     </row>
     <row r="2449" ht="12.75" customHeight="1">
-      <c r="E2449" s="37"/>
-      <c r="G2449" s="37"/>
+      <c r="E2449" s="40"/>
+      <c r="G2449" s="40"/>
     </row>
     <row r="2450" ht="12.75" customHeight="1">
-      <c r="E2450" s="37"/>
-      <c r="G2450" s="37"/>
+      <c r="E2450" s="40"/>
+      <c r="G2450" s="40"/>
     </row>
     <row r="2451" ht="12.75" customHeight="1">
-      <c r="E2451" s="37"/>
-      <c r="G2451" s="37"/>
+      <c r="E2451" s="40"/>
+      <c r="G2451" s="40"/>
     </row>
     <row r="2452" ht="12.75" customHeight="1">
-      <c r="E2452" s="37"/>
-      <c r="G2452" s="37"/>
+      <c r="E2452" s="40"/>
+      <c r="G2452" s="40"/>
     </row>
     <row r="2453" ht="12.75" customHeight="1">
-      <c r="E2453" s="37"/>
-      <c r="G2453" s="37"/>
+      <c r="E2453" s="40"/>
+      <c r="G2453" s="40"/>
     </row>
     <row r="2454" ht="12.75" customHeight="1">
-      <c r="E2454" s="37"/>
-      <c r="G2454" s="37"/>
+      <c r="E2454" s="40"/>
+      <c r="G2454" s="40"/>
     </row>
     <row r="2455" ht="12.75" customHeight="1">
-      <c r="E2455" s="37"/>
-      <c r="G2455" s="37"/>
+      <c r="E2455" s="40"/>
+      <c r="G2455" s="40"/>
     </row>
     <row r="2456" ht="12.75" customHeight="1">
-      <c r="E2456" s="37"/>
-      <c r="G2456" s="37"/>
+      <c r="E2456" s="40"/>
+      <c r="G2456" s="40"/>
     </row>
     <row r="2457" ht="12.75" customHeight="1">
-      <c r="E2457" s="37"/>
-      <c r="G2457" s="37"/>
+      <c r="E2457" s="40"/>
+      <c r="G2457" s="40"/>
     </row>
     <row r="2458" ht="12.75" customHeight="1">
-      <c r="E2458" s="37"/>
-      <c r="G2458" s="37"/>
+      <c r="E2458" s="40"/>
+      <c r="G2458" s="40"/>
     </row>
     <row r="2459" ht="12.75" customHeight="1">
-      <c r="E2459" s="37"/>
-      <c r="G2459" s="37"/>
+      <c r="E2459" s="40"/>
+      <c r="G2459" s="40"/>
     </row>
     <row r="2460" ht="12.75" customHeight="1">
-      <c r="E2460" s="37"/>
-      <c r="G2460" s="37"/>
+      <c r="E2460" s="40"/>
+      <c r="G2460" s="40"/>
     </row>
     <row r="2461" ht="12.75" customHeight="1">
-      <c r="E2461" s="37"/>
-      <c r="G2461" s="37"/>
+      <c r="E2461" s="40"/>
+      <c r="G2461" s="40"/>
     </row>
     <row r="2462" ht="12.75" customHeight="1">
-      <c r="E2462" s="37"/>
-      <c r="G2462" s="37"/>
+      <c r="E2462" s="40"/>
+      <c r="G2462" s="40"/>
     </row>
     <row r="2463" ht="12.75" customHeight="1">
-      <c r="E2463" s="37"/>
-      <c r="G2463" s="37"/>
+      <c r="E2463" s="40"/>
+      <c r="G2463" s="40"/>
     </row>
     <row r="2464" ht="12.75" customHeight="1">
-      <c r="E2464" s="37"/>
-      <c r="G2464" s="37"/>
+      <c r="E2464" s="40"/>
+      <c r="G2464" s="40"/>
     </row>
     <row r="2465" ht="12.75" customHeight="1">
-      <c r="E2465" s="37"/>
-      <c r="G2465" s="37"/>
+      <c r="E2465" s="40"/>
+      <c r="G2465" s="40"/>
     </row>
     <row r="2466" ht="12.75" customHeight="1">
-      <c r="E2466" s="37"/>
-      <c r="G2466" s="37"/>
+      <c r="E2466" s="40"/>
+      <c r="G2466" s="40"/>
     </row>
     <row r="2467" ht="12.75" customHeight="1">
-      <c r="E2467" s="37"/>
-      <c r="G2467" s="37"/>
+      <c r="E2467" s="40"/>
+      <c r="G2467" s="40"/>
     </row>
     <row r="2468" ht="12.75" customHeight="1">
-      <c r="E2468" s="37"/>
-      <c r="G2468" s="37"/>
+      <c r="E2468" s="40"/>
+      <c r="G2468" s="40"/>
     </row>
     <row r="2469" ht="12.75" customHeight="1">
-      <c r="E2469" s="37"/>
-      <c r="G2469" s="37"/>
+      <c r="E2469" s="40"/>
+      <c r="G2469" s="40"/>
     </row>
     <row r="2470" ht="12.75" customHeight="1">
-      <c r="E2470" s="37"/>
-      <c r="G2470" s="37"/>
+      <c r="E2470" s="40"/>
+      <c r="G2470" s="40"/>
     </row>
     <row r="2471" ht="12.75" customHeight="1">
-      <c r="E2471" s="37"/>
-      <c r="G2471" s="37"/>
+      <c r="E2471" s="40"/>
+      <c r="G2471" s="40"/>
     </row>
     <row r="2472" ht="12.75" customHeight="1">
-      <c r="E2472" s="37"/>
-      <c r="G2472" s="37"/>
+      <c r="E2472" s="40"/>
+      <c r="G2472" s="40"/>
     </row>
     <row r="2473" ht="12.75" customHeight="1">
-      <c r="E2473" s="37"/>
-      <c r="G2473" s="37"/>
+      <c r="E2473" s="40"/>
+      <c r="G2473" s="40"/>
     </row>
     <row r="2474" ht="12.75" customHeight="1">
-      <c r="E2474" s="37"/>
-      <c r="G2474" s="37"/>
+      <c r="E2474" s="40"/>
+      <c r="G2474" s="40"/>
     </row>
     <row r="2475" ht="12.75" customHeight="1">
-      <c r="E2475" s="37"/>
-      <c r="G2475" s="37"/>
+      <c r="E2475" s="40"/>
+      <c r="G2475" s="40"/>
     </row>
     <row r="2476" ht="12.75" customHeight="1">
-      <c r="E2476" s="37"/>
-      <c r="G2476" s="37"/>
+      <c r="E2476" s="40"/>
+      <c r="G2476" s="40"/>
     </row>
     <row r="2477" ht="12.75" customHeight="1">
-      <c r="E2477" s="37"/>
-      <c r="G2477" s="37"/>
+      <c r="E2477" s="40"/>
+      <c r="G2477" s="40"/>
     </row>
     <row r="2478" ht="12.75" customHeight="1">
-      <c r="E2478" s="37"/>
-      <c r="G2478" s="37"/>
+      <c r="E2478" s="40"/>
+      <c r="G2478" s="40"/>
     </row>
     <row r="2479" ht="12.75" customHeight="1">
-      <c r="E2479" s="37"/>
-      <c r="G2479" s="37"/>
+      <c r="E2479" s="40"/>
+      <c r="G2479" s="40"/>
     </row>
     <row r="2480" ht="12.75" customHeight="1">
-      <c r="E2480" s="37"/>
-      <c r="G2480" s="37"/>
+      <c r="E2480" s="40"/>
+      <c r="G2480" s="40"/>
     </row>
     <row r="2481" ht="12.75" customHeight="1">
-      <c r="E2481" s="37"/>
-      <c r="G2481" s="37"/>
+      <c r="E2481" s="40"/>
+      <c r="G2481" s="40"/>
     </row>
     <row r="2482" ht="12.75" customHeight="1">
-      <c r="E2482" s="37"/>
-      <c r="G2482" s="37"/>
+      <c r="E2482" s="40"/>
+      <c r="G2482" s="40"/>
     </row>
     <row r="2483" ht="12.75" customHeight="1">
-      <c r="E2483" s="37"/>
-      <c r="G2483" s="37"/>
+      <c r="E2483" s="40"/>
+      <c r="G2483" s="40"/>
     </row>
     <row r="2484" ht="12.75" customHeight="1">
-      <c r="E2484" s="37"/>
-      <c r="G2484" s="37"/>
+      <c r="E2484" s="40"/>
+      <c r="G2484" s="40"/>
     </row>
     <row r="2485" ht="12.75" customHeight="1">
-      <c r="E2485" s="37"/>
-      <c r="G2485" s="37"/>
+      <c r="E2485" s="40"/>
+      <c r="G2485" s="40"/>
     </row>
     <row r="2486" ht="12.75" customHeight="1">
-      <c r="E2486" s="37"/>
-      <c r="G2486" s="37"/>
+      <c r="E2486" s="40"/>
+      <c r="G2486" s="40"/>
     </row>
     <row r="2487" ht="12.75" customHeight="1">
-      <c r="E2487" s="37"/>
-      <c r="G2487" s="37"/>
+      <c r="E2487" s="40"/>
+      <c r="G2487" s="40"/>
     </row>
     <row r="2488" ht="12.75" customHeight="1">
-      <c r="E2488" s="37"/>
-      <c r="G2488" s="37"/>
+      <c r="E2488" s="40"/>
+      <c r="G2488" s="40"/>
     </row>
     <row r="2489" ht="12.75" customHeight="1">
-      <c r="E2489" s="37"/>
-      <c r="G2489" s="37"/>
+      <c r="E2489" s="40"/>
+      <c r="G2489" s="40"/>
     </row>
     <row r="2490" ht="12.75" customHeight="1">
-      <c r="E2490" s="37"/>
-      <c r="G2490" s="37"/>
+      <c r="E2490" s="40"/>
+      <c r="G2490" s="40"/>
     </row>
     <row r="2491" ht="12.75" customHeight="1">
-      <c r="E2491" s="37"/>
-      <c r="G2491" s="37"/>
+      <c r="E2491" s="40"/>
+      <c r="G2491" s="40"/>
     </row>
     <row r="2492" ht="12.75" customHeight="1">
-      <c r="E2492" s="37"/>
-      <c r="G2492" s="37"/>
+      <c r="E2492" s="40"/>
+      <c r="G2492" s="40"/>
     </row>
     <row r="2493" ht="12.75" customHeight="1">
-      <c r="E2493" s="37"/>
-      <c r="G2493" s="37"/>
+      <c r="E2493" s="40"/>
+      <c r="G2493" s="40"/>
     </row>
     <row r="2494" ht="12.75" customHeight="1">
-      <c r="E2494" s="37"/>
-      <c r="G2494" s="37"/>
+      <c r="E2494" s="40"/>
+      <c r="G2494" s="40"/>
     </row>
     <row r="2495" ht="12.75" customHeight="1">
-      <c r="E2495" s="37"/>
-      <c r="G2495" s="37"/>
+      <c r="E2495" s="40"/>
+      <c r="G2495" s="40"/>
     </row>
     <row r="2496" ht="12.75" customHeight="1">
-      <c r="E2496" s="37"/>
-      <c r="G2496" s="37"/>
+      <c r="E2496" s="40"/>
+      <c r="G2496" s="40"/>
     </row>
     <row r="2497" ht="12.75" customHeight="1">
-      <c r="E2497" s="37"/>
-      <c r="G2497" s="37"/>
+      <c r="E2497" s="40"/>
+      <c r="G2497" s="40"/>
     </row>
     <row r="2498" ht="12.75" customHeight="1">
-      <c r="E2498" s="37"/>
-      <c r="G2498" s="37"/>
+      <c r="E2498" s="40"/>
+      <c r="G2498" s="40"/>
     </row>
     <row r="2499" ht="12.75" customHeight="1">
-      <c r="E2499" s="37"/>
-      <c r="G2499" s="37"/>
+      <c r="E2499" s="40"/>
+      <c r="G2499" s="40"/>
     </row>
     <row r="2500" ht="12.75" customHeight="1">
-      <c r="E2500" s="37"/>
-      <c r="G2500" s="37"/>
+      <c r="E2500" s="40"/>
+      <c r="G2500" s="40"/>
     </row>
     <row r="2501" ht="12.75" customHeight="1">
-      <c r="E2501" s="37"/>
-      <c r="G2501" s="37"/>
+      <c r="E2501" s="40"/>
+      <c r="G2501" s="40"/>
     </row>
     <row r="2502" ht="12.75" customHeight="1">
-      <c r="E2502" s="37"/>
-      <c r="G2502" s="37"/>
+      <c r="E2502" s="40"/>
+      <c r="G2502" s="40"/>
     </row>
     <row r="2503" ht="12.75" customHeight="1">
-      <c r="E2503" s="37"/>
-      <c r="G2503" s="37"/>
+      <c r="E2503" s="40"/>
+      <c r="G2503" s="40"/>
     </row>
     <row r="2504" ht="12.75" customHeight="1">
-      <c r="E2504" s="37"/>
-      <c r="G2504" s="37"/>
+      <c r="E2504" s="40"/>
+      <c r="G2504" s="40"/>
     </row>
     <row r="2505" ht="12.75" customHeight="1">
-      <c r="E2505" s="37"/>
-      <c r="G2505" s="37"/>
+      <c r="E2505" s="40"/>
+      <c r="G2505" s="40"/>
     </row>
     <row r="2506" ht="12.75" customHeight="1">
-      <c r="E2506" s="37"/>
-      <c r="G2506" s="37"/>
+      <c r="E2506" s="40"/>
+      <c r="G2506" s="40"/>
     </row>
     <row r="2507" ht="12.75" customHeight="1">
-      <c r="E2507" s="37"/>
-      <c r="G2507" s="37"/>
+      <c r="E2507" s="40"/>
+      <c r="G2507" s="40"/>
     </row>
     <row r="2508" ht="12.75" customHeight="1">
-      <c r="E2508" s="37"/>
-      <c r="G2508" s="37"/>
+      <c r="E2508" s="40"/>
+      <c r="G2508" s="40"/>
     </row>
     <row r="2509" ht="12.75" customHeight="1">
-      <c r="E2509" s="37"/>
-      <c r="G2509" s="37"/>
+      <c r="E2509" s="40"/>
+      <c r="G2509" s="40"/>
     </row>
     <row r="2510" ht="12.75" customHeight="1">
-      <c r="E2510" s="37"/>
-      <c r="G2510" s="37"/>
+      <c r="E2510" s="40"/>
+      <c r="G2510" s="40"/>
     </row>
     <row r="2511" ht="12.75" customHeight="1">
-      <c r="E2511" s="37"/>
-      <c r="G2511" s="37"/>
+      <c r="E2511" s="40"/>
+      <c r="G2511" s="40"/>
     </row>
     <row r="2512" ht="12.75" customHeight="1">
-      <c r="E2512" s="37"/>
-      <c r="G2512" s="37"/>
+      <c r="E2512" s="40"/>
+      <c r="G2512" s="40"/>
     </row>
     <row r="2513" ht="12.75" customHeight="1">
-      <c r="E2513" s="37"/>
-      <c r="G2513" s="37"/>
+      <c r="E2513" s="40"/>
+      <c r="G2513" s="40"/>
     </row>
     <row r="2514" ht="12.75" customHeight="1">
-      <c r="E2514" s="37"/>
-      <c r="G2514" s="37"/>
+      <c r="E2514" s="40"/>
+      <c r="G2514" s="40"/>
     </row>
     <row r="2515" ht="12.75" customHeight="1">
-      <c r="E2515" s="37"/>
-      <c r="G2515" s="37"/>
+      <c r="E2515" s="40"/>
+      <c r="G2515" s="40"/>
     </row>
     <row r="2516" ht="12.75" customHeight="1">
-      <c r="E2516" s="37"/>
-      <c r="G2516" s="37"/>
+      <c r="E2516" s="40"/>
+      <c r="G2516" s="40"/>
     </row>
     <row r="2517" ht="12.75" customHeight="1">
-      <c r="E2517" s="37"/>
-      <c r="G2517" s="37"/>
+      <c r="E2517" s="40"/>
+      <c r="G2517" s="40"/>
     </row>
     <row r="2518" ht="12.75" customHeight="1">
-      <c r="E2518" s="37"/>
-      <c r="G2518" s="37"/>
+      <c r="E2518" s="40"/>
+      <c r="G2518" s="40"/>
     </row>
     <row r="2519" ht="12.75" customHeight="1">
-      <c r="E2519" s="37"/>
-      <c r="G2519" s="37"/>
+      <c r="E2519" s="40"/>
+      <c r="G2519" s="40"/>
     </row>
     <row r="2520" ht="12.75" customHeight="1">
-      <c r="E2520" s="37"/>
-      <c r="G2520" s="37"/>
+      <c r="E2520" s="40"/>
+      <c r="G2520" s="40"/>
     </row>
     <row r="2521" ht="12.75" customHeight="1">
-      <c r="E2521" s="37"/>
-      <c r="G2521" s="37"/>
+      <c r="E2521" s="40"/>
+      <c r="G2521" s="40"/>
     </row>
     <row r="2522" ht="12.75" customHeight="1">
-      <c r="E2522" s="37"/>
-      <c r="G2522" s="37"/>
+      <c r="E2522" s="40"/>
+      <c r="G2522" s="40"/>
     </row>
     <row r="2523" ht="12.75" customHeight="1">
-      <c r="E2523" s="37"/>
-      <c r="G2523" s="37"/>
+      <c r="E2523" s="40"/>
+      <c r="G2523" s="40"/>
     </row>
     <row r="2524" ht="12.75" customHeight="1">
-      <c r="E2524" s="37"/>
-      <c r="G2524" s="37"/>
+      <c r="E2524" s="40"/>
+      <c r="G2524" s="40"/>
     </row>
     <row r="2525" ht="12.75" customHeight="1">
-      <c r="E2525" s="37"/>
-      <c r="G2525" s="37"/>
+      <c r="E2525" s="40"/>
+      <c r="G2525" s="40"/>
     </row>
     <row r="2526" ht="12.75" customHeight="1">
-      <c r="E2526" s="37"/>
-      <c r="G2526" s="37"/>
+      <c r="E2526" s="40"/>
+      <c r="G2526" s="40"/>
     </row>
     <row r="2527" ht="12.75" customHeight="1">
-      <c r="E2527" s="37"/>
-      <c r="G2527" s="37"/>
+      <c r="E2527" s="40"/>
+      <c r="G2527" s="40"/>
     </row>
     <row r="2528" ht="12.75" customHeight="1">
-      <c r="E2528" s="37"/>
-      <c r="G2528" s="37"/>
+      <c r="E2528" s="40"/>
+      <c r="G2528" s="40"/>
     </row>
     <row r="2529" ht="12.75" customHeight="1">
-      <c r="E2529" s="37"/>
-      <c r="G2529" s="37"/>
+      <c r="E2529" s="40"/>
+      <c r="G2529" s="40"/>
     </row>
     <row r="2530" ht="12.75" customHeight="1">
-      <c r="E2530" s="37"/>
-      <c r="G2530" s="37"/>
+      <c r="E2530" s="40"/>
+      <c r="G2530" s="40"/>
     </row>
     <row r="2531" ht="12.75" customHeight="1">
-      <c r="E2531" s="37"/>
-      <c r="G2531" s="37"/>
+      <c r="E2531" s="40"/>
+      <c r="G2531" s="40"/>
     </row>
     <row r="2532" ht="12.75" customHeight="1">
-      <c r="E2532" s="37"/>
-      <c r="G2532" s="37"/>
+      <c r="E2532" s="40"/>
+      <c r="G2532" s="40"/>
     </row>
     <row r="2533" ht="12.75" customHeight="1">
-      <c r="E2533" s="37"/>
-      <c r="G2533" s="37"/>
+      <c r="E2533" s="40"/>
+      <c r="G2533" s="40"/>
     </row>
     <row r="2534" ht="12.75" customHeight="1">
-      <c r="E2534" s="37"/>
-      <c r="G2534" s="37"/>
+      <c r="E2534" s="40"/>
+      <c r="G2534" s="40"/>
     </row>
     <row r="2535" ht="12.75" customHeight="1">
-      <c r="E2535" s="37"/>
-      <c r="G2535" s="37"/>
+      <c r="E2535" s="40"/>
+      <c r="G2535" s="40"/>
     </row>
     <row r="2536" ht="12.75" customHeight="1">
-      <c r="E2536" s="37"/>
-      <c r="G2536" s="37"/>
+      <c r="E2536" s="40"/>
+      <c r="G2536" s="40"/>
     </row>
     <row r="2537" ht="12.75" customHeight="1">
-      <c r="E2537" s="37"/>
-      <c r="G2537" s="37"/>
+      <c r="E2537" s="40"/>
+      <c r="G2537" s="40"/>
     </row>
     <row r="2538" ht="12.75" customHeight="1">
-      <c r="E2538" s="37"/>
-      <c r="G2538" s="37"/>
+      <c r="E2538" s="40"/>
+      <c r="G2538" s="40"/>
     </row>
     <row r="2539" ht="12.75" customHeight="1">
-      <c r="E2539" s="37"/>
-      <c r="G2539" s="37"/>
+      <c r="E2539" s="40"/>
+      <c r="G2539" s="40"/>
     </row>
     <row r="2540" ht="12.75" customHeight="1">
-      <c r="E2540" s="37"/>
-      <c r="G2540" s="37"/>
+      <c r="E2540" s="40"/>
+      <c r="G2540" s="40"/>
     </row>
     <row r="2541" ht="12.75" customHeight="1">
-      <c r="E2541" s="37"/>
-      <c r="G2541" s="37"/>
+      <c r="E2541" s="40"/>
+      <c r="G2541" s="40"/>
     </row>
     <row r="2542" ht="12.75" customHeight="1">
-      <c r="E2542" s="37"/>
-      <c r="G2542" s="37"/>
+      <c r="E2542" s="40"/>
+      <c r="G2542" s="40"/>
     </row>
     <row r="2543" ht="12.75" customHeight="1">
-      <c r="E2543" s="37"/>
-      <c r="G2543" s="37"/>
+      <c r="E2543" s="40"/>
+      <c r="G2543" s="40"/>
     </row>
     <row r="2544" ht="12.75" customHeight="1">
-      <c r="E2544" s="37"/>
-      <c r="G2544" s="37"/>
+      <c r="E2544" s="40"/>
+      <c r="G2544" s="40"/>
     </row>
     <row r="2545" ht="12.75" customHeight="1">
-      <c r="E2545" s="37"/>
-      <c r="G2545" s="37"/>
+      <c r="E2545" s="40"/>
+      <c r="G2545" s="40"/>
     </row>
     <row r="2546" ht="12.75" customHeight="1">
-      <c r="E2546" s="37"/>
-      <c r="G2546" s="37"/>
+      <c r="E2546" s="40"/>
+      <c r="G2546" s="40"/>
     </row>
     <row r="2547" ht="12.75" customHeight="1">
-      <c r="E2547" s="37"/>
-      <c r="G2547" s="37"/>
+      <c r="E2547" s="40"/>
+      <c r="G2547" s="40"/>
     </row>
     <row r="2548" ht="12.75" customHeight="1">
-      <c r="E2548" s="37"/>
-      <c r="G2548" s="37"/>
+      <c r="E2548" s="40"/>
+      <c r="G2548" s="40"/>
     </row>
     <row r="2549" ht="12.75" customHeight="1">
-      <c r="E2549" s="37"/>
-      <c r="G2549" s="37"/>
+      <c r="E2549" s="40"/>
+      <c r="G2549" s="40"/>
     </row>
     <row r="2550" ht="12.75" customHeight="1">
-      <c r="E2550" s="37"/>
-      <c r="G2550" s="37"/>
+      <c r="E2550" s="40"/>
+      <c r="G2550" s="40"/>
     </row>
     <row r="2551" ht="12.75" customHeight="1">
-      <c r="E2551" s="37"/>
-      <c r="G2551" s="37"/>
+      <c r="E2551" s="40"/>
+      <c r="G2551" s="40"/>
     </row>
     <row r="2552" ht="12.75" customHeight="1">
-      <c r="E2552" s="37"/>
-      <c r="G2552" s="37"/>
+      <c r="E2552" s="40"/>
+      <c r="G2552" s="40"/>
     </row>
     <row r="2553" ht="12.75" customHeight="1">
-      <c r="E2553" s="37"/>
-      <c r="G2553" s="37"/>
+      <c r="E2553" s="40"/>
+      <c r="G2553" s="40"/>
     </row>
     <row r="2554" ht="12.75" customHeight="1">
-      <c r="E2554" s="37"/>
-      <c r="G2554" s="37"/>
+      <c r="E2554" s="40"/>
+      <c r="G2554" s="40"/>
     </row>
     <row r="2555" ht="12.75" customHeight="1">
-      <c r="E2555" s="37"/>
-      <c r="G2555" s="37"/>
+      <c r="E2555" s="40"/>
+      <c r="G2555" s="40"/>
     </row>
     <row r="2556" ht="12.75" customHeight="1">
-      <c r="E2556" s="37"/>
-      <c r="G2556" s="37"/>
+      <c r="E2556" s="40"/>
+      <c r="G2556" s="40"/>
     </row>
     <row r="2557" ht="12.75" customHeight="1">
-      <c r="E2557" s="37"/>
-      <c r="G2557" s="37"/>
+      <c r="E2557" s="40"/>
+      <c r="G2557" s="40"/>
     </row>
     <row r="2558" ht="12.75" customHeight="1">
-      <c r="E2558" s="37"/>
-      <c r="G2558" s="37"/>
+      <c r="E2558" s="40"/>
+      <c r="G2558" s="40"/>
     </row>
     <row r="2559" ht="12.75" customHeight="1">
-      <c r="E2559" s="37"/>
-      <c r="G2559" s="37"/>
+      <c r="E2559" s="40"/>
+      <c r="G2559" s="40"/>
     </row>
     <row r="2560" ht="12.75" customHeight="1">
-      <c r="E2560" s="37"/>
-      <c r="G2560" s="37"/>
+      <c r="E2560" s="40"/>
+      <c r="G2560" s="40"/>
     </row>
     <row r="2561" ht="12.75" customHeight="1">
-      <c r="E2561" s="37"/>
-      <c r="G2561" s="37"/>
+      <c r="E2561" s="40"/>
+      <c r="G2561" s="40"/>
     </row>
     <row r="2562" ht="12.75" customHeight="1">
-      <c r="E2562" s="37"/>
-      <c r="G2562" s="37"/>
+      <c r="E2562" s="40"/>
+      <c r="G2562" s="40"/>
     </row>
     <row r="2563" ht="12.75" customHeight="1">
-      <c r="E2563" s="37"/>
-      <c r="G2563" s="37"/>
+      <c r="E2563" s="40"/>
+      <c r="G2563" s="40"/>
     </row>
     <row r="2564" ht="12.75" customHeight="1">
-      <c r="E2564" s="37"/>
-      <c r="G2564" s="37"/>
+      <c r="E2564" s="40"/>
+      <c r="G2564" s="40"/>
     </row>
     <row r="2565" ht="12.75" customHeight="1">
-      <c r="E2565" s="37"/>
-      <c r="G2565" s="37"/>
+      <c r="E2565" s="40"/>
+      <c r="G2565" s="40"/>
     </row>
     <row r="2566" ht="12.75" customHeight="1">
-      <c r="E2566" s="37"/>
-      <c r="G2566" s="37"/>
+      <c r="E2566" s="40"/>
+      <c r="G2566" s="40"/>
     </row>
     <row r="2567" ht="12.75" customHeight="1">
-      <c r="E2567" s="37"/>
-      <c r="G2567" s="37"/>
+      <c r="E2567" s="40"/>
+      <c r="G2567" s="40"/>
     </row>
     <row r="2568" ht="12.75" customHeight="1">
-      <c r="E2568" s="37"/>
-      <c r="G2568" s="37"/>
+      <c r="E2568" s="40"/>
+      <c r="G2568" s="40"/>
     </row>
     <row r="2569" ht="12.75" customHeight="1">
-      <c r="E2569" s="37"/>
-      <c r="G2569" s="37"/>
+      <c r="E2569" s="40"/>
+      <c r="G2569" s="40"/>
     </row>
     <row r="2570" ht="12.75" customHeight="1">
-      <c r="E2570" s="37"/>
-      <c r="G2570" s="37"/>
+      <c r="E2570" s="40"/>
+      <c r="G2570" s="40"/>
     </row>
     <row r="2571" ht="12.75" customHeight="1">
-      <c r="E2571" s="37"/>
-      <c r="G2571" s="37"/>
+      <c r="E2571" s="40"/>
+      <c r="G2571" s="40"/>
     </row>
     <row r="2572" ht="12.75" customHeight="1">
-      <c r="E2572" s="37"/>
-      <c r="G2572" s="37"/>
+      <c r="E2572" s="40"/>
+      <c r="G2572" s="40"/>
     </row>
     <row r="2573" ht="12.75" customHeight="1">
-      <c r="E2573" s="37"/>
-      <c r="G2573" s="37"/>
+      <c r="E2573" s="40"/>
+      <c r="G2573" s="40"/>
     </row>
     <row r="2574" ht="12.75" customHeight="1">
-      <c r="E2574" s="37"/>
-      <c r="G2574" s="37"/>
+      <c r="E2574" s="40"/>
+      <c r="G2574" s="40"/>
     </row>
     <row r="2575" ht="12.75" customHeight="1">
-      <c r="E2575" s="37"/>
-      <c r="G2575" s="37"/>
+      <c r="E2575" s="40"/>
+      <c r="G2575" s="40"/>
     </row>
     <row r="2576" ht="12.75" customHeight="1">
-      <c r="E2576" s="37"/>
-      <c r="G2576" s="37"/>
+      <c r="E2576" s="40"/>
+      <c r="G2576" s="40"/>
     </row>
     <row r="2577" ht="12.75" customHeight="1">
-      <c r="E2577" s="37"/>
-      <c r="G2577" s="37"/>
+      <c r="E2577" s="40"/>
+      <c r="G2577" s="40"/>
     </row>
     <row r="2578" ht="12.75" customHeight="1">
-      <c r="E2578" s="37"/>
-      <c r="G2578" s="37"/>
+      <c r="E2578" s="40"/>
+      <c r="G2578" s="40"/>
     </row>
     <row r="2579" ht="12.75" customHeight="1">
-      <c r="E2579" s="37"/>
-      <c r="G2579" s="37"/>
+      <c r="E2579" s="40"/>
+      <c r="G2579" s="40"/>
     </row>
     <row r="2580" ht="12.75" customHeight="1">
-      <c r="E2580" s="37"/>
-      <c r="G2580" s="37"/>
+      <c r="E2580" s="40"/>
+      <c r="G2580" s="40"/>
     </row>
     <row r="2581" ht="12.75" customHeight="1">
-      <c r="E2581" s="37"/>
-      <c r="G2581" s="37"/>
+      <c r="E2581" s="40"/>
+      <c r="G2581" s="40"/>
     </row>
     <row r="2582" ht="12.75" customHeight="1">
-      <c r="E2582" s="37"/>
-      <c r="G2582" s="37"/>
+      <c r="E2582" s="40"/>
+      <c r="G2582" s="40"/>
     </row>
     <row r="2583" ht="12.75" customHeight="1">
-      <c r="E2583" s="37"/>
-      <c r="G2583" s="37"/>
+      <c r="E2583" s="40"/>
+      <c r="G2583" s="40"/>
     </row>
     <row r="2584" ht="12.75" customHeight="1">
-      <c r="E2584" s="37"/>
-      <c r="G2584" s="37"/>
+      <c r="E2584" s="40"/>
+      <c r="G2584" s="40"/>
     </row>
     <row r="2585" ht="12.75" customHeight="1">
-      <c r="E2585" s="37"/>
-      <c r="G2585" s="37"/>
+      <c r="E2585" s="40"/>
+      <c r="G2585" s="40"/>
     </row>
     <row r="2586" ht="12.75" customHeight="1">
-      <c r="E2586" s="37"/>
-      <c r="G2586" s="37"/>
+      <c r="E2586" s="40"/>
+      <c r="G2586" s="40"/>
     </row>
     <row r="2587" ht="12.75" customHeight="1">
-      <c r="E2587" s="37"/>
-      <c r="G2587" s="37"/>
+      <c r="E2587" s="40"/>
+      <c r="G2587" s="40"/>
     </row>
     <row r="2588" ht="12.75" customHeight="1">
-      <c r="E2588" s="37"/>
-      <c r="G2588" s="37"/>
+      <c r="E2588" s="40"/>
+      <c r="G2588" s="40"/>
     </row>
     <row r="2589" ht="12.75" customHeight="1">
-      <c r="E2589" s="37"/>
-      <c r="G2589" s="37"/>
+      <c r="E2589" s="40"/>
+      <c r="G2589" s="40"/>
     </row>
     <row r="2590" ht="12.75" customHeight="1">
-      <c r="E2590" s="37"/>
-      <c r="G2590" s="37"/>
+      <c r="E2590" s="40"/>
+      <c r="G2590" s="40"/>
     </row>
     <row r="2591" ht="12.75" customHeight="1">
-      <c r="E2591" s="37"/>
-      <c r="G2591" s="37"/>
+      <c r="E2591" s="40"/>
+      <c r="G2591" s="40"/>
     </row>
     <row r="2592" ht="12.75" customHeight="1">
-      <c r="E2592" s="37"/>
-      <c r="G2592" s="37"/>
+      <c r="E2592" s="40"/>
+      <c r="G2592" s="40"/>
     </row>
     <row r="2593" ht="12.75" customHeight="1">
-      <c r="E2593" s="37"/>
-      <c r="G2593" s="37"/>
+      <c r="E2593" s="40"/>
+      <c r="G2593" s="40"/>
     </row>
     <row r="2594" ht="12.75" customHeight="1">
-      <c r="E2594" s="37"/>
-      <c r="G2594" s="37"/>
+      <c r="E2594" s="40"/>
+      <c r="G2594" s="40"/>
     </row>
     <row r="2595" ht="12.75" customHeight="1">
-      <c r="E2595" s="37"/>
-      <c r="G2595" s="37"/>
+      <c r="E2595" s="40"/>
+      <c r="G2595" s="40"/>
     </row>
     <row r="2596" ht="12.75" customHeight="1">
-      <c r="E2596" s="37"/>
-      <c r="G2596" s="37"/>
+      <c r="E2596" s="40"/>
+      <c r="G2596" s="40"/>
     </row>
     <row r="2597" ht="12.75" customHeight="1">
-      <c r="E2597" s="37"/>
-      <c r="G2597" s="37"/>
+      <c r="E2597" s="40"/>
+      <c r="G2597" s="40"/>
     </row>
     <row r="2598" ht="12.75" customHeight="1">
-      <c r="E2598" s="37"/>
-      <c r="G2598" s="37"/>
+      <c r="E2598" s="40"/>
+      <c r="G2598" s="40"/>
     </row>
     <row r="2599" ht="12.75" customHeight="1">
-      <c r="E2599" s="37"/>
-      <c r="G2599" s="37"/>
+      <c r="E2599" s="40"/>
+      <c r="G2599" s="40"/>
     </row>
     <row r="2600" ht="12.75" customHeight="1">
-      <c r="E2600" s="37"/>
-      <c r="G2600" s="37"/>
+      <c r="E2600" s="40"/>
+      <c r="G2600" s="40"/>
     </row>
     <row r="2601" ht="12.75" customHeight="1">
-      <c r="E2601" s="37"/>
-      <c r="G2601" s="37"/>
+      <c r="E2601" s="40"/>
+      <c r="G2601" s="40"/>
     </row>
     <row r="2602" ht="12.75" customHeight="1">
-      <c r="E2602" s="37"/>
-      <c r="G2602" s="37"/>
+      <c r="E2602" s="40"/>
+      <c r="G2602" s="40"/>
     </row>
     <row r="2603" ht="12.75" customHeight="1">
-      <c r="E2603" s="37"/>
-      <c r="G2603" s="37"/>
+      <c r="E2603" s="40"/>
+      <c r="G2603" s="40"/>
     </row>
     <row r="2604" ht="12.75" customHeight="1">
-      <c r="E2604" s="37"/>
-      <c r="G2604" s="37"/>
+      <c r="E2604" s="40"/>
+      <c r="G2604" s="40"/>
     </row>
     <row r="2605" ht="12.75" customHeight="1">
-      <c r="E2605" s="37"/>
-      <c r="G2605" s="37"/>
+      <c r="E2605" s="40"/>
+      <c r="G2605" s="40"/>
     </row>
     <row r="2606" ht="12.75" customHeight="1">
-      <c r="E2606" s="37"/>
-      <c r="G2606" s="37"/>
+      <c r="E2606" s="40"/>
+      <c r="G2606" s="40"/>
     </row>
     <row r="2607" ht="12.75" customHeight="1">
-      <c r="E2607" s="37"/>
-      <c r="G2607" s="37"/>
+      <c r="E2607" s="40"/>
+      <c r="G2607" s="40"/>
     </row>
     <row r="2608" ht="12.75" customHeight="1">
-      <c r="E2608" s="37"/>
-      <c r="G2608" s="37"/>
+      <c r="E2608" s="40"/>
+      <c r="G2608" s="40"/>
     </row>
     <row r="2609" ht="12.75" customHeight="1">
-      <c r="E2609" s="37"/>
-      <c r="G2609" s="37"/>
+      <c r="E2609" s="40"/>
+      <c r="G2609" s="40"/>
     </row>
     <row r="2610" ht="12.75" customHeight="1">
-      <c r="E2610" s="37"/>
-      <c r="G2610" s="37"/>
+      <c r="E2610" s="40"/>
+      <c r="G2610" s="40"/>
     </row>
     <row r="2611" ht="12.75" customHeight="1">
-      <c r="E2611" s="37"/>
-      <c r="G2611" s="37"/>
+      <c r="E2611" s="40"/>
+      <c r="G2611" s="40"/>
     </row>
     <row r="2612" ht="12.75" customHeight="1">
-      <c r="E2612" s="37"/>
-      <c r="G2612" s="37"/>
+      <c r="E2612" s="40"/>
+      <c r="G2612" s="40"/>
     </row>
     <row r="2613" ht="12.75" customHeight="1">
-      <c r="E2613" s="37"/>
-      <c r="G2613" s="37"/>
+      <c r="E2613" s="40"/>
+      <c r="G2613" s="40"/>
     </row>
     <row r="2614" ht="12.75" customHeight="1">
-      <c r="E2614" s="37"/>
-      <c r="G2614" s="37"/>
+      <c r="E2614" s="40"/>
+      <c r="G2614" s="40"/>
     </row>
     <row r="2615" ht="12.75" customHeight="1">
-      <c r="E2615" s="37"/>
-      <c r="G2615" s="37"/>
+      <c r="E2615" s="40"/>
+      <c r="G2615" s="40"/>
     </row>
     <row r="2616" ht="12.75" customHeight="1">
-      <c r="E2616" s="37"/>
-      <c r="G2616" s="37"/>
+      <c r="E2616" s="40"/>
+      <c r="G2616" s="40"/>
     </row>
     <row r="2617" ht="12.75" customHeight="1">
-      <c r="E2617" s="37"/>
-      <c r="G2617" s="37"/>
+      <c r="E2617" s="40"/>
+      <c r="G2617" s="40"/>
     </row>
     <row r="2618" ht="12.75" customHeight="1">
-      <c r="E2618" s="37"/>
-      <c r="G2618" s="37"/>
+      <c r="E2618" s="40"/>
+      <c r="G2618" s="40"/>
     </row>
     <row r="2619" ht="12.75" customHeight="1">
-      <c r="E2619" s="37"/>
-      <c r="G2619" s="37"/>
+      <c r="E2619" s="40"/>
+      <c r="G2619" s="40"/>
     </row>
     <row r="2620" ht="12.75" customHeight="1">
-      <c r="E2620" s="37"/>
-      <c r="G2620" s="37"/>
+      <c r="E2620" s="40"/>
+      <c r="G2620" s="40"/>
     </row>
     <row r="2621" ht="12.75" customHeight="1">
-      <c r="E2621" s="37"/>
-      <c r="G2621" s="37"/>
+      <c r="E2621" s="40"/>
+      <c r="G2621" s="40"/>
     </row>
     <row r="2622" ht="12.75" customHeight="1">
-      <c r="E2622" s="37"/>
-      <c r="G2622" s="37"/>
+      <c r="E2622" s="40"/>
+      <c r="G2622" s="40"/>
     </row>
     <row r="2623" ht="12.75" customHeight="1">
-      <c r="E2623" s="37"/>
-      <c r="G2623" s="37"/>
+      <c r="E2623" s="40"/>
+      <c r="G2623" s="40"/>
     </row>
     <row r="2624" ht="12.75" customHeight="1">
-      <c r="E2624" s="37"/>
-      <c r="G2624" s="37"/>
+      <c r="E2624" s="40"/>
+      <c r="G2624" s="40"/>
     </row>
     <row r="2625" ht="12.75" customHeight="1">
-      <c r="E2625" s="37"/>
-      <c r="G2625" s="37"/>
+      <c r="E2625" s="40"/>
+      <c r="G2625" s="40"/>
     </row>
     <row r="2626" ht="12.75" customHeight="1">
-      <c r="E2626" s="37"/>
-      <c r="G2626" s="37"/>
+      <c r="E2626" s="40"/>
+      <c r="G2626" s="40"/>
     </row>
     <row r="2627" ht="12.75" customHeight="1">
-      <c r="E2627" s="37"/>
-      <c r="G2627" s="37"/>
+      <c r="E2627" s="40"/>
+      <c r="G2627" s="40"/>
     </row>
     <row r="2628" ht="12.75" customHeight="1">
-      <c r="E2628" s="37"/>
-      <c r="G2628" s="37"/>
+      <c r="E2628" s="40"/>
+      <c r="G2628" s="40"/>
     </row>
     <row r="2629" ht="12.75" customHeight="1">
-      <c r="E2629" s="37"/>
-      <c r="G2629" s="37"/>
+      <c r="E2629" s="40"/>
+      <c r="G2629" s="40"/>
     </row>
     <row r="2630" ht="12.75" customHeight="1">
-      <c r="E2630" s="37"/>
-      <c r="G2630" s="37"/>
+      <c r="E2630" s="40"/>
+      <c r="G2630" s="40"/>
     </row>
     <row r="2631" ht="12.75" customHeight="1">
-      <c r="E2631" s="37"/>
-      <c r="G2631" s="37"/>
+      <c r="E2631" s="40"/>
+      <c r="G2631" s="40"/>
     </row>
     <row r="2632" ht="12.75" customHeight="1">
-      <c r="E2632" s="37"/>
-      <c r="G2632" s="37"/>
+      <c r="E2632" s="40"/>
+      <c r="G2632" s="40"/>
     </row>
     <row r="2633" ht="12.75" customHeight="1">
-      <c r="E2633" s="37"/>
-      <c r="G2633" s="37"/>
+      <c r="E2633" s="40"/>
+      <c r="G2633" s="40"/>
     </row>
     <row r="2634" ht="12.75" customHeight="1">
-      <c r="E2634" s="37"/>
-      <c r="G2634" s="37"/>
+      <c r="E2634" s="40"/>
+      <c r="G2634" s="40"/>
     </row>
     <row r="2635" ht="12.75" customHeight="1">
-      <c r="E2635" s="37"/>
-      <c r="G2635" s="37"/>
+      <c r="E2635" s="40"/>
+      <c r="G2635" s="40"/>
     </row>
     <row r="2636" ht="12.75" customHeight="1">
-      <c r="E2636" s="37"/>
-      <c r="G2636" s="37"/>
+      <c r="E2636" s="40"/>
+      <c r="G2636" s="40"/>
     </row>
     <row r="2637" ht="12.75" customHeight="1">
-      <c r="E2637" s="37"/>
-      <c r="G2637" s="37"/>
+      <c r="E2637" s="40"/>
+      <c r="G2637" s="40"/>
     </row>
     <row r="2638" ht="12.75" customHeight="1">
-      <c r="E2638" s="37"/>
-      <c r="G2638" s="37"/>
+      <c r="E2638" s="40"/>
+      <c r="G2638" s="40"/>
     </row>
     <row r="2639" ht="12.75" customHeight="1">
-      <c r="E2639" s="37"/>
-      <c r="G2639" s="37"/>
+      <c r="E2639" s="40"/>
+      <c r="G2639" s="40"/>
     </row>
     <row r="2640" ht="12.75" customHeight="1">
-      <c r="E2640" s="37"/>
-      <c r="G2640" s="37"/>
+      <c r="E2640" s="40"/>
+      <c r="G2640" s="40"/>
     </row>
     <row r="2641" ht="12.75" customHeight="1">
-      <c r="E2641" s="37"/>
-      <c r="G2641" s="37"/>
+      <c r="E2641" s="40"/>
+      <c r="G2641" s="40"/>
     </row>
     <row r="2642" ht="12.75" customHeight="1">
-      <c r="E2642" s="37"/>
-      <c r="G2642" s="37"/>
+      <c r="E2642" s="40"/>
+      <c r="G2642" s="40"/>
     </row>
     <row r="2643" ht="12.75" customHeight="1">
-      <c r="E2643" s="37"/>
-      <c r="G2643" s="37"/>
+      <c r="E2643" s="40"/>
+      <c r="G2643" s="40"/>
     </row>
     <row r="2644" ht="12.75" customHeight="1">
-      <c r="E2644" s="37"/>
-      <c r="G2644" s="37"/>
+      <c r="E2644" s="40"/>
+      <c r="G2644" s="40"/>
     </row>
     <row r="2645" ht="12.75" customHeight="1">
-      <c r="E2645" s="37"/>
-      <c r="G2645" s="37"/>
+      <c r="E2645" s="40"/>
+      <c r="G2645" s="40"/>
     </row>
     <row r="2646" ht="12.75" customHeight="1">
-      <c r="E2646" s="37"/>
-      <c r="G2646" s="37"/>
+      <c r="E2646" s="40"/>
+      <c r="G2646" s="40"/>
     </row>
     <row r="2647" ht="12.75" customHeight="1">
-      <c r="E2647" s="37"/>
-      <c r="G2647" s="37"/>
+      <c r="E2647" s="40"/>
+      <c r="G2647" s="40"/>
     </row>
     <row r="2648" ht="12.75" customHeight="1">
-      <c r="E2648" s="37"/>
-      <c r="G2648" s="37"/>
+      <c r="E2648" s="40"/>
+      <c r="G2648" s="40"/>
     </row>
     <row r="2649" ht="12.75" customHeight="1">
-      <c r="E2649" s="37"/>
-      <c r="G2649" s="37"/>
+      <c r="E2649" s="40"/>
+      <c r="G2649" s="40"/>
     </row>
     <row r="2650" ht="12.75" customHeight="1">
-      <c r="E2650" s="37"/>
-      <c r="G2650" s="37"/>
+      <c r="E2650" s="40"/>
+      <c r="G2650" s="40"/>
     </row>
     <row r="2651" ht="12.75" customHeight="1">
-      <c r="E2651" s="37"/>
-      <c r="G2651" s="37"/>
+      <c r="E2651" s="40"/>
+      <c r="G2651" s="40"/>
     </row>
     <row r="2652" ht="12.75" customHeight="1">
-      <c r="E2652" s="37"/>
-      <c r="G2652" s="37"/>
+      <c r="E2652" s="40"/>
+      <c r="G2652" s="40"/>
     </row>
     <row r="2653" ht="12.75" customHeight="1">
-      <c r="E2653" s="37"/>
-      <c r="G2653" s="37"/>
+      <c r="E2653" s="40"/>
+      <c r="G2653" s="40"/>
     </row>
     <row r="2654" ht="12.75" customHeight="1">
-      <c r="E2654" s="37"/>
-      <c r="G2654" s="37"/>
+      <c r="E2654" s="40"/>
+      <c r="G2654" s="40"/>
     </row>
     <row r="2655" ht="12.75" customHeight="1">
-      <c r="E2655" s="37"/>
-      <c r="G2655" s="37"/>
+      <c r="E2655" s="40"/>
+      <c r="G2655" s="40"/>
     </row>
     <row r="2656" ht="12.75" customHeight="1">
-      <c r="E2656" s="37"/>
-      <c r="G2656" s="37"/>
+      <c r="E2656" s="40"/>
+      <c r="G2656" s="40"/>
     </row>
     <row r="2657" ht="12.75" customHeight="1">
-      <c r="E2657" s="37"/>
-      <c r="G2657" s="37"/>
+      <c r="E2657" s="40"/>
+      <c r="G2657" s="40"/>
     </row>
     <row r="2658" ht="12.75" customHeight="1">
-      <c r="E2658" s="37"/>
-      <c r="G2658" s="37"/>
+      <c r="E2658" s="40"/>
+      <c r="G2658" s="40"/>
     </row>
     <row r="2659" ht="12.75" customHeight="1">
-      <c r="E2659" s="37"/>
-      <c r="G2659" s="37"/>
+      <c r="E2659" s="40"/>
+      <c r="G2659" s="40"/>
     </row>
     <row r="2660" ht="12.75" customHeight="1">
-      <c r="E2660" s="37"/>
-      <c r="G2660" s="37"/>
+      <c r="E2660" s="40"/>
+      <c r="G2660" s="40"/>
     </row>
     <row r="2661" ht="12.75" customHeight="1">
-      <c r="E2661" s="37"/>
-      <c r="G2661" s="37"/>
+      <c r="E2661" s="40"/>
+      <c r="G2661" s="40"/>
     </row>
     <row r="2662" ht="12.75" customHeight="1">
-      <c r="E2662" s="37"/>
-      <c r="G2662" s="37"/>
+      <c r="E2662" s="40"/>
+      <c r="G2662" s="40"/>
     </row>
     <row r="2663" ht="12.75" customHeight="1">
-      <c r="E2663" s="37"/>
-      <c r="G2663" s="37"/>
+      <c r="E2663" s="40"/>
+      <c r="G2663" s="40"/>
     </row>
     <row r="2664" ht="12.75" customHeight="1">
-      <c r="E2664" s="37"/>
-      <c r="G2664" s="37"/>
+      <c r="E2664" s="40"/>
+      <c r="G2664" s="40"/>
     </row>
     <row r="2665" ht="12.75" customHeight="1">
-      <c r="E2665" s="37"/>
-      <c r="G2665" s="37"/>
+      <c r="E2665" s="40"/>
+      <c r="G2665" s="40"/>
     </row>
     <row r="2666" ht="12.75" customHeight="1">
-      <c r="E2666" s="37"/>
-      <c r="G2666" s="37"/>
+      <c r="E2666" s="40"/>
+      <c r="G2666" s="40"/>
     </row>
     <row r="2667" ht="12.75" customHeight="1">
-      <c r="E2667" s="37"/>
-      <c r="G2667" s="37"/>
+      <c r="E2667" s="40"/>
+      <c r="G2667" s="40"/>
     </row>
     <row r="2668" ht="12.75" customHeight="1">
-      <c r="E2668" s="37"/>
-      <c r="G2668" s="37"/>
+      <c r="E2668" s="40"/>
+      <c r="G2668" s="40"/>
     </row>
     <row r="2669" ht="12.75" customHeight="1">
-      <c r="E2669" s="37"/>
-      <c r="G2669" s="37"/>
+      <c r="E2669" s="40"/>
+      <c r="G2669" s="40"/>
     </row>
     <row r="2670" ht="12.75" customHeight="1">
-      <c r="E2670" s="37"/>
-      <c r="G2670" s="37"/>
+      <c r="E2670" s="40"/>
+      <c r="G2670" s="40"/>
     </row>
     <row r="2671" ht="12.75" customHeight="1">
-      <c r="E2671" s="37"/>
-      <c r="G2671" s="37"/>
+      <c r="E2671" s="40"/>
+      <c r="G2671" s="40"/>
     </row>
     <row r="2672" ht="12.75" customHeight="1">
-      <c r="E2672" s="37"/>
-      <c r="G2672" s="37"/>
+      <c r="E2672" s="40"/>
+      <c r="G2672" s="40"/>
     </row>
     <row r="2673" ht="12.75" customHeight="1">
-      <c r="E2673" s="37"/>
-      <c r="G2673" s="37"/>
+      <c r="E2673" s="40"/>
+      <c r="G2673" s="40"/>
     </row>
     <row r="2674" ht="12.75" customHeight="1">
-      <c r="E2674" s="37"/>
-      <c r="G2674" s="37"/>
+      <c r="E2674" s="40"/>
+      <c r="G2674" s="40"/>
     </row>
     <row r="2675" ht="12.75" customHeight="1">
-      <c r="E2675" s="37"/>
-      <c r="G2675" s="37"/>
+      <c r="E2675" s="40"/>
+      <c r="G2675" s="40"/>
     </row>
     <row r="2676" ht="12.75" customHeight="1">
-      <c r="E2676" s="37"/>
-      <c r="G2676" s="37"/>
+      <c r="E2676" s="40"/>
+      <c r="G2676" s="40"/>
     </row>
     <row r="2677" ht="12.75" customHeight="1">
-      <c r="E2677" s="37"/>
-      <c r="G2677" s="37"/>
+      <c r="E2677" s="40"/>
+      <c r="G2677" s="40"/>
     </row>
     <row r="2678" ht="12.75" customHeight="1">
-      <c r="E2678" s="37"/>
-      <c r="G2678" s="37"/>
+      <c r="E2678" s="40"/>
+      <c r="G2678" s="40"/>
     </row>
     <row r="2679" ht="12.75" customHeight="1">
-      <c r="E2679" s="37"/>
-      <c r="G2679" s="37"/>
+      <c r="E2679" s="40"/>
+      <c r="G2679" s="40"/>
     </row>
     <row r="2680" ht="12.75" customHeight="1">
-      <c r="E2680" s="37"/>
-      <c r="G2680" s="37"/>
+      <c r="E2680" s="40"/>
+      <c r="G2680" s="40"/>
     </row>
     <row r="2681" ht="12.75" customHeight="1">
-      <c r="E2681" s="37"/>
-      <c r="G2681" s="37"/>
+      <c r="E2681" s="40"/>
+      <c r="G2681" s="40"/>
     </row>
     <row r="2682" ht="12.75" customHeight="1">
-      <c r="E2682" s="37"/>
-      <c r="G2682" s="37"/>
+      <c r="E2682" s="40"/>
+      <c r="G2682" s="40"/>
     </row>
     <row r="2683" ht="12.75" customHeight="1">
-      <c r="E2683" s="37"/>
-      <c r="G2683" s="37"/>
+      <c r="E2683" s="40"/>
+      <c r="G2683" s="40"/>
     </row>
     <row r="2684" ht="12.75" customHeight="1">
-      <c r="E2684" s="37"/>
-      <c r="G2684" s="37"/>
+      <c r="E2684" s="40"/>
+      <c r="G2684" s="40"/>
     </row>
     <row r="2685" ht="12.75" customHeight="1">
-      <c r="E2685" s="37"/>
-      <c r="G2685" s="37"/>
+      <c r="E2685" s="40"/>
+      <c r="G2685" s="40"/>
     </row>
     <row r="2686" ht="12.75" customHeight="1">
-      <c r="E2686" s="37"/>
-      <c r="G2686" s="37"/>
+      <c r="E2686" s="40"/>
+      <c r="G2686" s="40"/>
     </row>
     <row r="2687" ht="12.75" customHeight="1">
-      <c r="E2687" s="37"/>
-      <c r="G2687" s="37"/>
+      <c r="E2687" s="40"/>
+      <c r="G2687" s="40"/>
     </row>
     <row r="2688" ht="12.75" customHeight="1">
-      <c r="E2688" s="37"/>
-      <c r="G2688" s="37"/>
+      <c r="E2688" s="40"/>
+      <c r="G2688" s="40"/>
     </row>
     <row r="2689" ht="12.75" customHeight="1">
-      <c r="E2689" s="37"/>
-      <c r="G2689" s="37"/>
+      <c r="E2689" s="40"/>
+      <c r="G2689" s="40"/>
     </row>
     <row r="2690" ht="12.75" customHeight="1">
-      <c r="E2690" s="37"/>
-      <c r="G2690" s="37"/>
+      <c r="E2690" s="40"/>
+      <c r="G2690" s="40"/>
     </row>
     <row r="2691" ht="12.75" customHeight="1">
-      <c r="E2691" s="37"/>
-      <c r="G2691" s="37"/>
+      <c r="E2691" s="40"/>
+      <c r="G2691" s="40"/>
     </row>
     <row r="2692" ht="12.75" customHeight="1">
-      <c r="E2692" s="37"/>
-      <c r="G2692" s="37"/>
+      <c r="E2692" s="40"/>
+      <c r="G2692" s="40"/>
     </row>
     <row r="2693" ht="12.75" customHeight="1">
-      <c r="E2693" s="37"/>
-      <c r="G2693" s="37"/>
+      <c r="E2693" s="40"/>
+      <c r="G2693" s="40"/>
     </row>
     <row r="2694" ht="12.75" customHeight="1">
-      <c r="E2694" s="37"/>
-      <c r="G2694" s="37"/>
+      <c r="E2694" s="40"/>
+      <c r="G2694" s="40"/>
     </row>
     <row r="2695" ht="12.75" customHeight="1">
-      <c r="E2695" s="37"/>
-      <c r="G2695" s="37"/>
+      <c r="E2695" s="40"/>
+      <c r="G2695" s="40"/>
     </row>
     <row r="2696" ht="12.75" customHeight="1">
-      <c r="E2696" s="37"/>
-      <c r="G2696" s="37"/>
+      <c r="E2696" s="40"/>
+      <c r="G2696" s="40"/>
     </row>
     <row r="2697" ht="12.75" customHeight="1">
-      <c r="E2697" s="37"/>
-      <c r="G2697" s="37"/>
+      <c r="E2697" s="40"/>
+      <c r="G2697" s="40"/>
     </row>
     <row r="2698" ht="12.75" customHeight="1">
-      <c r="E2698" s="37"/>
-      <c r="G2698" s="37"/>
+      <c r="E2698" s="40"/>
+      <c r="G2698" s="40"/>
     </row>
     <row r="2699" ht="12.75" customHeight="1">
-      <c r="E2699" s="37"/>
-      <c r="G2699" s="37"/>
+      <c r="E2699" s="40"/>
+      <c r="G2699" s="40"/>
     </row>
     <row r="2700" ht="12.75" customHeight="1">
-      <c r="E2700" s="37"/>
-      <c r="G2700" s="37"/>
+      <c r="E2700" s="40"/>
+      <c r="G2700" s="40"/>
     </row>
     <row r="2701" ht="12.75" customHeight="1">
-      <c r="E2701" s="37"/>
-      <c r="G2701" s="37"/>
+      <c r="E2701" s="40"/>
+      <c r="G2701" s="40"/>
     </row>
     <row r="2702" ht="12.75" customHeight="1">
-      <c r="E2702" s="37"/>
-      <c r="G2702" s="37"/>
+      <c r="E2702" s="40"/>
+      <c r="G2702" s="40"/>
     </row>
     <row r="2703" ht="12.75" customHeight="1">
-      <c r="E2703" s="37"/>
-      <c r="G2703" s="37"/>
+      <c r="E2703" s="40"/>
+      <c r="G2703" s="40"/>
     </row>
     <row r="2704" ht="12.75" customHeight="1">
-      <c r="E2704" s="37"/>
-      <c r="G2704" s="37"/>
+      <c r="E2704" s="40"/>
+      <c r="G2704" s="40"/>
     </row>
     <row r="2705" ht="12.75" customHeight="1">
-      <c r="E2705" s="37"/>
-      <c r="G2705" s="37"/>
+      <c r="E2705" s="40"/>
+      <c r="G2705" s="40"/>
     </row>
     <row r="2706" ht="12.75" customHeight="1">
-      <c r="E2706" s="37"/>
-      <c r="G2706" s="37"/>
+      <c r="E2706" s="40"/>
+      <c r="G2706" s="40"/>
     </row>
     <row r="2707" ht="12.75" customHeight="1">
-      <c r="E2707" s="37"/>
-      <c r="G2707" s="37"/>
+      <c r="E2707" s="40"/>
+      <c r="G2707" s="40"/>
     </row>
     <row r="2708" ht="12.75" customHeight="1">
-      <c r="E2708" s="37"/>
-      <c r="G2708" s="37"/>
+      <c r="E2708" s="40"/>
+      <c r="G2708" s="40"/>
     </row>
     <row r="2709" ht="12.75" customHeight="1">
-      <c r="E2709" s="37"/>
-      <c r="G2709" s="37"/>
+      <c r="E2709" s="40"/>
+      <c r="G2709" s="40"/>
     </row>
     <row r="2710" ht="12.75" customHeight="1">
-      <c r="E2710" s="37"/>
-      <c r="G2710" s="37"/>
+      <c r="E2710" s="40"/>
+      <c r="G2710" s="40"/>
     </row>
     <row r="2711" ht="12.75" customHeight="1">
-      <c r="E2711" s="37"/>
-      <c r="G2711" s="37"/>
+      <c r="E2711" s="40"/>
+      <c r="G2711" s="40"/>
     </row>
     <row r="2712" ht="12.75" customHeight="1">
-      <c r="E2712" s="37"/>
-      <c r="G2712" s="37"/>
+      <c r="E2712" s="40"/>
+      <c r="G2712" s="40"/>
     </row>
     <row r="2713" ht="12.75" customHeight="1">
-      <c r="E2713" s="37"/>
-      <c r="G2713" s="37"/>
+      <c r="E2713" s="40"/>
+      <c r="G2713" s="40"/>
     </row>
     <row r="2714" ht="12.75" customHeight="1">
-      <c r="E2714" s="37"/>
-      <c r="G2714" s="37"/>
+      <c r="E2714" s="40"/>
+      <c r="G2714" s="40"/>
     </row>
     <row r="2715" ht="12.75" customHeight="1">
-      <c r="E2715" s="37"/>
-      <c r="G2715" s="37"/>
+      <c r="E2715" s="40"/>
+      <c r="G2715" s="40"/>
     </row>
     <row r="2716" ht="12.75" customHeight="1">
-      <c r="E2716" s="37"/>
-      <c r="G2716" s="37"/>
+      <c r="E2716" s="40"/>
+      <c r="G2716" s="40"/>
     </row>
     <row r="2717" ht="12.75" customHeight="1">
-      <c r="E2717" s="37"/>
-      <c r="G2717" s="37"/>
+      <c r="E2717" s="40"/>
+      <c r="G2717" s="40"/>
     </row>
     <row r="2718" ht="12.75" customHeight="1">
-      <c r="E2718" s="37"/>
-      <c r="G2718" s="37"/>
+      <c r="E2718" s="40"/>
+      <c r="G2718" s="40"/>
     </row>
     <row r="2719" ht="12.75" customHeight="1">
-      <c r="E2719" s="37"/>
-      <c r="G2719" s="37"/>
+      <c r="E2719" s="40"/>
+      <c r="G2719" s="40"/>
     </row>
     <row r="2720" ht="12.75" customHeight="1">
-      <c r="E2720" s="37"/>
-      <c r="G2720" s="37"/>
+      <c r="E2720" s="40"/>
+      <c r="G2720" s="40"/>
     </row>
     <row r="2721" ht="12.75" customHeight="1">
-      <c r="E2721" s="37"/>
-      <c r="G2721" s="37"/>
+      <c r="E2721" s="40"/>
+      <c r="G2721" s="40"/>
     </row>
     <row r="2722" ht="12.75" customHeight="1">
-      <c r="E2722" s="37"/>
-      <c r="G2722" s="37"/>
+      <c r="E2722" s="40"/>
+      <c r="G2722" s="40"/>
     </row>
     <row r="2723" ht="12.75" customHeight="1">
-      <c r="E2723" s="37"/>
-      <c r="G2723" s="37"/>
+      <c r="E2723" s="40"/>
+      <c r="G2723" s="40"/>
     </row>
     <row r="2724" ht="12.75" customHeight="1">
-      <c r="E2724" s="37"/>
-      <c r="G2724" s="37"/>
+      <c r="E2724" s="40"/>
+      <c r="G2724" s="40"/>
     </row>
     <row r="2725" ht="12.75" customHeight="1">
-      <c r="E2725" s="37"/>
-      <c r="G2725" s="37"/>
+      <c r="E2725" s="40"/>
+      <c r="G2725" s="40"/>
     </row>
     <row r="2726" ht="12.75" customHeight="1">
-      <c r="E2726" s="37"/>
-      <c r="G2726" s="37"/>
+      <c r="E2726" s="40"/>
+      <c r="G2726" s="40"/>
     </row>
     <row r="2727" ht="12.75" customHeight="1">
-      <c r="E2727" s="37"/>
-      <c r="G2727" s="37"/>
+      <c r="E2727" s="40"/>
+      <c r="G2727" s="40"/>
     </row>
     <row r="2728" ht="12.75" customHeight="1">
-      <c r="E2728" s="37"/>
-      <c r="G2728" s="37"/>
+      <c r="E2728" s="40"/>
+      <c r="G2728" s="40"/>
     </row>
     <row r="2729" ht="12.75" customHeight="1">
-      <c r="E2729" s="37"/>
-      <c r="G2729" s="37"/>
+      <c r="E2729" s="40"/>
+      <c r="G2729" s="40"/>
     </row>
     <row r="2730" ht="12.75" customHeight="1">
-      <c r="E2730" s="37"/>
-      <c r="G2730" s="37"/>
+      <c r="E2730" s="40"/>
+      <c r="G2730" s="40"/>
     </row>
     <row r="2731" ht="12.75" customHeight="1">
-      <c r="E2731" s="37"/>
-      <c r="G2731" s="37"/>
+      <c r="E2731" s="40"/>
+      <c r="G2731" s="40"/>
     </row>
     <row r="2732" ht="12.75" customHeight="1">
-      <c r="E2732" s="37"/>
-      <c r="G2732" s="37"/>
+      <c r="E2732" s="40"/>
+      <c r="G2732" s="40"/>
     </row>
     <row r="2733" ht="12.75" customHeight="1">
-      <c r="E2733" s="37"/>
-      <c r="G2733" s="37"/>
+      <c r="E2733" s="40"/>
+      <c r="G2733" s="40"/>
     </row>
     <row r="2734" ht="12.75" customHeight="1">
-      <c r="E2734" s="37"/>
-      <c r="G2734" s="37"/>
+      <c r="E2734" s="40"/>
+      <c r="G2734" s="40"/>
     </row>
     <row r="2735" ht="12.75" customHeight="1">
-      <c r="E2735" s="37"/>
-      <c r="G2735" s="37"/>
+      <c r="E2735" s="40"/>
+      <c r="G2735" s="40"/>
     </row>
     <row r="2736" ht="12.75" customHeight="1">
-      <c r="E2736" s="37"/>
-      <c r="G2736" s="37"/>
+      <c r="E2736" s="40"/>
+      <c r="G2736" s="40"/>
     </row>
     <row r="2737" ht="12.75" customHeight="1">
-      <c r="E2737" s="37"/>
-      <c r="G2737" s="37"/>
+      <c r="E2737" s="40"/>
+      <c r="G2737" s="40"/>
     </row>
     <row r="2738" ht="12.75" customHeight="1">
-      <c r="E2738" s="37"/>
-      <c r="G2738" s="37"/>
+      <c r="E2738" s="40"/>
+      <c r="G2738" s="40"/>
     </row>
     <row r="2739" ht="12.75" customHeight="1">
-      <c r="E2739" s="37"/>
-      <c r="G2739" s="37"/>
+      <c r="E2739" s="40"/>
+      <c r="G2739" s="40"/>
     </row>
     <row r="2740" ht="12.75" customHeight="1">
-      <c r="E2740" s="37"/>
-      <c r="G2740" s="37"/>
+      <c r="E2740" s="40"/>
+      <c r="G2740" s="40"/>
     </row>
     <row r="2741" ht="12.75" customHeight="1">
-      <c r="E2741" s="37"/>
-      <c r="G2741" s="37"/>
+      <c r="E2741" s="40"/>
+      <c r="G2741" s="40"/>
     </row>
     <row r="2742" ht="12.75" customHeight="1">
-      <c r="E2742" s="37"/>
-      <c r="G2742" s="37"/>
+      <c r="E2742" s="40"/>
+      <c r="G2742" s="40"/>
     </row>
     <row r="2743" ht="12.75" customHeight="1">
-      <c r="E2743" s="37"/>
-      <c r="G2743" s="37"/>
+      <c r="E2743" s="40"/>
+      <c r="G2743" s="40"/>
     </row>
     <row r="2744" ht="12.75" customHeight="1">
-      <c r="E2744" s="37"/>
-      <c r="G2744" s="37"/>
+      <c r="E2744" s="40"/>
+      <c r="G2744" s="40"/>
     </row>
     <row r="2745" ht="12.75" customHeight="1">
-      <c r="E2745" s="37"/>
-      <c r="G2745" s="37"/>
+      <c r="E2745" s="40"/>
+      <c r="G2745" s="40"/>
     </row>
     <row r="2746" ht="12.75" customHeight="1">
-      <c r="E2746" s="37"/>
-      <c r="G2746" s="37"/>
+      <c r="E2746" s="40"/>
+      <c r="G2746" s="40"/>
     </row>
     <row r="2747" ht="12.75" customHeight="1">
-      <c r="E2747" s="37"/>
-      <c r="G2747" s="37"/>
+      <c r="E2747" s="40"/>
+      <c r="G2747" s="40"/>
     </row>
     <row r="2748" ht="12.75" customHeight="1">
-      <c r="E2748" s="37"/>
-      <c r="G2748" s="37"/>
+      <c r="E2748" s="40"/>
+      <c r="G2748" s="40"/>
     </row>
     <row r="2749" ht="12.75" customHeight="1">
-      <c r="E2749" s="37"/>
-      <c r="G2749" s="37"/>
+      <c r="E2749" s="40"/>
+      <c r="G2749" s="40"/>
     </row>
     <row r="2750" ht="12.75" customHeight="1">
-      <c r="E2750" s="37"/>
-      <c r="G2750" s="37"/>
+      <c r="E2750" s="40"/>
+      <c r="G2750" s="40"/>
     </row>
     <row r="2751" ht="12.75" customHeight="1">
-      <c r="E2751" s="37"/>
-      <c r="G2751" s="37"/>
+      <c r="E2751" s="40"/>
+      <c r="G2751" s="40"/>
     </row>
     <row r="2752" ht="12.75" customHeight="1">
-      <c r="E2752" s="37"/>
-      <c r="G2752" s="37"/>
+      <c r="E2752" s="40"/>
+      <c r="G2752" s="40"/>
     </row>
     <row r="2753" ht="12.75" customHeight="1">
-      <c r="E2753" s="37"/>
-      <c r="G2753" s="37"/>
+      <c r="E2753" s="40"/>
+      <c r="G2753" s="40"/>
     </row>
     <row r="2754" ht="12.75" customHeight="1">
-      <c r="E2754" s="37"/>
-      <c r="G2754" s="37"/>
+      <c r="E2754" s="40"/>
+      <c r="G2754" s="40"/>
     </row>
     <row r="2755" ht="12.75" customHeight="1">
-      <c r="E2755" s="37"/>
-      <c r="G2755" s="37"/>
+      <c r="E2755" s="40"/>
+      <c r="G2755" s="40"/>
     </row>
     <row r="2756" ht="12.75" customHeight="1">
-      <c r="E2756" s="37"/>
-      <c r="G2756" s="37"/>
+      <c r="E2756" s="40"/>
+      <c r="G2756" s="40"/>
     </row>
     <row r="2757" ht="12.75" customHeight="1">
-      <c r="E2757" s="37"/>
-      <c r="G2757" s="37"/>
+      <c r="E2757" s="40"/>
+      <c r="G2757" s="40"/>
     </row>
     <row r="2758" ht="12.75" customHeight="1">
-      <c r="E2758" s="37"/>
-      <c r="G2758" s="37"/>
+      <c r="E2758" s="40"/>
+      <c r="G2758" s="40"/>
     </row>
     <row r="2759" ht="12.75" customHeight="1">
-      <c r="E2759" s="37"/>
-      <c r="G2759" s="37"/>
+      <c r="E2759" s="40"/>
+      <c r="G2759" s="40"/>
     </row>
     <row r="2760" ht="12.75" customHeight="1">
-      <c r="E2760" s="37"/>
-      <c r="G2760" s="37"/>
+      <c r="E2760" s="40"/>
+      <c r="G2760" s="40"/>
     </row>
     <row r="2761" ht="12.75" customHeight="1">
-      <c r="E2761" s="37"/>
-      <c r="G2761" s="37"/>
+      <c r="E2761" s="40"/>
+      <c r="G2761" s="40"/>
     </row>
     <row r="2762" ht="12.75" customHeight="1">
-      <c r="E2762" s="37"/>
-      <c r="G2762" s="37"/>
+      <c r="E2762" s="40"/>
+      <c r="G2762" s="40"/>
     </row>
     <row r="2763" ht="12.75" customHeight="1">
-      <c r="E2763" s="37"/>
-      <c r="G2763" s="37"/>
+      <c r="E2763" s="40"/>
+      <c r="G2763" s="40"/>
     </row>
     <row r="2764" ht="12.75" customHeight="1">
-      <c r="E2764" s="37"/>
-      <c r="G2764" s="37"/>
+      <c r="E2764" s="40"/>
+      <c r="G2764" s="40"/>
     </row>
     <row r="2765" ht="12.75" customHeight="1">
-      <c r="E2765" s="37"/>
-      <c r="G2765" s="37"/>
+      <c r="E2765" s="40"/>
+      <c r="G2765" s="40"/>
     </row>
     <row r="2766" ht="12.75" customHeight="1">
-      <c r="E2766" s="37"/>
-      <c r="G2766" s="37"/>
+      <c r="E2766" s="40"/>
+      <c r="G2766" s="40"/>
     </row>
     <row r="2767" ht="12.75" customHeight="1">
-      <c r="E2767" s="37"/>
-      <c r="G2767" s="37"/>
+      <c r="E2767" s="40"/>
+      <c r="G2767" s="40"/>
     </row>
     <row r="2768" ht="12.75" customHeight="1">
-      <c r="E2768" s="37"/>
-      <c r="G2768" s="37"/>
+      <c r="E2768" s="40"/>
+      <c r="G2768" s="40"/>
     </row>
     <row r="2769" ht="12.75" customHeight="1">
-      <c r="E2769" s="37"/>
-      <c r="G2769" s="37"/>
+      <c r="E2769" s="40"/>
+      <c r="G2769" s="40"/>
     </row>
     <row r="2770" ht="12.75" customHeight="1">
-      <c r="E2770" s="37"/>
-      <c r="G2770" s="37"/>
+      <c r="E2770" s="40"/>
+      <c r="G2770" s="40"/>
     </row>
     <row r="2771" ht="12.75" customHeight="1">
-      <c r="E2771" s="37"/>
-      <c r="G2771" s="37"/>
+      <c r="E2771" s="40"/>
+      <c r="G2771" s="40"/>
     </row>
     <row r="2772" ht="12.75" customHeight="1">
-      <c r="E2772" s="37"/>
-      <c r="G2772" s="37"/>
+      <c r="E2772" s="40"/>
+      <c r="G2772" s="40"/>
     </row>
     <row r="2773" ht="12.75" customHeight="1">
-      <c r="E2773" s="37"/>
-      <c r="G2773" s="37"/>
+      <c r="E2773" s="40"/>
+      <c r="G2773" s="40"/>
     </row>
     <row r="2774" ht="12.75" customHeight="1">
-      <c r="E2774" s="37"/>
-      <c r="G2774" s="37"/>
+      <c r="E2774" s="40"/>
+      <c r="G2774" s="40"/>
     </row>
     <row r="2775" ht="12.75" customHeight="1">
-      <c r="E2775" s="37"/>
-      <c r="G2775" s="37"/>
+      <c r="E2775" s="40"/>
+      <c r="G2775" s="40"/>
     </row>
     <row r="2776" ht="12.75" customHeight="1">
-      <c r="E2776" s="37"/>
-      <c r="G2776" s="37"/>
+      <c r="E2776" s="40"/>
+      <c r="G2776" s="40"/>
     </row>
     <row r="2777" ht="12.75" customHeight="1">
-      <c r="E2777" s="37"/>
-      <c r="G2777" s="37"/>
+      <c r="E2777" s="40"/>
+      <c r="G2777" s="40"/>
     </row>
     <row r="2778" ht="12.75" customHeight="1">
-      <c r="E2778" s="37"/>
-      <c r="G2778" s="37"/>
+      <c r="E2778" s="40"/>
+      <c r="G2778" s="40"/>
     </row>
     <row r="2779" ht="12.75" customHeight="1">
-      <c r="E2779" s="37"/>
-      <c r="G2779" s="37"/>
+      <c r="E2779" s="40"/>
+      <c r="G2779" s="40"/>
     </row>
     <row r="2780" ht="12.75" customHeight="1">
-      <c r="E2780" s="37"/>
-      <c r="G2780" s="37"/>
+      <c r="E2780" s="40"/>
+      <c r="G2780" s="40"/>
     </row>
     <row r="2781" ht="12.75" customHeight="1">
-      <c r="E2781" s="37"/>
-      <c r="G2781" s="37"/>
+      <c r="E2781" s="40"/>
+      <c r="G2781" s="40"/>
     </row>
     <row r="2782" ht="12.75" customHeight="1">
-      <c r="E2782" s="37"/>
-      <c r="G2782" s="37"/>
+      <c r="E2782" s="40"/>
+      <c r="G2782" s="40"/>
     </row>
     <row r="2783" ht="12.75" customHeight="1">
-      <c r="E2783" s="37"/>
-      <c r="G2783" s="37"/>
+      <c r="E2783" s="40"/>
+      <c r="G2783" s="40"/>
     </row>
     <row r="2784" ht="12.75" customHeight="1">
-      <c r="E2784" s="37"/>
-      <c r="G2784" s="37"/>
+      <c r="E2784" s="40"/>
+      <c r="G2784" s="40"/>
     </row>
     <row r="2785" ht="12.75" customHeight="1">
-      <c r="E2785" s="37"/>
-      <c r="G2785" s="37"/>
+      <c r="E2785" s="40"/>
+      <c r="G2785" s="40"/>
     </row>
     <row r="2786" ht="12.75" customHeight="1">
-      <c r="E2786" s="37"/>
-      <c r="G2786" s="37"/>
+      <c r="E2786" s="40"/>
+      <c r="G2786" s="40"/>
     </row>
     <row r="2787" ht="12.75" customHeight="1">
-      <c r="E2787" s="37"/>
-      <c r="G2787" s="37"/>
+      <c r="E2787" s="40"/>
+      <c r="G2787" s="40"/>
     </row>
     <row r="2788" ht="12.75" customHeight="1">
-      <c r="E2788" s="37"/>
-      <c r="G2788" s="37"/>
+      <c r="E2788" s="40"/>
+      <c r="G2788" s="40"/>
     </row>
     <row r="2789" ht="12.75" customHeight="1">
-      <c r="E2789" s="37"/>
-      <c r="G2789" s="37"/>
+      <c r="E2789" s="40"/>
+      <c r="G2789" s="40"/>
     </row>
     <row r="2790" ht="12.75" customHeight="1">
-      <c r="E2790" s="37"/>
-      <c r="G2790" s="37"/>
+      <c r="E2790" s="40"/>
+      <c r="G2790" s="40"/>
     </row>
     <row r="2791" ht="12.75" customHeight="1">
-      <c r="E2791" s="37"/>
-      <c r="G2791" s="37"/>
+      <c r="E2791" s="40"/>
+      <c r="G2791" s="40"/>
     </row>
     <row r="2792" ht="12.75" customHeight="1">
-      <c r="E2792" s="37"/>
-      <c r="G2792" s="37"/>
+      <c r="E2792" s="40"/>
+      <c r="G2792" s="40"/>
     </row>
     <row r="2793" ht="12.75" customHeight="1">
-      <c r="E2793" s="37"/>
-      <c r="G2793" s="37"/>
+      <c r="E2793" s="40"/>
+      <c r="G2793" s="40"/>
     </row>
     <row r="2794" ht="12.75" customHeight="1">
-      <c r="E2794" s="37"/>
-      <c r="G2794" s="37"/>
+      <c r="E2794" s="40"/>
+      <c r="G2794" s="40"/>
     </row>
     <row r="2795" ht="12.75" customHeight="1">
-      <c r="E2795" s="37"/>
-      <c r="G2795" s="37"/>
+      <c r="E2795" s="40"/>
+      <c r="G2795" s="40"/>
     </row>
     <row r="2796" ht="12.75" customHeight="1">
-      <c r="E2796" s="37"/>
-      <c r="G2796" s="37"/>
+      <c r="E2796" s="40"/>
+      <c r="G2796" s="40"/>
     </row>
     <row r="2797" ht="12.75" customHeight="1">
-      <c r="E2797" s="37"/>
-      <c r="G2797" s="37"/>
+      <c r="E2797" s="40"/>
+      <c r="G2797" s="40"/>
     </row>
     <row r="2798" ht="12.75" customHeight="1">
-      <c r="E2798" s="37"/>
-      <c r="G2798" s="37"/>
+      <c r="E2798" s="40"/>
+      <c r="G2798" s="40"/>
     </row>
     <row r="2799" ht="12.75" customHeight="1">
-      <c r="E2799" s="37"/>
-      <c r="G2799" s="37"/>
+      <c r="E2799" s="40"/>
+      <c r="G2799" s="40"/>
     </row>
     <row r="2800" ht="12.75" customHeight="1">
-      <c r="E2800" s="37"/>
-      <c r="G2800" s="37"/>
+      <c r="E2800" s="40"/>
+      <c r="G2800" s="40"/>
     </row>
     <row r="2801" ht="12.75" customHeight="1">
-      <c r="E2801" s="37"/>
-      <c r="G2801" s="37"/>
+      <c r="E2801" s="40"/>
+      <c r="G2801" s="40"/>
     </row>
     <row r="2802" ht="12.75" customHeight="1">
-      <c r="E2802" s="37"/>
-      <c r="G2802" s="37"/>
+      <c r="E2802" s="40"/>
+      <c r="G2802" s="40"/>
     </row>
     <row r="2803" ht="12.75" customHeight="1">
-      <c r="E2803" s="37"/>
-      <c r="G2803" s="37"/>
+      <c r="E2803" s="40"/>
+      <c r="G2803" s="40"/>
     </row>
     <row r="2804" ht="12.75" customHeight="1">
-      <c r="E2804" s="37"/>
-      <c r="G2804" s="37"/>
+      <c r="E2804" s="40"/>
+      <c r="G2804" s="40"/>
     </row>
     <row r="2805" ht="12.75" customHeight="1">
-      <c r="E2805" s="37"/>
-      <c r="G2805" s="37"/>
+      <c r="E2805" s="40"/>
+      <c r="G2805" s="40"/>
     </row>
     <row r="2806" ht="12.75" customHeight="1">
-      <c r="E2806" s="37"/>
-      <c r="G2806" s="37"/>
+      <c r="E2806" s="40"/>
+      <c r="G2806" s="40"/>
     </row>
     <row r="2807" ht="12.75" customHeight="1">
-      <c r="E2807" s="37"/>
-      <c r="G2807" s="37"/>
+      <c r="E2807" s="40"/>
+      <c r="G2807" s="40"/>
     </row>
     <row r="2808" ht="12.75" customHeight="1">
-      <c r="E2808" s="37"/>
-      <c r="G2808" s="37"/>
+      <c r="E2808" s="40"/>
+      <c r="G2808" s="40"/>
     </row>
     <row r="2809" ht="12.75" customHeight="1">
-      <c r="E2809" s="37"/>
-      <c r="G2809" s="37"/>
+      <c r="E2809" s="40"/>
+      <c r="G2809" s="40"/>
     </row>
     <row r="2810" ht="12.75" customHeight="1">
-      <c r="E2810" s="37"/>
-      <c r="G2810" s="37"/>
+      <c r="E2810" s="40"/>
+      <c r="G2810" s="40"/>
     </row>
     <row r="2811" ht="12.75" customHeight="1">
-      <c r="E2811" s="37"/>
-      <c r="G2811" s="37"/>
+      <c r="E2811" s="40"/>
+      <c r="G2811" s="40"/>
     </row>
     <row r="2812" ht="12.75" customHeight="1">
-      <c r="E2812" s="37"/>
-      <c r="G2812" s="37"/>
+      <c r="E2812" s="40"/>
+      <c r="G2812" s="40"/>
     </row>
     <row r="2813" ht="12.75" customHeight="1">
-      <c r="E2813" s="37"/>
-      <c r="G2813" s="37"/>
+      <c r="E2813" s="40"/>
+      <c r="G2813" s="40"/>
     </row>
     <row r="2814" ht="12.75" customHeight="1">
-      <c r="E2814" s="37"/>
-      <c r="G2814" s="37"/>
+      <c r="E2814" s="40"/>
+      <c r="G2814" s="40"/>
     </row>
     <row r="2815" ht="12.75" customHeight="1">
-      <c r="E2815" s="37"/>
-      <c r="G2815" s="37"/>
+      <c r="E2815" s="40"/>
+      <c r="G2815" s="40"/>
     </row>
     <row r="2816" ht="12.75" customHeight="1">
-      <c r="E2816" s="37"/>
-      <c r="G2816" s="37"/>
+      <c r="E2816" s="40"/>
+      <c r="G2816" s="40"/>
     </row>
     <row r="2817" ht="12.75" customHeight="1">
-      <c r="E2817" s="37"/>
-      <c r="G2817" s="37"/>
+      <c r="E2817" s="40"/>
+      <c r="G2817" s="40"/>
     </row>
     <row r="2818" ht="12.75" customHeight="1">
-      <c r="E2818" s="37"/>
-      <c r="G2818" s="37"/>
+      <c r="E2818" s="40"/>
+      <c r="G2818" s="40"/>
     </row>
     <row r="2819" ht="12.75" customHeight="1">
-      <c r="E2819" s="37"/>
-      <c r="G2819" s="37"/>
+      <c r="E2819" s="40"/>
+      <c r="G2819" s="40"/>
     </row>
     <row r="2820" ht="12.75" customHeight="1">
-      <c r="E2820" s="37"/>
-      <c r="G2820" s="37"/>
+      <c r="E2820" s="40"/>
+      <c r="G2820" s="40"/>
     </row>
     <row r="2821" ht="12.75" customHeight="1">
-      <c r="E2821" s="37"/>
-      <c r="G2821" s="37"/>
+      <c r="E2821" s="40"/>
+      <c r="G2821" s="40"/>
     </row>
     <row r="2822" ht="12.75" customHeight="1">
-      <c r="E2822" s="37"/>
-      <c r="G2822" s="37"/>
+      <c r="E2822" s="40"/>
+      <c r="G2822" s="40"/>
     </row>
     <row r="2823" ht="12.75" customHeight="1">
-      <c r="E2823" s="37"/>
-      <c r="G2823" s="37"/>
+      <c r="E2823" s="40"/>
+      <c r="G2823" s="40"/>
     </row>
     <row r="2824" ht="12.75" customHeight="1">
-      <c r="E2824" s="37"/>
-      <c r="G2824" s="37"/>
+      <c r="E2824" s="40"/>
+      <c r="G2824" s="40"/>
     </row>
     <row r="2825" ht="12.75" customHeight="1">
-      <c r="E2825" s="37"/>
-      <c r="G2825" s="37"/>
+      <c r="E2825" s="40"/>
+      <c r="G2825" s="40"/>
     </row>
     <row r="2826" ht="12.75" customHeight="1">
-      <c r="E2826" s="37"/>
-      <c r="G2826" s="37"/>
+      <c r="E2826" s="40"/>
+      <c r="G2826" s="40"/>
     </row>
     <row r="2827" ht="12.75" customHeight="1">
-      <c r="E2827" s="37"/>
-      <c r="G2827" s="37"/>
+      <c r="E2827" s="40"/>
+      <c r="G2827" s="40"/>
     </row>
     <row r="2828" ht="12.75" customHeight="1">
-      <c r="E2828" s="37"/>
-      <c r="G2828" s="37"/>
+      <c r="E2828" s="40"/>
+      <c r="G2828" s="40"/>
     </row>
     <row r="2829" ht="12.75" customHeight="1">
-      <c r="E2829" s="37"/>
-      <c r="G2829" s="37"/>
+      <c r="E2829" s="40"/>
+      <c r="G2829" s="40"/>
     </row>
     <row r="2830" ht="12.75" customHeight="1">
-      <c r="E2830" s="37"/>
-      <c r="G2830" s="37"/>
+      <c r="E2830" s="40"/>
+      <c r="G2830" s="40"/>
     </row>
     <row r="2831" ht="12.75" customHeight="1">
-      <c r="E2831" s="37"/>
-      <c r="G2831" s="37"/>
+      <c r="E2831" s="40"/>
+      <c r="G2831" s="40"/>
     </row>
     <row r="2832" ht="12.75" customHeight="1">
-      <c r="E2832" s="37"/>
-      <c r="G2832" s="37"/>
+      <c r="E2832" s="40"/>
+      <c r="G2832" s="40"/>
     </row>
     <row r="2833" ht="12.75" customHeight="1">
-      <c r="E2833" s="37"/>
-      <c r="G2833" s="37"/>
+      <c r="E2833" s="40"/>
+      <c r="G2833" s="40"/>
     </row>
     <row r="2834" ht="12.75" customHeight="1">
-      <c r="E2834" s="37"/>
-      <c r="G2834" s="37"/>
+      <c r="E2834" s="40"/>
+      <c r="G2834" s="40"/>
     </row>
     <row r="2835" ht="12.75" customHeight="1">
-      <c r="E2835" s="37"/>
-      <c r="G2835" s="37"/>
+      <c r="E2835" s="40"/>
+      <c r="G2835" s="40"/>
     </row>
     <row r="2836" ht="12.75" customHeight="1">
-      <c r="E2836" s="37"/>
-      <c r="G2836" s="37"/>
+      <c r="E2836" s="40"/>
+      <c r="G2836" s="40"/>
     </row>
     <row r="2837" ht="12.75" customHeight="1">
-      <c r="E2837" s="37"/>
-      <c r="G2837" s="37"/>
+      <c r="E2837" s="40"/>
+      <c r="G2837" s="40"/>
     </row>
     <row r="2838" ht="12.75" customHeight="1">
-      <c r="E2838" s="37"/>
-      <c r="G2838" s="37"/>
+      <c r="E2838" s="40"/>
+      <c r="G2838" s="40"/>
     </row>
     <row r="2839" ht="12.75" customHeight="1">
-      <c r="E2839" s="37"/>
-      <c r="G2839" s="37"/>
+      <c r="E2839" s="40"/>
+      <c r="G2839" s="40"/>
     </row>
     <row r="2840" ht="12.75" customHeight="1">
-      <c r="E2840" s="37"/>
-      <c r="G2840" s="37"/>
+      <c r="E2840" s="40"/>
+      <c r="G2840" s="40"/>
     </row>
     <row r="2841" ht="12.75" customHeight="1">
-      <c r="E2841" s="37"/>
-      <c r="G2841" s="37"/>
+      <c r="E2841" s="40"/>
+      <c r="G2841" s="40"/>
     </row>
     <row r="2842" ht="12.75" customHeight="1">
-      <c r="E2842" s="37"/>
-      <c r="G2842" s="37"/>
+      <c r="E2842" s="40"/>
+      <c r="G2842" s="40"/>
     </row>
     <row r="2843" ht="12.75" customHeight="1">
-      <c r="E2843" s="37"/>
-      <c r="G2843" s="37"/>
+      <c r="E2843" s="40"/>
+      <c r="G2843" s="40"/>
     </row>
     <row r="2844" ht="12.75" customHeight="1">
-      <c r="E2844" s="37"/>
-      <c r="G2844" s="37"/>
+      <c r="E2844" s="40"/>
+      <c r="G2844" s="40"/>
     </row>
     <row r="2845" ht="12.75" customHeight="1">
-      <c r="E2845" s="37"/>
-      <c r="G2845" s="37"/>
+      <c r="E2845" s="40"/>
+      <c r="G2845" s="40"/>
     </row>
     <row r="2846" ht="12.75" customHeight="1">
-      <c r="E2846" s="37"/>
-      <c r="G2846" s="37"/>
+      <c r="E2846" s="40"/>
+      <c r="G2846" s="40"/>
     </row>
     <row r="2847" ht="12.75" customHeight="1">
-      <c r="E2847" s="37"/>
-      <c r="G2847" s="37"/>
+      <c r="E2847" s="40"/>
+      <c r="G2847" s="40"/>
     </row>
     <row r="2848" ht="12.75" customHeight="1">
-      <c r="E2848" s="37"/>
-      <c r="G2848" s="37"/>
+      <c r="E2848" s="40"/>
+      <c r="G2848" s="40"/>
     </row>
     <row r="2849" ht="12.75" customHeight="1">
-      <c r="E2849" s="37"/>
-      <c r="G2849" s="37"/>
+      <c r="E2849" s="40"/>
+      <c r="G2849" s="40"/>
     </row>
     <row r="2850" ht="12.75" customHeight="1">
-      <c r="E2850" s="37"/>
-      <c r="G2850" s="37"/>
+      <c r="E2850" s="40"/>
+      <c r="G2850" s="40"/>
     </row>
     <row r="2851" ht="12.75" customHeight="1">
-      <c r="E2851" s="37"/>
-      <c r="G2851" s="37"/>
+      <c r="E2851" s="40"/>
+      <c r="G2851" s="40"/>
     </row>
     <row r="2852" ht="12.75" customHeight="1">
-      <c r="E2852" s="37"/>
-      <c r="G2852" s="37"/>
+      <c r="E2852" s="40"/>
+      <c r="G2852" s="40"/>
     </row>
     <row r="2853" ht="12.75" customHeight="1">
-      <c r="E2853" s="37"/>
-      <c r="G2853" s="37"/>
+      <c r="E2853" s="40"/>
+      <c r="G2853" s="40"/>
     </row>
     <row r="2854" ht="12.75" customHeight="1">
-      <c r="E2854" s="37"/>
-      <c r="G2854" s="37"/>
+      <c r="E2854" s="40"/>
+      <c r="G2854" s="40"/>
     </row>
     <row r="2855" ht="12.75" customHeight="1">
-      <c r="E2855" s="37"/>
-      <c r="G2855" s="37"/>
+      <c r="E2855" s="40"/>
+      <c r="G2855" s="40"/>
     </row>
     <row r="2856" ht="12.75" customHeight="1">
-      <c r="E2856" s="37"/>
-      <c r="G2856" s="37"/>
+      <c r="E2856" s="40"/>
+      <c r="G2856" s="40"/>
     </row>
     <row r="2857" ht="12.75" customHeight="1">
-      <c r="E2857" s="37"/>
-      <c r="G2857" s="37"/>
+      <c r="E2857" s="40"/>
+      <c r="G2857" s="40"/>
     </row>
     <row r="2858" ht="12.75" customHeight="1">
-      <c r="E2858" s="37"/>
-      <c r="G2858" s="37"/>
+      <c r="E2858" s="40"/>
+      <c r="G2858" s="40"/>
     </row>
     <row r="2859" ht="12.75" customHeight="1">
-      <c r="E2859" s="37"/>
-      <c r="G2859" s="37"/>
+      <c r="E2859" s="40"/>
+      <c r="G2859" s="40"/>
     </row>
     <row r="2860" ht="12.75" customHeight="1">
-      <c r="E2860" s="37"/>
-      <c r="G2860" s="37"/>
+      <c r="E2860" s="40"/>
+      <c r="G2860" s="40"/>
     </row>
     <row r="2861" ht="12.75" customHeight="1">
-      <c r="E2861" s="37"/>
-      <c r="G2861" s="37"/>
+      <c r="E2861" s="40"/>
+      <c r="G2861" s="40"/>
     </row>
     <row r="2862" ht="12.75" customHeight="1">
-      <c r="E2862" s="37"/>
-      <c r="G2862" s="37"/>
+      <c r="E2862" s="40"/>
+      <c r="G2862" s="40"/>
     </row>
     <row r="2863" ht="12.75" customHeight="1">
-      <c r="E2863" s="37"/>
-      <c r="G2863" s="37"/>
+      <c r="E2863" s="40"/>
+      <c r="G2863" s="40"/>
     </row>
     <row r="2864" ht="12.75" customHeight="1">
-      <c r="E2864" s="37"/>
-      <c r="G2864" s="37"/>
+      <c r="E2864" s="40"/>
+      <c r="G2864" s="40"/>
     </row>
     <row r="2865" ht="12.75" customHeight="1">
-      <c r="E2865" s="37"/>
-      <c r="G2865" s="37"/>
+      <c r="E2865" s="40"/>
+      <c r="G2865" s="40"/>
     </row>
     <row r="2866" ht="12.75" customHeight="1">
-      <c r="E2866" s="37"/>
-      <c r="G2866" s="37"/>
+      <c r="E2866" s="40"/>
+      <c r="G2866" s="40"/>
     </row>
     <row r="2867" ht="12.75" customHeight="1">
-      <c r="E2867" s="37"/>
-      <c r="G2867" s="37"/>
+      <c r="E2867" s="40"/>
+      <c r="G2867" s="40"/>
     </row>
     <row r="2868" ht="12.75" customHeight="1">
-      <c r="E2868" s="37"/>
-      <c r="G2868" s="37"/>
+      <c r="E2868" s="40"/>
+      <c r="G2868" s="40"/>
     </row>
     <row r="2869" ht="12.75" customHeight="1">
-      <c r="E2869" s="37"/>
-      <c r="G2869" s="37"/>
+      <c r="E2869" s="40"/>
+      <c r="G2869" s="40"/>
     </row>
     <row r="2870" ht="12.75" customHeight="1">
-      <c r="E2870" s="37"/>
-      <c r="G2870" s="37"/>
+      <c r="E2870" s="40"/>
+      <c r="G2870" s="40"/>
     </row>
     <row r="2871" ht="12.75" customHeight="1">
-      <c r="E2871" s="37"/>
-      <c r="G2871" s="37"/>
+      <c r="E2871" s="40"/>
+      <c r="G2871" s="40"/>
     </row>
     <row r="2872" ht="12.75" customHeight="1">
-      <c r="E2872" s="37"/>
-      <c r="G2872" s="37"/>
+      <c r="E2872" s="40"/>
+      <c r="G2872" s="40"/>
     </row>
     <row r="2873" ht="12.75" customHeight="1">
-      <c r="E2873" s="37"/>
-      <c r="G2873" s="37"/>
+      <c r="E2873" s="40"/>
+      <c r="G2873" s="40"/>
     </row>
     <row r="2874" ht="12.75" customHeight="1">
-      <c r="E2874" s="37"/>
-      <c r="G2874" s="37"/>
+      <c r="E2874" s="40"/>
+      <c r="G2874" s="40"/>
     </row>
     <row r="2875" ht="12.75" customHeight="1">
-      <c r="E2875" s="37"/>
-      <c r="G2875" s="37"/>
+      <c r="E2875" s="40"/>
+      <c r="G2875" s="40"/>
     </row>
     <row r="2876" ht="12.75" customHeight="1">
-      <c r="E2876" s="37"/>
-      <c r="G2876" s="37"/>
+      <c r="E2876" s="40"/>
+      <c r="G2876" s="40"/>
     </row>
     <row r="2877" ht="12.75" customHeight="1">
-      <c r="E2877" s="37"/>
-      <c r="G2877" s="37"/>
+      <c r="E2877" s="40"/>
+      <c r="G2877" s="40"/>
     </row>
     <row r="2878" ht="12.75" customHeight="1">
-      <c r="E2878" s="37"/>
-      <c r="G2878" s="37"/>
+      <c r="E2878" s="40"/>
+      <c r="G2878" s="40"/>
     </row>
     <row r="2879" ht="12.75" customHeight="1">
-      <c r="E2879" s="37"/>
-      <c r="G2879" s="37"/>
+      <c r="E2879" s="40"/>
+      <c r="G2879" s="40"/>
     </row>
     <row r="2880" ht="12.75" customHeight="1">
-      <c r="E2880" s="37"/>
-      <c r="G2880" s="37"/>
+      <c r="E2880" s="40"/>
+      <c r="G2880" s="40"/>
     </row>
     <row r="2881" ht="12.75" customHeight="1">
-      <c r="E2881" s="37"/>
-      <c r="G2881" s="37"/>
+      <c r="E2881" s="40"/>
+      <c r="G2881" s="40"/>
     </row>
     <row r="2882" ht="12.75" customHeight="1">
-      <c r="E2882" s="37"/>
-      <c r="G2882" s="37"/>
+      <c r="E2882" s="40"/>
+      <c r="G2882" s="40"/>
     </row>
     <row r="2883" ht="12.75" customHeight="1">
-      <c r="E2883" s="37"/>
-      <c r="G2883" s="37"/>
+      <c r="E2883" s="40"/>
+      <c r="G2883" s="40"/>
     </row>
     <row r="2884" ht="12.75" customHeight="1">
-      <c r="E2884" s="37"/>
-      <c r="G2884" s="37"/>
+      <c r="E2884" s="40"/>
+      <c r="G2884" s="40"/>
     </row>
     <row r="2885" ht="12.75" customHeight="1">
-      <c r="E2885" s="37"/>
-      <c r="G2885" s="37"/>
+      <c r="E2885" s="40"/>
+      <c r="G2885" s="40"/>
     </row>
     <row r="2886" ht="12.75" customHeight="1">
-      <c r="E2886" s="37"/>
-      <c r="G2886" s="37"/>
+      <c r="E2886" s="40"/>
+      <c r="G2886" s="40"/>
     </row>
     <row r="2887" ht="12.75" customHeight="1">
-      <c r="E2887" s="37"/>
-      <c r="G2887" s="37"/>
+      <c r="E2887" s="40"/>
+      <c r="G2887" s="40"/>
     </row>
     <row r="2888" ht="12.75" customHeight="1">
-      <c r="E2888" s="37"/>
-      <c r="G2888" s="37"/>
+      <c r="E2888" s="40"/>
+      <c r="G2888" s="40"/>
     </row>
     <row r="2889" ht="12.75" customHeight="1">
-      <c r="E2889" s="37"/>
-      <c r="G2889" s="37"/>
+      <c r="E2889" s="40"/>
+      <c r="G2889" s="40"/>
     </row>
     <row r="2890" ht="12.75" customHeight="1">
-      <c r="E2890" s="37"/>
-      <c r="G2890" s="37"/>
+      <c r="E2890" s="40"/>
+      <c r="G2890" s="40"/>
     </row>
     <row r="2891" ht="12.75" customHeight="1">
-      <c r="E2891" s="37"/>
-      <c r="G2891" s="37"/>
+      <c r="E2891" s="40"/>
+      <c r="G2891" s="40"/>
     </row>
     <row r="2892" ht="12.75" customHeight="1">
-      <c r="E2892" s="37"/>
-      <c r="G2892" s="37"/>
+      <c r="E2892" s="40"/>
+      <c r="G2892" s="40"/>
     </row>
     <row r="2893" ht="12.75" customHeight="1">
-      <c r="E2893" s="37"/>
-      <c r="G2893" s="37"/>
+      <c r="E2893" s="40"/>
+      <c r="G2893" s="40"/>
     </row>
     <row r="2894" ht="12.75" customHeight="1">
-      <c r="E2894" s="37"/>
-      <c r="G2894" s="37"/>
+      <c r="E2894" s="40"/>
+      <c r="G2894" s="40"/>
     </row>
     <row r="2895" ht="12.75" customHeight="1">
-      <c r="E2895" s="37"/>
-      <c r="G2895" s="37"/>
+      <c r="E2895" s="40"/>
+      <c r="G2895" s="40"/>
     </row>
     <row r="2896" ht="12.75" customHeight="1">
-      <c r="E2896" s="37"/>
-      <c r="G2896" s="37"/>
+      <c r="E2896" s="40"/>
+      <c r="G2896" s="40"/>
     </row>
     <row r="2897" ht="12.75" customHeight="1">
-      <c r="E2897" s="37"/>
-      <c r="G2897" s="37"/>
+      <c r="E2897" s="40"/>
+      <c r="G2897" s="40"/>
     </row>
     <row r="2898" ht="12.75" customHeight="1">
-      <c r="E2898" s="37"/>
-      <c r="G2898" s="37"/>
+      <c r="E2898" s="40"/>
+      <c r="G2898" s="40"/>
     </row>
     <row r="2899" ht="12.75" customHeight="1">
-      <c r="E2899" s="37"/>
-      <c r="G2899" s="37"/>
+      <c r="E2899" s="40"/>
+      <c r="G2899" s="40"/>
     </row>
     <row r="2900" ht="12.75" customHeight="1">
-      <c r="E2900" s="37"/>
-      <c r="G2900" s="37"/>
+      <c r="E2900" s="40"/>
+      <c r="G2900" s="40"/>
     </row>
     <row r="2901" ht="12.75" customHeight="1">
-      <c r="E2901" s="37"/>
-      <c r="G2901" s="37"/>
+      <c r="E2901" s="40"/>
+      <c r="G2901" s="40"/>
     </row>
     <row r="2902" ht="12.75" customHeight="1">
-      <c r="E2902" s="37"/>
-      <c r="G2902" s="37"/>
+      <c r="E2902" s="40"/>
+      <c r="G2902" s="40"/>
     </row>
     <row r="2903" ht="12.75" customHeight="1">
-      <c r="E2903" s="37"/>
-      <c r="G2903" s="37"/>
+      <c r="E2903" s="40"/>
+      <c r="G2903" s="40"/>
     </row>
     <row r="2904" ht="12.75" customHeight="1">
-      <c r="E2904" s="37"/>
-      <c r="G2904" s="37"/>
+      <c r="E2904" s="40"/>
+      <c r="G2904" s="40"/>
     </row>
     <row r="2905" ht="12.75" customHeight="1">
-      <c r="E2905" s="37"/>
-      <c r="G2905" s="37"/>
+      <c r="E2905" s="40"/>
+      <c r="G2905" s="40"/>
     </row>
     <row r="2906" ht="12.75" customHeight="1">
-      <c r="E2906" s="37"/>
-      <c r="G2906" s="37"/>
+      <c r="E2906" s="40"/>
+      <c r="G2906" s="40"/>
     </row>
     <row r="2907" ht="12.75" customHeight="1">
-      <c r="E2907" s="37"/>
-      <c r="G2907" s="37"/>
+      <c r="E2907" s="40"/>
+      <c r="G2907" s="40"/>
     </row>
     <row r="2908" ht="12.75" customHeight="1">
-      <c r="E2908" s="37"/>
-      <c r="G2908" s="37"/>
+      <c r="E2908" s="40"/>
+      <c r="G2908" s="40"/>
     </row>
     <row r="2909" ht="12.75" customHeight="1">
-      <c r="E2909" s="37"/>
-      <c r="G2909" s="37"/>
+      <c r="E2909" s="40"/>
+      <c r="G2909" s="40"/>
     </row>
     <row r="2910" ht="12.75" customHeight="1">
-      <c r="E2910" s="37"/>
-      <c r="G2910" s="37"/>
+      <c r="E2910" s="40"/>
+      <c r="G2910" s="40"/>
     </row>
     <row r="2911" ht="12.75" customHeight="1">
-      <c r="E2911" s="37"/>
-      <c r="G2911" s="37"/>
+      <c r="E2911" s="40"/>
+      <c r="G2911" s="40"/>
     </row>
     <row r="2912" ht="12.75" customHeight="1">
-      <c r="E2912" s="37"/>
-      <c r="G2912" s="37"/>
+      <c r="E2912" s="40"/>
+      <c r="G2912" s="40"/>
     </row>
     <row r="2913" ht="12.75" customHeight="1">
-      <c r="E2913" s="37"/>
-      <c r="G2913" s="37"/>
+      <c r="E2913" s="40"/>
+      <c r="G2913" s="40"/>
     </row>
     <row r="2914" ht="12.75" customHeight="1">
-      <c r="E2914" s="37"/>
-      <c r="G2914" s="37"/>
+      <c r="E2914" s="40"/>
+      <c r="G2914" s="40"/>
     </row>
     <row r="2915" ht="12.75" customHeight="1">
-      <c r="E2915" s="37"/>
-      <c r="G2915" s="37"/>
+      <c r="E2915" s="40"/>
+      <c r="G2915" s="40"/>
     </row>
     <row r="2916" ht="12.75" customHeight="1">
-      <c r="E2916" s="37"/>
-      <c r="G2916" s="37"/>
+      <c r="E2916" s="40"/>
+      <c r="G2916" s="40"/>
     </row>
     <row r="2917" ht="12.75" customHeight="1">
-      <c r="E2917" s="37"/>
-      <c r="G2917" s="37"/>
+      <c r="E2917" s="40"/>
+      <c r="G2917" s="40"/>
     </row>
     <row r="2918" ht="12.75" customHeight="1">
-      <c r="E2918" s="37"/>
-      <c r="G2918" s="37"/>
+      <c r="E2918" s="40"/>
+      <c r="G2918" s="40"/>
     </row>
     <row r="2919" ht="12.75" customHeight="1">
-      <c r="E2919" s="37"/>
-      <c r="G2919" s="37"/>
+      <c r="E2919" s="40"/>
+      <c r="G2919" s="40"/>
     </row>
     <row r="2920" ht="12.75" customHeight="1">
-      <c r="E2920" s="37"/>
-      <c r="G2920" s="37"/>
+      <c r="E2920" s="40"/>
+      <c r="G2920" s="40"/>
     </row>
     <row r="2921" ht="12.75" customHeight="1">
-      <c r="E2921" s="37"/>
-      <c r="G2921" s="37"/>
+      <c r="E2921" s="40"/>
+      <c r="G2921" s="40"/>
     </row>
     <row r="2922" ht="12.75" customHeight="1">
-      <c r="E2922" s="37"/>
-      <c r="G2922" s="37"/>
+      <c r="E2922" s="40"/>
+      <c r="G2922" s="40"/>
     </row>
     <row r="2923" ht="12.75" customHeight="1">
-      <c r="E2923" s="37"/>
-      <c r="G2923" s="37"/>
+      <c r="E2923" s="40"/>
+      <c r="G2923" s="40"/>
     </row>
     <row r="2924" ht="12.75" customHeight="1">
-      <c r="E2924" s="37"/>
-      <c r="G2924" s="37"/>
+      <c r="E2924" s="40"/>
+      <c r="G2924" s="40"/>
     </row>
     <row r="2925" ht="12.75" customHeight="1">
-      <c r="E2925" s="37"/>
-      <c r="G2925" s="37"/>
+      <c r="E2925" s="40"/>
+      <c r="G2925" s="40"/>
     </row>
     <row r="2926" ht="12.75" customHeight="1">
-      <c r="E2926" s="37"/>
-      <c r="G2926" s="37"/>
+      <c r="E2926" s="40"/>
+      <c r="G2926" s="40"/>
     </row>
     <row r="2927" ht="12.75" customHeight="1">
-      <c r="E2927" s="37"/>
-      <c r="G2927" s="37"/>
+      <c r="E2927" s="40"/>
+      <c r="G2927" s="40"/>
     </row>
     <row r="2928" ht="12.75" customHeight="1">
-      <c r="E2928" s="37"/>
-      <c r="G2928" s="37"/>
+      <c r="E2928" s="40"/>
+      <c r="G2928" s="40"/>
     </row>
     <row r="2929" ht="12.75" customHeight="1">
-      <c r="E2929" s="37"/>
-      <c r="G2929" s="37"/>
+      <c r="E2929" s="40"/>
+      <c r="G2929" s="40"/>
     </row>
     <row r="2930" ht="12.75" customHeight="1">
-      <c r="E2930" s="37"/>
-      <c r="G2930" s="37"/>
+      <c r="E2930" s="40"/>
+      <c r="G2930" s="40"/>
     </row>
     <row r="2931" ht="12.75" customHeight="1">
-      <c r="E2931" s="37"/>
-      <c r="G2931" s="37"/>
+      <c r="E2931" s="40"/>
+      <c r="G2931" s="40"/>
     </row>
     <row r="2932" ht="12.75" customHeight="1">
-      <c r="E2932" s="37"/>
-      <c r="G2932" s="37"/>
+      <c r="E2932" s="40"/>
+      <c r="G2932" s="40"/>
     </row>
     <row r="2933" ht="12.75" customHeight="1">
-      <c r="E2933" s="37"/>
-      <c r="G2933" s="37"/>
+      <c r="E2933" s="40"/>
+      <c r="G2933" s="40"/>
     </row>
     <row r="2934" ht="12.75" customHeight="1">
-      <c r="E2934" s="37"/>
-      <c r="G2934" s="37"/>
+      <c r="E2934" s="40"/>
+      <c r="G2934" s="40"/>
     </row>
     <row r="2935" ht="12.75" customHeight="1">
-      <c r="E2935" s="37"/>
-      <c r="G2935" s="37"/>
+      <c r="E2935" s="40"/>
+      <c r="G2935" s="40"/>
     </row>
     <row r="2936" ht="12.75" customHeight="1">
-      <c r="E2936" s="37"/>
-      <c r="G2936" s="37"/>
+      <c r="E2936" s="40"/>
+      <c r="G2936" s="40"/>
     </row>
     <row r="2937" ht="12.75" customHeight="1">
-      <c r="E2937" s="37"/>
-      <c r="G2937" s="37"/>
+      <c r="E2937" s="40"/>
+      <c r="G2937" s="40"/>
     </row>
     <row r="2938" ht="12.75" customHeight="1">
-      <c r="E2938" s="37"/>
-      <c r="G2938" s="37"/>
+      <c r="E2938" s="40"/>
+      <c r="G2938" s="40"/>
     </row>
     <row r="2939" ht="12.75" customHeight="1">
-      <c r="E2939" s="37"/>
-      <c r="G2939" s="37"/>
+      <c r="E2939" s="40"/>
+      <c r="G2939" s="40"/>
     </row>
     <row r="2940" ht="12.75" customHeight="1">
-      <c r="E2940" s="37"/>
-      <c r="G2940" s="37"/>
+      <c r="E2940" s="40"/>
+      <c r="G2940" s="40"/>
     </row>
     <row r="2941" ht="12.75" customHeight="1">
-      <c r="E2941" s="37"/>
-      <c r="G2941" s="37"/>
+      <c r="E2941" s="40"/>
+      <c r="G2941" s="40"/>
     </row>
     <row r="2942" ht="12.75" customHeight="1">
-      <c r="E2942" s="37"/>
-      <c r="G2942" s="37"/>
+      <c r="E2942" s="40"/>
+      <c r="G2942" s="40"/>
     </row>
     <row r="2943" ht="12.75" customHeight="1">
-      <c r="E2943" s="37"/>
-      <c r="G2943" s="37"/>
+      <c r="E2943" s="40"/>
+      <c r="G2943" s="40"/>
     </row>
     <row r="2944" ht="12.75" customHeight="1">
-      <c r="E2944" s="37"/>
-      <c r="G2944" s="37"/>
+      <c r="E2944" s="40"/>
+      <c r="G2944" s="40"/>
     </row>
     <row r="2945" ht="12.75" customHeight="1">
-      <c r="E2945" s="37"/>
-      <c r="G2945" s="37"/>
+      <c r="E2945" s="40"/>
+      <c r="G2945" s="40"/>
     </row>
     <row r="2946" ht="12.75" customHeight="1">
-      <c r="E2946" s="37"/>
-      <c r="G2946" s="37"/>
+      <c r="E2946" s="40"/>
+      <c r="G2946" s="40"/>
     </row>
     <row r="2947" ht="12.75" customHeight="1">
-      <c r="E2947" s="37"/>
-      <c r="G2947" s="37"/>
+      <c r="E2947" s="40"/>
+      <c r="G2947" s="40"/>
     </row>
     <row r="2948" ht="12.75" customHeight="1">
-      <c r="E2948" s="37"/>
-      <c r="G2948" s="37"/>
+      <c r="E2948" s="40"/>
+      <c r="G2948" s="40"/>
     </row>
     <row r="2949" ht="12.75" customHeight="1">
-      <c r="E2949" s="37"/>
-      <c r="G2949" s="37"/>
+      <c r="E2949" s="40"/>
+      <c r="G2949" s="40"/>
     </row>
     <row r="2950" ht="12.75" customHeight="1">
-      <c r="E2950" s="37"/>
-      <c r="G2950" s="37"/>
+      <c r="E2950" s="40"/>
+      <c r="G2950" s="40"/>
     </row>
     <row r="2951" ht="12.75" customHeight="1">
-      <c r="E2951" s="37"/>
-      <c r="G2951" s="37"/>
+      <c r="E2951" s="40"/>
+      <c r="G2951" s="40"/>
     </row>
     <row r="2952" ht="12.75" customHeight="1">
-      <c r="E2952" s="37"/>
-      <c r="G2952" s="37"/>
+      <c r="E2952" s="40"/>
+      <c r="G2952" s="40"/>
     </row>
     <row r="2953" ht="12.75" customHeight="1">
-      <c r="E2953" s="37"/>
-      <c r="G2953" s="37"/>
+      <c r="E2953" s="40"/>
+      <c r="G2953" s="40"/>
     </row>
     <row r="2954" ht="12.75" customHeight="1">
-      <c r="E2954" s="37"/>
-      <c r="G2954" s="37"/>
+      <c r="E2954" s="40"/>
+      <c r="G2954" s="40"/>
     </row>
     <row r="2955" ht="12.75" customHeight="1">
-      <c r="E2955" s="37"/>
-      <c r="G2955" s="37"/>
+      <c r="E2955" s="40"/>
+      <c r="G2955" s="40"/>
     </row>
     <row r="2956" ht="12.75" customHeight="1">
-      <c r="E2956" s="37"/>
-      <c r="G2956" s="37"/>
+      <c r="E2956" s="40"/>
+      <c r="G2956" s="40"/>
     </row>
     <row r="2957" ht="12.75" customHeight="1">
-      <c r="E2957" s="37"/>
-      <c r="G2957" s="37"/>
+      <c r="E2957" s="40"/>
+      <c r="G2957" s="40"/>
     </row>
     <row r="2958" ht="12.75" customHeight="1">
-      <c r="E2958" s="37"/>
-      <c r="G2958" s="37"/>
+      <c r="E2958" s="40"/>
+      <c r="G2958" s="40"/>
     </row>
     <row r="2959" ht="12.75" customHeight="1">
-      <c r="E2959" s="37"/>
-      <c r="G2959" s="37"/>
+      <c r="E2959" s="40"/>
+      <c r="G2959" s="40"/>
     </row>
     <row r="2960" ht="12.75" customHeight="1">
-      <c r="E2960" s="37"/>
-      <c r="G2960" s="37"/>
+      <c r="E2960" s="40"/>
+      <c r="G2960" s="40"/>
     </row>
     <row r="2961" ht="12.75" customHeight="1">
-      <c r="E2961" s="37"/>
-      <c r="G2961" s="37"/>
+      <c r="E2961" s="40"/>
+      <c r="G2961" s="40"/>
     </row>
     <row r="2962" ht="12.75" customHeight="1">
-      <c r="E2962" s="37"/>
-      <c r="G2962" s="37"/>
+      <c r="E2962" s="40"/>
+      <c r="G2962" s="40"/>
     </row>
     <row r="2963" ht="12.75" customHeight="1">
-      <c r="E2963" s="37"/>
-      <c r="G2963" s="37"/>
+      <c r="E2963" s="40"/>
+      <c r="G2963" s="40"/>
     </row>
     <row r="2964" ht="12.75" customHeight="1">
-      <c r="E2964" s="37"/>
-      <c r="G2964" s="37"/>
+      <c r="E2964" s="40"/>
+      <c r="G2964" s="40"/>
     </row>
     <row r="2965" ht="12.75" customHeight="1">
-      <c r="E2965" s="37"/>
-      <c r="G2965" s="37"/>
+      <c r="E2965" s="40"/>
+      <c r="G2965" s="40"/>
     </row>
     <row r="2966" ht="12.75" customHeight="1">
-      <c r="E2966" s="37"/>
-      <c r="G2966" s="37"/>
+      <c r="E2966" s="40"/>
+      <c r="G2966" s="40"/>
     </row>
     <row r="2967" ht="12.75" customHeight="1">
-      <c r="E2967" s="37"/>
-      <c r="G2967" s="37"/>
+      <c r="E2967" s="40"/>
+      <c r="G2967" s="40"/>
     </row>
     <row r="2968" ht="12.75" customHeight="1">
-      <c r="E2968" s="37"/>
-      <c r="G2968" s="37"/>
+      <c r="E2968" s="40"/>
+      <c r="G2968" s="40"/>
     </row>
     <row r="2969" ht="12.75" customHeight="1">
-      <c r="E2969" s="37"/>
-      <c r="G2969" s="37"/>
+      <c r="E2969" s="40"/>
+      <c r="G2969" s="40"/>
     </row>
     <row r="2970" ht="12.75" customHeight="1">
-      <c r="E2970" s="37"/>
-      <c r="G2970" s="37"/>
+      <c r="E2970" s="40"/>
+      <c r="G2970" s="40"/>
     </row>
     <row r="2971" ht="12.75" customHeight="1">
-      <c r="E2971" s="37"/>
-      <c r="G2971" s="37"/>
+      <c r="E2971" s="40"/>
+      <c r="G2971" s="40"/>
     </row>
     <row r="2972" ht="12.75" customHeight="1">
-      <c r="E2972" s="37"/>
-      <c r="G2972" s="37"/>
+      <c r="E2972" s="40"/>
+      <c r="G2972" s="40"/>
     </row>
     <row r="2973" ht="12.75" customHeight="1">
-      <c r="E2973" s="37"/>
-      <c r="G2973" s="37"/>
+      <c r="E2973" s="40"/>
+      <c r="G2973" s="40"/>
     </row>
     <row r="2974" ht="12.75" customHeight="1">
-      <c r="E2974" s="37"/>
-      <c r="G2974" s="37"/>
+      <c r="E2974" s="40"/>
+      <c r="G2974" s="40"/>
     </row>
     <row r="2975" ht="12.75" customHeight="1">
-      <c r="E2975" s="37"/>
-      <c r="G2975" s="37"/>
+      <c r="E2975" s="40"/>
+      <c r="G2975" s="40"/>
     </row>
     <row r="2976" ht="12.75" customHeight="1">
-      <c r="E2976" s="37"/>
-      <c r="G2976" s="37"/>
+      <c r="E2976" s="40"/>
+      <c r="G2976" s="40"/>
     </row>
     <row r="2977" ht="12.75" customHeight="1">
-      <c r="E2977" s="37"/>
-      <c r="G2977" s="37"/>
+      <c r="E2977" s="40"/>
+      <c r="G2977" s="40"/>
     </row>
     <row r="2978" ht="12.75" customHeight="1">
-      <c r="E2978" s="37"/>
-      <c r="G2978" s="37"/>
+      <c r="E2978" s="40"/>
+      <c r="G2978" s="40"/>
     </row>
     <row r="2979" ht="12.75" customHeight="1">
-      <c r="E2979" s="37"/>
-      <c r="G2979" s="37"/>
+      <c r="E2979" s="40"/>
+      <c r="G2979" s="40"/>
     </row>
     <row r="2980" ht="12.75" customHeight="1">
-      <c r="E2980" s="37"/>
-      <c r="G2980" s="37"/>
+      <c r="E2980" s="40"/>
+      <c r="G2980" s="40"/>
     </row>
     <row r="2981" ht="12.75" customHeight="1">
-      <c r="E2981" s="37"/>
-      <c r="G2981" s="37"/>
+      <c r="E2981" s="40"/>
+      <c r="G2981" s="40"/>
     </row>
     <row r="2982" ht="12.75" customHeight="1">
-      <c r="E2982" s="37"/>
-      <c r="G2982" s="37"/>
+      <c r="E2982" s="40"/>
+      <c r="G2982" s="40"/>
     </row>
     <row r="2983" ht="12.75" customHeight="1">
-      <c r="E2983" s="37"/>
-      <c r="G2983" s="37"/>
+      <c r="E2983" s="40"/>
+      <c r="G2983" s="40"/>
     </row>
     <row r="2984" ht="12.75" customHeight="1">
-      <c r="E2984" s="37"/>
-      <c r="G2984" s="37"/>
+      <c r="E2984" s="40"/>
+      <c r="G2984" s="40"/>
     </row>
     <row r="2985" ht="12.75" customHeight="1">
-      <c r="E2985" s="37"/>
-      <c r="G2985" s="37"/>
+      <c r="E2985" s="40"/>
+      <c r="G2985" s="40"/>
     </row>
     <row r="2986" ht="12.75" customHeight="1">
-      <c r="E2986" s="37"/>
-      <c r="G2986" s="37"/>
+      <c r="E2986" s="40"/>
+      <c r="G2986" s="40"/>
     </row>
     <row r="2987" ht="12.75" customHeight="1">
-      <c r="E2987" s="37"/>
-      <c r="G2987" s="37"/>
+      <c r="E2987" s="40"/>
+      <c r="G2987" s="40"/>
     </row>
     <row r="2988" ht="12.75" customHeight="1">
-      <c r="E2988" s="37"/>
-      <c r="G2988" s="37"/>
+      <c r="E2988" s="40"/>
+      <c r="G2988" s="40"/>
     </row>
     <row r="2989" ht="12.75" customHeight="1">
-      <c r="E2989" s="37"/>
-      <c r="G2989" s="37"/>
+      <c r="E2989" s="40"/>
+      <c r="G2989" s="40"/>
     </row>
     <row r="2990" ht="12.75" customHeight="1">
-      <c r="E2990" s="37"/>
-      <c r="G2990" s="37"/>
+      <c r="E2990" s="40"/>
+      <c r="G2990" s="40"/>
     </row>
     <row r="2991" ht="12.75" customHeight="1">
-      <c r="E2991" s="37"/>
-      <c r="G2991" s="37"/>
+      <c r="E2991" s="40"/>
+      <c r="G2991" s="40"/>
     </row>
     <row r="2992" ht="12.75" customHeight="1">
-      <c r="E2992" s="37"/>
-      <c r="G2992" s="37"/>
+      <c r="E2992" s="40"/>
+      <c r="G2992" s="40"/>
     </row>
     <row r="2993" ht="12.75" customHeight="1">
-      <c r="E2993" s="37"/>
-      <c r="G2993" s="37"/>
+      <c r="E2993" s="40"/>
+      <c r="G2993" s="40"/>
     </row>
     <row r="2994" ht="12.75" customHeight="1">
-      <c r="E2994" s="37"/>
-      <c r="G2994" s="37"/>
+      <c r="E2994" s="40"/>
+      <c r="G2994" s="40"/>
     </row>
     <row r="2995" ht="12.75" customHeight="1">
-      <c r="E2995" s="37"/>
-      <c r="G2995" s="37"/>
+      <c r="E2995" s="40"/>
+      <c r="G2995" s="40"/>
     </row>
     <row r="2996" ht="12.75" customHeight="1">
-      <c r="E2996" s="37"/>
-      <c r="G2996" s="37"/>
+      <c r="E2996" s="40"/>
+      <c r="G2996" s="40"/>
     </row>
     <row r="2997" ht="12.75" customHeight="1">
-      <c r="E2997" s="37"/>
-      <c r="G2997" s="37"/>
+      <c r="E2997" s="40"/>
+      <c r="G2997" s="40"/>
     </row>
     <row r="2998" ht="12.75" customHeight="1">
-      <c r="E2998" s="37"/>
-      <c r="G2998" s="37"/>
+      <c r="E2998" s="40"/>
+      <c r="G2998" s="40"/>
     </row>
     <row r="2999" ht="12.75" customHeight="1">
-      <c r="E2999" s="37"/>
-      <c r="G2999" s="37"/>
+      <c r="E2999" s="40"/>
+      <c r="G2999" s="40"/>
     </row>
     <row r="3000" ht="12.75" customHeight="1">
-      <c r="E3000" s="37"/>
-      <c r="G3000" s="37"/>
+      <c r="E3000" s="40"/>
+      <c r="G3000" s="40"/>
     </row>
     <row r="3001" ht="12.75" customHeight="1">
-      <c r="E3001" s="37"/>
-      <c r="G3001" s="37"/>
+      <c r="E3001" s="40"/>
+      <c r="G3001" s="40"/>
     </row>
     <row r="3002" ht="12.75" customHeight="1">
-      <c r="E3002" s="37"/>
-      <c r="G3002" s="37"/>
+      <c r="E3002" s="40"/>
+      <c r="G3002" s="40"/>
     </row>
     <row r="3003" ht="12.75" customHeight="1">
-      <c r="E3003" s="37"/>
-      <c r="G3003" s="37"/>
+      <c r="E3003" s="40"/>
+      <c r="G3003" s="40"/>
     </row>
     <row r="3004" ht="12.75" customHeight="1">
-      <c r="E3004" s="37"/>
-      <c r="G3004" s="37"/>
+      <c r="E3004" s="40"/>
+      <c r="G3004" s="40"/>
     </row>
     <row r="3005" ht="12.75" customHeight="1">
-      <c r="E3005" s="37"/>
-      <c r="G3005" s="37"/>
+      <c r="E3005" s="40"/>
+      <c r="G3005" s="40"/>
     </row>
     <row r="3006" ht="12.75" customHeight="1">
-      <c r="E3006" s="37"/>
-      <c r="G3006" s="37"/>
+      <c r="E3006" s="40"/>
+      <c r="G3006" s="40"/>
     </row>
     <row r="3007" ht="12.75" customHeight="1">
-      <c r="E3007" s="37"/>
-      <c r="G3007" s="37"/>
+      <c r="E3007" s="40"/>
+      <c r="G3007" s="40"/>
     </row>
     <row r="3008" ht="12.75" customHeight="1">
-      <c r="E3008" s="37"/>
-      <c r="G3008" s="37"/>
+      <c r="E3008" s="40"/>
+      <c r="G3008" s="40"/>
     </row>
     <row r="3009" ht="12.75" customHeight="1">
-      <c r="E3009" s="37"/>
-      <c r="G3009" s="37"/>
+      <c r="E3009" s="40"/>
+      <c r="G3009" s="40"/>
     </row>
     <row r="3010" ht="12.75" customHeight="1">
-      <c r="E3010" s="37"/>
-      <c r="G3010" s="37"/>
+      <c r="E3010" s="40"/>
+      <c r="G3010" s="40"/>
     </row>
     <row r="3011" ht="12.75" customHeight="1">
-      <c r="E3011" s="37"/>
-      <c r="G3011" s="37"/>
+      <c r="E3011" s="40"/>
+      <c r="G3011" s="40"/>
     </row>
     <row r="3012" ht="12.75" customHeight="1">
-      <c r="E3012" s="37"/>
-      <c r="G3012" s="37"/>
+      <c r="E3012" s="40"/>
+      <c r="G3012" s="40"/>
     </row>
     <row r="3013" ht="12.75" customHeight="1">
-      <c r="E3013" s="37"/>
-      <c r="G3013" s="37"/>
+      <c r="E3013" s="40"/>
+      <c r="G3013" s="40"/>
     </row>
     <row r="3014" ht="12.75" customHeight="1">
-      <c r="E3014" s="37"/>
-      <c r="G3014" s="37"/>
+      <c r="E3014" s="40"/>
+      <c r="G3014" s="40"/>
     </row>
     <row r="3015" ht="12.75" customHeight="1">
-      <c r="E3015" s="37"/>
-      <c r="G3015" s="37"/>
+      <c r="E3015" s="40"/>
+      <c r="G3015" s="40"/>
     </row>
     <row r="3016" ht="12.75" customHeight="1">
-      <c r="E3016" s="37"/>
-      <c r="G3016" s="37"/>
+      <c r="E3016" s="40"/>
+      <c r="G3016" s="40"/>
     </row>
     <row r="3017" ht="12.75" customHeight="1">
-      <c r="E3017" s="37"/>
-      <c r="G3017" s="37"/>
+      <c r="E3017" s="40"/>
+      <c r="G3017" s="40"/>
     </row>
     <row r="3018" ht="12.75" customHeight="1">
-      <c r="E3018" s="37"/>
-      <c r="G3018" s="37"/>
+      <c r="E3018" s="40"/>
+      <c r="G3018" s="40"/>
     </row>
     <row r="3019" ht="12.75" customHeight="1">
-      <c r="E3019" s="37"/>
-      <c r="G3019" s="37"/>
+      <c r="E3019" s="40"/>
+      <c r="G3019" s="40"/>
     </row>
     <row r="3020" ht="12.75" customHeight="1">
-      <c r="E3020" s="37"/>
-      <c r="G3020" s="37"/>
+      <c r="E3020" s="40"/>
+      <c r="G3020" s="40"/>
     </row>
     <row r="3021" ht="12.75" customHeight="1">
-      <c r="E3021" s="37"/>
-      <c r="G3021" s="37"/>
+      <c r="E3021" s="40"/>
+      <c r="G3021" s="40"/>
     </row>
     <row r="3022" ht="12.75" customHeight="1">
-      <c r="E3022" s="37"/>
-      <c r="G3022" s="37"/>
+      <c r="E3022" s="40"/>
+      <c r="G3022" s="40"/>
     </row>
     <row r="3023" ht="12.75" customHeight="1">
-      <c r="E3023" s="37"/>
-      <c r="G3023" s="37"/>
+      <c r="E3023" s="40"/>
+      <c r="G3023" s="40"/>
     </row>
     <row r="3024" ht="12.75" customHeight="1">
-      <c r="E3024" s="37"/>
-      <c r="G3024" s="37"/>
+      <c r="E3024" s="40"/>
+      <c r="G3024" s="40"/>
     </row>
     <row r="3025" ht="12.75" customHeight="1">
-      <c r="E3025" s="37"/>
-      <c r="G3025" s="37"/>
+      <c r="E3025" s="40"/>
+      <c r="G3025" s="40"/>
     </row>
     <row r="3026" ht="12.75" customHeight="1">
-      <c r="E3026" s="37"/>
-      <c r="G3026" s="37"/>
+      <c r="E3026" s="40"/>
+      <c r="G3026" s="40"/>
     </row>
     <row r="3027" ht="12.75" customHeight="1">
-      <c r="E3027" s="37"/>
-      <c r="G3027" s="37"/>
+      <c r="E3027" s="40"/>
+      <c r="G3027" s="40"/>
     </row>
     <row r="3028" ht="12.75" customHeight="1">
-      <c r="E3028" s="37"/>
-      <c r="G3028" s="37"/>
+      <c r="E3028" s="40"/>
+      <c r="G3028" s="40"/>
     </row>
     <row r="3029" ht="12.75" customHeight="1">
-      <c r="E3029" s="37"/>
-      <c r="G3029" s="37"/>
+      <c r="E3029" s="40"/>
+      <c r="G3029" s="40"/>
     </row>
     <row r="3030" ht="12.75" customHeight="1">
-      <c r="E3030" s="37"/>
-      <c r="G3030" s="37"/>
+      <c r="E3030" s="40"/>
+      <c r="G3030" s="40"/>
     </row>
     <row r="3031" ht="12.75" customHeight="1">
-      <c r="E3031" s="37"/>
-      <c r="G3031" s="37"/>
+      <c r="E3031" s="40"/>
+      <c r="G3031" s="40"/>
     </row>
     <row r="3032" ht="12.75" customHeight="1">
-      <c r="E3032" s="37"/>
-      <c r="G3032" s="37"/>
+      <c r="E3032" s="40"/>
+      <c r="G3032" s="40"/>
     </row>
     <row r="3033" ht="12.75" customHeight="1">
-      <c r="E3033" s="37"/>
-      <c r="G3033" s="37"/>
+      <c r="E3033" s="40"/>
+      <c r="G3033" s="40"/>
     </row>
     <row r="3034" ht="12.75" customHeight="1">
-      <c r="E3034" s="37"/>
-      <c r="G3034" s="37"/>
+      <c r="E3034" s="40"/>
+      <c r="G3034" s="40"/>
     </row>
     <row r="3035" ht="12.75" customHeight="1">
-      <c r="E3035" s="37"/>
-      <c r="G3035" s="37"/>
+      <c r="E3035" s="40"/>
+      <c r="G3035" s="40"/>
     </row>
     <row r="3036" ht="12.75" customHeight="1">
-      <c r="E3036" s="37"/>
-      <c r="G3036" s="37"/>
+      <c r="E3036" s="40"/>
+      <c r="G3036" s="40"/>
     </row>
     <row r="3037" ht="12.75" customHeight="1">
-      <c r="E3037" s="37"/>
-      <c r="G3037" s="37"/>
+      <c r="E3037" s="40"/>
+      <c r="G3037" s="40"/>
     </row>
     <row r="3038" ht="12.75" customHeight="1">
-      <c r="E3038" s="37"/>
-      <c r="G3038" s="37"/>
+      <c r="E3038" s="40"/>
+      <c r="G3038" s="40"/>
     </row>
     <row r="3039" ht="12.75" customHeight="1">
-      <c r="E3039" s="37"/>
-      <c r="G3039" s="37"/>
+      <c r="E3039" s="40"/>
+      <c r="G3039" s="40"/>
     </row>
     <row r="3040" ht="12.75" customHeight="1">
-      <c r="E3040" s="37"/>
-      <c r="G3040" s="37"/>
+      <c r="E3040" s="40"/>
+      <c r="G3040" s="40"/>
     </row>
     <row r="3041" ht="12.75" customHeight="1">
-      <c r="E3041" s="37"/>
-      <c r="G3041" s="37"/>
+      <c r="E3041" s="40"/>
+      <c r="G3041" s="40"/>
     </row>
     <row r="3042" ht="12.75" customHeight="1">
-      <c r="E3042" s="37"/>
-      <c r="G3042" s="37"/>
+      <c r="E3042" s="40"/>
+      <c r="G3042" s="40"/>
     </row>
     <row r="3043" ht="12.75" customHeight="1">
-      <c r="E3043" s="37"/>
-      <c r="G3043" s="37"/>
+      <c r="E3043" s="40"/>
+      <c r="G3043" s="40"/>
     </row>
     <row r="3044" ht="12.75" customHeight="1">
-      <c r="E3044" s="37"/>
-      <c r="G3044" s="37"/>
+      <c r="E3044" s="40"/>
+      <c r="G3044" s="40"/>
     </row>
     <row r="3045" ht="12.75" customHeight="1">
-      <c r="E3045" s="37"/>
-      <c r="G3045" s="37"/>
+      <c r="E3045" s="40"/>
+      <c r="G3045" s="40"/>
     </row>
     <row r="3046" ht="12.75" customHeight="1">
-      <c r="E3046" s="37"/>
-      <c r="G3046" s="37"/>
+      <c r="E3046" s="40"/>
+      <c r="G3046" s="40"/>
     </row>
     <row r="3047" ht="12.75" customHeight="1">
-      <c r="E3047" s="37"/>
-      <c r="G3047" s="37"/>
+      <c r="E3047" s="40"/>
+      <c r="G3047" s="40"/>
     </row>
     <row r="3048" ht="12.75" customHeight="1">
-      <c r="E3048" s="37"/>
-      <c r="G3048" s="37"/>
+      <c r="E3048" s="40"/>
+      <c r="G3048" s="40"/>
     </row>
     <row r="3049" ht="12.75" customHeight="1">
-      <c r="E3049" s="37"/>
-      <c r="G3049" s="37"/>
+      <c r="E3049" s="40"/>
+      <c r="G3049" s="40"/>
     </row>
     <row r="3050" ht="12.75" customHeight="1">
-      <c r="E3050" s="37"/>
-      <c r="G3050" s="37"/>
+      <c r="E3050" s="40"/>
+      <c r="G3050" s="40"/>
     </row>
     <row r="3051" ht="12.75" customHeight="1">
-      <c r="E3051" s="37"/>
-      <c r="G3051" s="37"/>
+      <c r="E3051" s="40"/>
+      <c r="G3051" s="40"/>
     </row>
     <row r="3052" ht="12.75" customHeight="1">
-      <c r="E3052" s="37"/>
-      <c r="G3052" s="37"/>
+      <c r="E3052" s="40"/>
+      <c r="G3052" s="40"/>
     </row>
     <row r="3053" ht="12.75" customHeight="1">
-      <c r="E3053" s="37"/>
-      <c r="G3053" s="37"/>
+      <c r="E3053" s="40"/>
+      <c r="G3053" s="40"/>
     </row>
     <row r="3054" ht="12.75" customHeight="1">
-      <c r="E3054" s="37"/>
-      <c r="G3054" s="37"/>
+      <c r="E3054" s="40"/>
+      <c r="G3054" s="40"/>
     </row>
     <row r="3055" ht="12.75" customHeight="1">
-      <c r="E3055" s="37"/>
-      <c r="G3055" s="37"/>
+      <c r="E3055" s="40"/>
+      <c r="G3055" s="40"/>
     </row>
     <row r="3056" ht="12.75" customHeight="1">
-      <c r="E3056" s="37"/>
-      <c r="G3056" s="37"/>
+      <c r="E3056" s="40"/>
+      <c r="G3056" s="40"/>
     </row>
     <row r="3057" ht="12.75" customHeight="1">
-      <c r="E3057" s="37"/>
-      <c r="G3057" s="37"/>
+      <c r="E3057" s="40"/>
+      <c r="G3057" s="40"/>
     </row>
     <row r="3058" ht="12.75" customHeight="1">
-      <c r="E3058" s="37"/>
-      <c r="G3058" s="37"/>
+      <c r="E3058" s="40"/>
+      <c r="G3058" s="40"/>
     </row>
     <row r="3059" ht="12.75" customHeight="1">
-      <c r="E3059" s="37"/>
-      <c r="G3059" s="37"/>
+      <c r="E3059" s="40"/>
+      <c r="G3059" s="40"/>
     </row>
     <row r="3060" ht="12.75" customHeight="1">
-      <c r="E3060" s="37"/>
-      <c r="G3060" s="37"/>
+      <c r="E3060" s="40"/>
+      <c r="G3060" s="40"/>
     </row>
     <row r="3061" ht="12.75" customHeight="1">
-      <c r="E3061" s="37"/>
-      <c r="G3061" s="37"/>
+      <c r="E3061" s="40"/>
+      <c r="G3061" s="40"/>
     </row>
     <row r="3062" ht="12.75" customHeight="1">
-      <c r="E3062" s="37"/>
-      <c r="G3062" s="37"/>
+      <c r="E3062" s="40"/>
+      <c r="G3062" s="40"/>
     </row>
     <row r="3063" ht="12.75" customHeight="1">
-      <c r="E3063" s="37"/>
-      <c r="G3063" s="37"/>
+      <c r="E3063" s="40"/>
+      <c r="G3063" s="40"/>
     </row>
     <row r="3064" ht="12.75" customHeight="1">
-      <c r="E3064" s="37"/>
-      <c r="G3064" s="37"/>
+      <c r="E3064" s="40"/>
+      <c r="G3064" s="40"/>
     </row>
     <row r="3065" ht="12.75" customHeight="1">
-      <c r="E3065" s="37"/>
-      <c r="G3065" s="37"/>
+      <c r="E3065" s="40"/>
+      <c r="G3065" s="40"/>
     </row>
     <row r="3066" ht="12.75" customHeight="1">
-      <c r="E3066" s="37"/>
-      <c r="G3066" s="37"/>
+      <c r="E3066" s="40"/>
+      <c r="G3066" s="40"/>
     </row>
     <row r="3067" ht="12.75" customHeight="1">
-      <c r="E3067" s="37"/>
-      <c r="G3067" s="37"/>
+      <c r="E3067" s="40"/>
+      <c r="G3067" s="40"/>
     </row>
     <row r="3068" ht="12.75" customHeight="1">
-      <c r="E3068" s="37"/>
-      <c r="G3068" s="37"/>
+      <c r="E3068" s="40"/>
+      <c r="G3068" s="40"/>
     </row>
     <row r="3069" ht="12.75" customHeight="1">
-      <c r="E3069" s="37"/>
-      <c r="G3069" s="37"/>
+      <c r="E3069" s="40"/>
+      <c r="G3069" s="40"/>
     </row>
     <row r="3070" ht="12.75" customHeight="1">
-      <c r="E3070" s="37"/>
-      <c r="G3070" s="37"/>
+      <c r="E3070" s="40"/>
+      <c r="G3070" s="40"/>
     </row>
     <row r="3071" ht="12.75" customHeight="1">
-      <c r="E3071" s="37"/>
-      <c r="G3071" s="37"/>
+      <c r="E3071" s="40"/>
+      <c r="G3071" s="40"/>
     </row>
     <row r="3072" ht="12.75" customHeight="1">
-      <c r="E3072" s="37"/>
-      <c r="G3072" s="37"/>
+      <c r="E3072" s="40"/>
+      <c r="G3072" s="40"/>
     </row>
     <row r="3073" ht="12.75" customHeight="1">
-      <c r="E3073" s="37"/>
-      <c r="G3073" s="37"/>
+      <c r="E3073" s="40"/>
+      <c r="G3073" s="40"/>
     </row>
     <row r="3074" ht="12.75" customHeight="1">
-      <c r="E3074" s="37"/>
-      <c r="G3074" s="37"/>
+      <c r="E3074" s="40"/>
+      <c r="G3074" s="40"/>
     </row>
     <row r="3075" ht="12.75" customHeight="1">
-      <c r="E3075" s="37"/>
-      <c r="G3075" s="37"/>
+      <c r="E3075" s="40"/>
+      <c r="G3075" s="40"/>
     </row>
     <row r="3076" ht="12.75" customHeight="1">
-      <c r="E3076" s="37"/>
-      <c r="G3076" s="37"/>
+      <c r="E3076" s="40"/>
+      <c r="G3076" s="40"/>
     </row>
     <row r="3077" ht="12.75" customHeight="1">
-      <c r="E3077" s="37"/>
-      <c r="G3077" s="37"/>
+      <c r="E3077" s="40"/>
+      <c r="G3077" s="40"/>
     </row>
     <row r="3078" ht="12.75" customHeight="1">
-      <c r="E3078" s="37"/>
-      <c r="G3078" s="37"/>
+      <c r="E3078" s="40"/>
+      <c r="G3078" s="40"/>
     </row>
     <row r="3079" ht="12.75" customHeight="1">
-      <c r="E3079" s="37"/>
-      <c r="G3079" s="37"/>
+      <c r="E3079" s="40"/>
+      <c r="G3079" s="40"/>
     </row>
     <row r="3080" ht="12.75" customHeight="1">
-      <c r="E3080" s="37"/>
-      <c r="G3080" s="37"/>
+      <c r="E3080" s="40"/>
+      <c r="G3080" s="40"/>
     </row>
     <row r="3081" ht="12.75" customHeight="1">
-      <c r="E3081" s="37"/>
-      <c r="G3081" s="37"/>
+      <c r="E3081" s="40"/>
+      <c r="G3081" s="40"/>
     </row>
     <row r="3082" ht="12.75" customHeight="1">
-      <c r="E3082" s="37"/>
-      <c r="G3082" s="37"/>
+      <c r="E3082" s="40"/>
+      <c r="G3082" s="40"/>
     </row>
     <row r="3083" ht="12.75" customHeight="1">
-      <c r="E3083" s="37"/>
-      <c r="G3083" s="37"/>
+      <c r="E3083" s="40"/>
+      <c r="G3083" s="40"/>
     </row>
     <row r="3084" ht="12.75" customHeight="1">
-      <c r="E3084" s="37"/>
-      <c r="G3084" s="37"/>
+      <c r="E3084" s="40"/>
+      <c r="G3084" s="40"/>
     </row>
     <row r="3085" ht="12.75" customHeight="1">
-      <c r="E3085" s="37"/>
-      <c r="G3085" s="37"/>
+      <c r="E3085" s="40"/>
+      <c r="G3085" s="40"/>
     </row>
     <row r="3086" ht="12.75" customHeight="1">
-      <c r="E3086" s="37"/>
-      <c r="G3086" s="37"/>
+      <c r="E3086" s="40"/>
+      <c r="G3086" s="40"/>
     </row>
     <row r="3087" ht="12.75" customHeight="1">
-      <c r="E3087" s="37"/>
-      <c r="G3087" s="37"/>
+      <c r="E3087" s="40"/>
+      <c r="G3087" s="40"/>
     </row>
     <row r="3088" ht="12.75" customHeight="1">
-      <c r="E3088" s="37"/>
-      <c r="G3088" s="37"/>
+      <c r="E3088" s="40"/>
+      <c r="G3088" s="40"/>
     </row>
     <row r="3089" ht="12.75" customHeight="1">
-      <c r="E3089" s="37"/>
-      <c r="G3089" s="37"/>
+      <c r="E3089" s="40"/>
+      <c r="G3089" s="40"/>
     </row>
     <row r="3090" ht="12.75" customHeight="1">
-      <c r="E3090" s="37"/>
-      <c r="G3090" s="37"/>
+      <c r="E3090" s="40"/>
+      <c r="G3090" s="40"/>
     </row>
     <row r="3091" ht="12.75" customHeight="1">
-      <c r="E3091" s="37"/>
-      <c r="G3091" s="37"/>
+      <c r="E3091" s="40"/>
+      <c r="G3091" s="40"/>
     </row>
     <row r="3092" ht="12.75" customHeight="1">
-      <c r="E3092" s="37"/>
-      <c r="G3092" s="37"/>
+      <c r="E3092" s="40"/>
+      <c r="G3092" s="40"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$2:$I$2093"/>
